--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124A43C-5AA6-4CC5-881A-7C9285CCEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (サンプル)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'全体スケジュール (テンプレート)'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -456,6 +454,210 @@
     <rPh sb="4" eb="5">
       <t>ロク</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>要件定義（SP）</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント定義書</t>
+    <rPh sb="4" eb="7">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員機能
+会員登録、ログイン</t>
+    <rPh sb="0" eb="4">
+      <t>カイインキノウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイイントウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員機能
+会員情報変更、退会</t>
+    <rPh sb="0" eb="4">
+      <t>カイインキノウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>カイインジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単体試験</t>
+    <rPh sb="0" eb="4">
+      <t>タンタイシケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>永田　歩輝</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アユキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>永田　歩輝</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+商品検索、検索結果画面、商品詳細画面</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ケンサクブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピング機能（カート部分）
+カート内の確認、カートへの登録</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピング機能（購入部分）
+会員登録内容に従って購入</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>カイイントウロクナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピング機能（購入部分）
+配送先の指定</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハイソウサキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員機能
+購入商品の履歴削除</t>
+    <rPh sb="0" eb="4">
+      <t>カイインキノウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウニュウショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>リレキサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員機能
+購入商品のキャンセル手続き</t>
+    <rPh sb="0" eb="4">
+      <t>カイインキノウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウニュウショウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>100%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -468,7 +670,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -498,6 +700,13 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -563,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1569,11 +1778,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,6 +1982,297 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +2282,69 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1767,359 +2354,221 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2823,117 +3272,114 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="158">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="158">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
+      <c r="AL1" s="159"/>
+      <c r="AM1" s="159"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="159"/>
+      <c r="AP1" s="159"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="159"/>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
+      <c r="AV1" s="159"/>
+      <c r="AW1" s="159"/>
+      <c r="AX1" s="159"/>
+      <c r="AY1" s="159"/>
+      <c r="AZ1" s="159"/>
+      <c r="BA1" s="159"/>
+      <c r="BB1" s="159"/>
+      <c r="BC1" s="159"/>
+      <c r="BD1" s="159"/>
+      <c r="BE1" s="159"/>
+      <c r="BF1" s="159"/>
+      <c r="BG1" s="159"/>
+      <c r="BH1" s="159"/>
+      <c r="BI1" s="159"/>
+      <c r="BJ1" s="159"/>
+      <c r="BK1" s="159"/>
+      <c r="BL1" s="159"/>
+      <c r="BM1" s="159"/>
+      <c r="BN1" s="160"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3175,12 +3621,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3268,10 +3714,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3280,19 +3726,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AP3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3301,19 +3747,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AU3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AW3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3322,19 +3768,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BB3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BD3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BF3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3343,43 +3789,47 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BI3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BK3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BM3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BN3" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="151">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="219" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="238" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="192"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3404,8 +3854,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3434,20 +3884,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
+      <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3472,8 +3922,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="83"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3502,31 +3952,33 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
+      <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="95">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="240"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3544,8 +3996,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3574,27 +4026,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
+      <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3612,8 +4064,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="85"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3642,33 +4094,35 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
+      <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
+      <c r="C8" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="242"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3686,8 +4140,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3716,241 +4170,242 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
+      <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="72"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
+    <row r="10" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A10" s="105">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="195" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="196"/>
+      <c r="E10" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="244"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="73"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="106"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="73"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="C12" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="200"/>
+      <c r="E12" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="244"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="204"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
@@ -3968,8 +4423,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3998,248 +4453,252 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
+      <c r="BN12" s="73"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="106"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="76"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="132">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="144"/>
+      <c r="E14" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="246"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="254"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="254"/>
+      <c r="W14" s="254"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="105">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
+      <c r="C16" s="213" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="214"/>
+      <c r="E16" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="244"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="203"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
@@ -4250,8 +4709,8 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="84"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4280,27 +4739,27 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="246"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4318,8 +4777,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4348,653 +4807,661 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
+      <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="127">
         <v>8</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="224" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="242"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="202"/>
+      <c r="X18" s="202"/>
+      <c r="Y18" s="202"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="127">
         <v>9</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="233" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="244"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="203"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="203"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="127">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
+      <c r="C22" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="233" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="244"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
+      <c r="B24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="224" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="242"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="202"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="105">
         <v>12</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="108"/>
+      <c r="E26" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="244"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="203"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="203"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="243"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5002,220 +5469,1538 @@
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="132">
+        <v>13</v>
+      </c>
+      <c r="B28" s="218"/>
+      <c r="C28" s="201" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="134"/>
+      <c r="E28" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="244"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="203"/>
+      <c r="AF28" s="203"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="80"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="132"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="80"/>
+    </row>
+    <row r="30" spans="1:66" ht="12" customHeight="1">
+      <c r="A30" s="105">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B30" s="218"/>
+      <c r="C30" s="201" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="134"/>
+      <c r="E30" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="244"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="203"/>
+      <c r="AJ30" s="236"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="80"/>
+    </row>
+    <row r="31" spans="1:66" ht="12" customHeight="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="132">
+        <v>15</v>
+      </c>
+      <c r="B32" s="218"/>
+      <c r="C32" s="201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="134"/>
+      <c r="E32" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="244"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="236"/>
+      <c r="AK32" s="256"/>
+      <c r="AL32" s="203"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="80"/>
+    </row>
+    <row r="33" spans="1:66" ht="12" customHeight="1">
+      <c r="A33" s="132"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="91"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="80"/>
+    </row>
+    <row r="34" spans="1:66" ht="12" customHeight="1">
+      <c r="A34" s="105">
+        <v>16</v>
+      </c>
+      <c r="B34" s="218"/>
+      <c r="C34" s="201" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="134"/>
+      <c r="E34" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="244"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="235"/>
+      <c r="AK34" s="237"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="203"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="80"/>
+    </row>
+    <row r="35" spans="1:66" ht="12" customHeight="1">
+      <c r="A35" s="106"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="80"/>
+    </row>
+    <row r="36" spans="1:66" ht="12" customHeight="1">
+      <c r="A36" s="132">
+        <v>17</v>
+      </c>
+      <c r="B36" s="218"/>
+      <c r="C36" s="201" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="134"/>
+      <c r="E36" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="244"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="63"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="203"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="203"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="63"/>
+      <c r="AY36" s="63"/>
+      <c r="AZ36" s="63"/>
+      <c r="BA36" s="63"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="63"/>
+      <c r="BE36" s="63"/>
+      <c r="BF36" s="63"/>
+      <c r="BG36" s="63"/>
+      <c r="BH36" s="63"/>
+      <c r="BI36" s="13"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="63"/>
+      <c r="BL36" s="63"/>
+      <c r="BM36" s="63"/>
+      <c r="BN36" s="80"/>
+    </row>
+    <row r="37" spans="1:66" ht="12" customHeight="1">
+      <c r="A37" s="106"/>
+      <c r="B37" s="218"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="91"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="63"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="63"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="63"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="63"/>
+      <c r="AY37" s="63"/>
+      <c r="AZ37" s="63"/>
+      <c r="BA37" s="63"/>
+      <c r="BB37" s="13"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="63"/>
+      <c r="BE37" s="63"/>
+      <c r="BF37" s="63"/>
+      <c r="BG37" s="63"/>
+      <c r="BH37" s="63"/>
+      <c r="BI37" s="13"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="63"/>
+      <c r="BL37" s="63"/>
+      <c r="BM37" s="63"/>
+      <c r="BN37" s="80"/>
+    </row>
+    <row r="38" spans="1:66" ht="12" customHeight="1">
+      <c r="A38" s="132">
+        <v>18</v>
+      </c>
+      <c r="B38" s="218"/>
+      <c r="C38" s="201" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="134"/>
+      <c r="E38" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="247"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="91"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="63"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="63"/>
+      <c r="AZ38" s="63"/>
+      <c r="BA38" s="63"/>
+      <c r="BB38" s="13"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="63"/>
+      <c r="BE38" s="63"/>
+      <c r="BF38" s="63"/>
+      <c r="BG38" s="63"/>
+      <c r="BH38" s="63"/>
+      <c r="BI38" s="13"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="63"/>
+      <c r="BL38" s="63"/>
+      <c r="BM38" s="63"/>
+      <c r="BN38" s="80"/>
+    </row>
+    <row r="39" spans="1:66" ht="12" customHeight="1">
+      <c r="A39" s="132"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="13"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="80"/>
+    </row>
+    <row r="40" spans="1:66" ht="12" customHeight="1">
+      <c r="A40" s="105">
+        <v>19</v>
+      </c>
+      <c r="B40" s="218"/>
+      <c r="C40" s="234" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="214"/>
+      <c r="E40" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="244"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="91"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="203"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="63"/>
+      <c r="BG40" s="63"/>
+      <c r="BH40" s="63"/>
+      <c r="BI40" s="13"/>
+      <c r="BJ40" s="19"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="63"/>
+      <c r="BN40" s="80"/>
+    </row>
+    <row r="41" spans="1:66" ht="12" customHeight="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="245"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="89"/>
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="68"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="68"/>
+      <c r="AR41" s="68"/>
+      <c r="AS41" s="68"/>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+      <c r="AX41" s="68"/>
+      <c r="AY41" s="68"/>
+      <c r="AZ41" s="68"/>
+      <c r="BA41" s="68"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="68"/>
+      <c r="BE41" s="68"/>
+      <c r="BF41" s="68"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="68"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="23"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="68"/>
+      <c r="BM41" s="68"/>
+      <c r="BN41" s="78"/>
+    </row>
+    <row r="42" spans="1:66" ht="12" customHeight="1">
+      <c r="A42" s="105">
+        <v>20</v>
+      </c>
+      <c r="B42" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="134"/>
+      <c r="E42" s="255" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="246"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="186"/>
+      <c r="O42" s="186"/>
+      <c r="P42" s="186"/>
+      <c r="Q42" s="186"/>
+      <c r="R42" s="186"/>
+      <c r="S42" s="187"/>
+      <c r="T42" s="188"/>
+      <c r="U42" s="188"/>
+      <c r="V42" s="186"/>
+      <c r="W42" s="186"/>
+      <c r="X42" s="186"/>
+      <c r="Y42" s="186"/>
+      <c r="Z42" s="187"/>
+      <c r="AA42" s="188"/>
+      <c r="AB42" s="188"/>
+      <c r="AC42" s="186"/>
+      <c r="AD42" s="186"/>
+      <c r="AE42" s="186"/>
+      <c r="AF42" s="186"/>
+      <c r="AG42" s="187"/>
+      <c r="AH42" s="188"/>
+      <c r="AI42" s="186"/>
+      <c r="AJ42" s="208"/>
+      <c r="AK42" s="209"/>
+      <c r="AL42" s="186"/>
+      <c r="AM42" s="186"/>
+      <c r="AN42" s="187"/>
+      <c r="AO42" s="188"/>
+      <c r="AP42" s="186"/>
+      <c r="AQ42" s="186"/>
+      <c r="AR42" s="186"/>
+      <c r="AS42" s="186"/>
+      <c r="AT42" s="186"/>
+      <c r="AU42" s="187"/>
+      <c r="AV42" s="188"/>
+      <c r="AW42" s="188"/>
+      <c r="AX42" s="186"/>
+      <c r="AY42" s="186"/>
+      <c r="AZ42" s="186"/>
+      <c r="BA42" s="186"/>
+      <c r="BB42" s="187"/>
+      <c r="BC42" s="188"/>
+      <c r="BD42" s="212"/>
+      <c r="BE42" s="212"/>
+      <c r="BF42" s="212"/>
+      <c r="BG42" s="186"/>
+      <c r="BH42" s="186"/>
+      <c r="BI42" s="187"/>
+      <c r="BJ42" s="188"/>
+      <c r="BK42" s="186"/>
+      <c r="BL42" s="186"/>
+      <c r="BM42" s="186"/>
+      <c r="BN42" s="208"/>
+    </row>
+    <row r="43" spans="1:66" ht="12" customHeight="1">
+      <c r="A43" s="106"/>
+      <c r="B43" s="211"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="89"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="68"/>
+      <c r="AY43" s="68"/>
+      <c r="AZ43" s="68"/>
+      <c r="BA43" s="68"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="23"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
+      <c r="BG43" s="68"/>
+      <c r="BH43" s="68"/>
+      <c r="BI43" s="17"/>
+      <c r="BJ43" s="23"/>
+      <c r="BK43" s="68"/>
+      <c r="BL43" s="68"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="78"/>
+    </row>
+    <row r="44" spans="1:66" ht="12" customHeight="1">
+      <c r="A44" s="95">
+        <v>21</v>
+      </c>
+      <c r="B44" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="117"/>
+      <c r="E44" s="221" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="249"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="79"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
+      <c r="BA44" s="65"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="65"/>
+      <c r="BE44" s="65"/>
+      <c r="BF44" s="65"/>
+      <c r="BG44" s="40"/>
+      <c r="BH44" s="40"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="40"/>
+      <c r="BL44" s="65"/>
+      <c r="BM44" s="65"/>
+      <c r="BN44" s="79"/>
+    </row>
+    <row r="45" spans="1:66" ht="12" customHeight="1">
+      <c r="A45" s="115"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="91"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="63"/>
+      <c r="AY45" s="63"/>
+      <c r="AZ45" s="63"/>
+      <c r="BA45" s="63"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="63"/>
+      <c r="BE45" s="63"/>
+      <c r="BF45" s="63"/>
+      <c r="BG45" s="63"/>
+      <c r="BH45" s="63"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="63"/>
+      <c r="BL45" s="63"/>
+      <c r="BM45" s="63"/>
+      <c r="BN45" s="80"/>
+    </row>
+    <row r="46" spans="1:66" ht="12" customHeight="1">
+      <c r="A46" s="95">
+        <v>22</v>
+      </c>
+      <c r="B46" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C46" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="221" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="251"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
+      <c r="AR46" s="65"/>
+      <c r="AS46" s="65"/>
+      <c r="AT46" s="65"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="65"/>
+      <c r="AY46" s="65"/>
+      <c r="AZ46" s="65"/>
+      <c r="BA46" s="65"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="21"/>
+      <c r="BD46" s="65"/>
+      <c r="BE46" s="65"/>
+      <c r="BF46" s="65"/>
+      <c r="BG46" s="65"/>
+      <c r="BH46" s="65"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="21"/>
+      <c r="BK46" s="65"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+      <c r="BN46" s="207"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
+    <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A47" s="96"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="252"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="69"/>
+      <c r="AD47" s="69"/>
+      <c r="AE47" s="69"/>
+      <c r="AF47" s="69"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="92"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="69"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="69"/>
+      <c r="BE47" s="69"/>
+      <c r="BF47" s="69"/>
+      <c r="BG47" s="69"/>
+      <c r="BH47" s="69"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="20"/>
+      <c r="BK47" s="69"/>
+      <c r="BL47" s="205"/>
+      <c r="BM47" s="205"/>
+      <c r="BN47" s="206"/>
     </row>
-    <row r="30" spans="1:66">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+    <row r="48" spans="1:66">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
     </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="98">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="A1:A3"/>
@@ -5231,30 +7016,21 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C16:D17"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -5267,15 +7043,28 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -5303,70 +7092,70 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="160"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -5441,12 +7230,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -5521,20 +7310,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="151">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -5557,20 +7346,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="67" t="s">
+      <c r="AD4" s="179" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -5593,22 +7382,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="180"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="95">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5631,16 +7420,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="180"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -5663,24 +7452,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="180"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
+      <c r="D8" s="139"/>
+      <c r="E8" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5703,16 +7492,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="180"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -5735,24 +7524,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="180"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="132">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5775,16 +7564,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="180"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5807,22 +7596,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="180"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="129"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5845,16 +7634,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="180"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -5877,24 +7666,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="180"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="127">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="124"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5917,16 +7706,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="180"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -5949,22 +7738,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="180"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="127">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5987,16 +7776,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="180"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -6019,22 +7808,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="180"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="127">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -6057,16 +7846,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="180"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -6089,24 +7878,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="180"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -6129,18 +7918,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="180"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6163,22 +7952,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="180"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6201,16 +7990,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="180"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6233,22 +8022,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="180"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="129"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -6271,16 +8060,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="180"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6303,24 +8092,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="180"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="95">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6343,16 +8132,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="180"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6375,24 +8164,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="180"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="95">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6415,16 +8204,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="180"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -6447,8 +8236,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="181"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -6468,51 +8257,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -6523,6 +8306,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="AC4:AC29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
     <mergeCell ref="G1:AD1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124A43C-5AA6-4CC5-881A-7C9285CCEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C265E-909B-4876-B459-E70569121658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (サンプル)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'全体スケジュール (テンプレート)'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -658,6 +658,21 @@
   </si>
   <si>
     <t>100%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>70%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レビュー（アスリー）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レビュー（内部レビュー）</t>
+    <rPh sb="5" eb="7">
+      <t>ナイブ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -710,7 +725,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +786,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="83">
     <border>
@@ -1806,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2084,54 +2111,408 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2141,34 +2522,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,397 +2537,114 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2576,6 +2653,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3272,10 +3355,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN50"/>
+  <dimension ref="A1:BN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="AQ55" sqref="AQ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3292,94 +3375,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="158">
+      <c r="G1" s="135">
         <v>45536</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="158">
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135">
         <v>45566</v>
       </c>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="159"/>
-      <c r="AZ1" s="159"/>
-      <c r="BA1" s="159"/>
-      <c r="BB1" s="159"/>
-      <c r="BC1" s="159"/>
-      <c r="BD1" s="159"/>
-      <c r="BE1" s="159"/>
-      <c r="BF1" s="159"/>
-      <c r="BG1" s="159"/>
-      <c r="BH1" s="159"/>
-      <c r="BI1" s="159"/>
-      <c r="BJ1" s="159"/>
-      <c r="BK1" s="159"/>
-      <c r="BL1" s="159"/>
-      <c r="BM1" s="159"/>
-      <c r="BN1" s="160"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
+      <c r="BD1" s="136"/>
+      <c r="BE1" s="136"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="137"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3621,12 +3704,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="178"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3809,30 +3892,30 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="151">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="219" t="s">
+      <c r="D4" s="203"/>
+      <c r="E4" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="192"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="257"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3887,13 +3970,13 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="194"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
@@ -3955,26 +4038,28 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="95">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="226" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="240"/>
+      <c r="F6" s="164" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="63"/>
+      <c r="N6" s="258"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -4029,14 +4114,14 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="241"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="64"/>
+      <c r="H7" s="256"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -4097,20 +4182,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="105">
+      <c r="A8" s="122">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="228" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="242"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4118,16 +4203,16 @@
       <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="15"/>
@@ -4173,12 +4258,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="132"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4241,35 +4326,35 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="105">
+      <c r="A10" s="122">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="230" t="s">
+      <c r="D10" s="183"/>
+      <c r="E10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="244"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
       <c r="K10" s="63"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="190"/>
+      <c r="M10" s="100"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="258"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
@@ -4315,12 +4400,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="185"/>
+      <c r="A11" s="124"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -4382,19 +4467,19 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="105">
+      <c r="A12" s="122">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="230" t="s">
+      <c r="D12" s="187"/>
+      <c r="E12" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="244"/>
-      <c r="G12" s="191"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
@@ -4403,14 +4488,14 @@
       <c r="M12" s="19"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="204"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="265"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="30"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
@@ -4456,12 +4541,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="106"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="245"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4469,7 +4554,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="186"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4524,20 +4609,20 @@
       <c r="BN13" s="76"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="132">
+      <c r="A14" s="123">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="228" t="s">
+      <c r="D14" s="176"/>
+      <c r="E14" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="246"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4546,22 +4631,22 @@
       <c r="L14" s="16"/>
       <c r="M14" s="22"/>
       <c r="N14" s="67"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="254"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="254"/>
-      <c r="W14" s="254"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="41"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="41"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
@@ -4600,12 +4685,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="106"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="243"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4615,8 +4700,8 @@
       <c r="M15" s="22"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
       <c r="R15" s="62"/>
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
@@ -4668,18 +4753,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="105">
+      <c r="A16" s="122">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="213" t="s">
+      <c r="C16" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="230" t="s">
+      <c r="D16" s="196"/>
+      <c r="E16" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="244"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4688,22 +4773,22 @@
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
       <c r="N16" s="63"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="203"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="203"/>
-      <c r="W16" s="203"/>
-      <c r="X16" s="203"/>
-      <c r="Y16" s="203"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="30"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
@@ -4742,12 +4827,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="132"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="246"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4810,20 +4895,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="127">
+      <c r="A18" s="190">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="224" t="s">
+      <c r="D18" s="192"/>
+      <c r="E18" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="242"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4835,25 +4920,25 @@
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="65"/>
-      <c r="R18" s="40"/>
+      <c r="R18" s="105"/>
       <c r="S18" s="15"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="202"/>
-      <c r="X18" s="202"/>
-      <c r="Y18" s="202"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="263"/>
+      <c r="AF18" s="40"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="75"/>
+      <c r="AI18" s="260"/>
+      <c r="AJ18" s="109"/>
       <c r="AK18" s="86"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
@@ -4886,12 +4971,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="243"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4907,10 +4992,10 @@
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
@@ -4954,18 +5039,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="127">
+      <c r="A20" s="190">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="233" t="s">
+      <c r="D20" s="159"/>
+      <c r="E20" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="244"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4981,21 +5066,21 @@
       <c r="S20" s="13"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="203"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="203"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="73"/>
+      <c r="AI20" s="258"/>
+      <c r="AJ20" s="116"/>
       <c r="AK20" s="84"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -5028,12 +5113,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="127"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="243"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5049,10 +5134,10 @@
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
@@ -5096,18 +5181,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="127">
+      <c r="A22" s="190">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="233" t="s">
+      <c r="D22" s="159"/>
+      <c r="E22" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="244"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5123,21 +5208,21 @@
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="253"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="253"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="42"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="77"/>
+      <c r="AI22" s="268"/>
+      <c r="AJ22" s="269"/>
       <c r="AK22" s="88"/>
       <c r="AL22" s="64"/>
       <c r="AM22" s="64"/>
@@ -5170,12 +5255,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="127"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="245"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5238,20 +5323,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="105">
+      <c r="A24" s="122">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="224" t="s">
+      <c r="D24" s="192"/>
+      <c r="E24" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="242"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5269,18 +5354,18 @@
       <c r="U24" s="21"/>
       <c r="V24" s="65"/>
       <c r="W24" s="65"/>
-      <c r="X24" s="202"/>
-      <c r="Y24" s="40"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="202"/>
+      <c r="AC24" s="105"/>
       <c r="AD24" s="65"/>
       <c r="AE24" s="65"/>
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="65"/>
+      <c r="AI24" s="40"/>
       <c r="AJ24" s="79"/>
       <c r="AK24" s="90"/>
       <c r="AL24" s="65"/>
@@ -5314,12 +5399,12 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="106"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="243"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5338,14 +5423,14 @@
       <c r="V25" s="63"/>
       <c r="W25" s="63"/>
       <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
+      <c r="Y25" s="106"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
@@ -5382,18 +5467,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="105">
+      <c r="A26" s="122">
         <v>12</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="107" t="s">
+      <c r="B26" s="115"/>
+      <c r="C26" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="230" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="244"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5411,20 +5496,20 @@
       <c r="U26" s="19"/>
       <c r="V26" s="63"/>
       <c r="W26" s="63"/>
-      <c r="X26" s="203"/>
-      <c r="Y26" s="30"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="203"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
       <c r="AG26" s="13"/>
       <c r="AH26" s="19"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="91"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="116"/>
+      <c r="AK26" s="118"/>
       <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="13"/>
@@ -5456,12 +5541,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="243"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5484,10 +5569,10 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
@@ -5524,18 +5609,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="132">
+      <c r="A28" s="123">
         <v>13</v>
       </c>
-      <c r="B28" s="218"/>
-      <c r="C28" s="201" t="s">
+      <c r="B28" s="115"/>
+      <c r="C28" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="230" t="s">
+      <c r="D28" s="203"/>
+      <c r="E28" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="244"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5558,16 +5643,16 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="203"/>
-      <c r="AF28" s="203"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
       <c r="AG28" s="13"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="63"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="30"/>
       <c r="AM28" s="63"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
@@ -5598,12 +5683,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="132"/>
-      <c r="B29" s="218"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="243"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5626,10 +5711,10 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="19"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
@@ -5666,18 +5751,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="105">
+      <c r="A30" s="122">
         <v>14</v>
       </c>
-      <c r="B30" s="218"/>
-      <c r="C30" s="201" t="s">
+      <c r="B30" s="115"/>
+      <c r="C30" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="230" t="s">
+      <c r="D30" s="203"/>
+      <c r="E30" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="244"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -5700,17 +5785,17 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="19"/>
-      <c r="AI30" s="203"/>
-      <c r="AJ30" s="236"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="117"/>
       <c r="AK30" s="91"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="63"/>
@@ -5740,12 +5825,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="243"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5768,10 +5853,10 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="19"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
       <c r="AG31" s="13"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
@@ -5808,18 +5893,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="132">
+      <c r="A32" s="123">
         <v>15</v>
       </c>
-      <c r="B32" s="218"/>
-      <c r="C32" s="201" t="s">
+      <c r="B32" s="115"/>
+      <c r="C32" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="230" t="s">
+      <c r="D32" s="203"/>
+      <c r="E32" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="244"/>
+      <c r="F32" s="128"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5842,24 +5927,24 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="30"/>
+      <c r="AC32" s="106"/>
+      <c r="AD32" s="106"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="106"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="19"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="236"/>
-      <c r="AK32" s="256"/>
-      <c r="AL32" s="203"/>
+      <c r="AI32" s="106"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="106"/>
       <c r="AM32" s="63"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="19"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="264"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
@@ -5882,12 +5967,12 @@
       <c r="BN32" s="80"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="243"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5910,10 +5995,10 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="19"/>
       <c r="AB33" s="19"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
+      <c r="AC33" s="106"/>
+      <c r="AD33" s="106"/>
+      <c r="AE33" s="106"/>
+      <c r="AF33" s="106"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="63"/>
@@ -5950,18 +6035,18 @@
       <c r="BN33" s="80"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="105">
+      <c r="A34" s="122">
         <v>16</v>
       </c>
-      <c r="B34" s="218"/>
-      <c r="C34" s="201" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="230" t="s">
+      <c r="D34" s="203"/>
+      <c r="E34" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="244"/>
+      <c r="F34" s="128"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -5991,17 +6076,17 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="63"/>
-      <c r="AJ34" s="235"/>
-      <c r="AK34" s="237"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="106"/>
+      <c r="AM34" s="106"/>
       <c r="AN34" s="13"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="30"/>
-      <c r="AQ34" s="203"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="264"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="19"/>
       <c r="AW34" s="19"/>
@@ -6024,12 +6109,12 @@
       <c r="BN34" s="80"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="218"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="243"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6092,18 +6177,18 @@
       <c r="BN35" s="80"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="132">
+      <c r="A36" s="123">
         <v>17</v>
       </c>
-      <c r="B36" s="218"/>
-      <c r="C36" s="201" t="s">
+      <c r="B36" s="115"/>
+      <c r="C36" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="134"/>
-      <c r="E36" s="230" t="s">
+      <c r="D36" s="203"/>
+      <c r="E36" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="244"/>
+      <c r="F36" s="128"/>
       <c r="G36" s="51"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -6139,11 +6224,11 @@
       <c r="AM36" s="63"/>
       <c r="AN36" s="13"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="203"/>
+      <c r="AP36" s="30"/>
       <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="203"/>
-      <c r="AT36" s="63"/>
+      <c r="AR36" s="264"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
       <c r="AU36" s="13"/>
       <c r="AV36" s="19"/>
       <c r="AW36" s="19"/>
@@ -6166,12 +6251,12 @@
       <c r="BN36" s="80"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="218"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="243"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6234,18 +6319,18 @@
       <c r="BN37" s="80"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="132">
+      <c r="A38" s="123">
         <v>18</v>
       </c>
-      <c r="B38" s="218"/>
-      <c r="C38" s="201" t="s">
+      <c r="B38" s="115"/>
+      <c r="C38" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="230" t="s">
+      <c r="D38" s="203"/>
+      <c r="E38" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="247"/>
+      <c r="F38" s="131"/>
       <c r="G38" s="51"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6281,18 +6366,18 @@
       <c r="AM38" s="63"/>
       <c r="AN38" s="13"/>
       <c r="AO38" s="19"/>
-      <c r="AP38" s="63"/>
-      <c r="AQ38" s="63"/>
-      <c r="AR38" s="63"/>
-      <c r="AS38" s="30"/>
+      <c r="AP38" s="106"/>
+      <c r="AQ38" s="106"/>
+      <c r="AR38" s="106"/>
+      <c r="AS38" s="106"/>
       <c r="AT38" s="30"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="19"/>
       <c r="AW38" s="19"/>
       <c r="AX38" s="30"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="63"/>
+      <c r="AY38" s="264"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
       <c r="BB38" s="13"/>
       <c r="BC38" s="19"/>
       <c r="BD38" s="63"/>
@@ -6308,12 +6393,12 @@
       <c r="BN38" s="80"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="132"/>
-      <c r="B39" s="218"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="248"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="132"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6376,18 +6461,18 @@
       <c r="BN39" s="80"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="105">
+      <c r="A40" s="122">
         <v>19</v>
       </c>
-      <c r="B40" s="218"/>
-      <c r="C40" s="234" t="s">
+      <c r="B40" s="115"/>
+      <c r="C40" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="214"/>
-      <c r="E40" s="230" t="s">
+      <c r="D40" s="196"/>
+      <c r="E40" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="244"/>
+      <c r="F40" s="128"/>
       <c r="G40" s="51"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -6427,12 +6512,12 @@
       <c r="AQ40" s="63"/>
       <c r="AR40" s="63"/>
       <c r="AS40" s="63"/>
-      <c r="AT40" s="63"/>
+      <c r="AT40" s="30"/>
       <c r="AU40" s="13"/>
       <c r="AV40" s="19"/>
       <c r="AW40" s="19"/>
-      <c r="AX40" s="203"/>
-      <c r="AY40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="264"/>
       <c r="AZ40" s="30"/>
       <c r="BA40" s="30"/>
       <c r="BB40" s="13"/>
@@ -6450,12 +6535,12 @@
       <c r="BN40" s="80"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="218"/>
-      <c r="C41" s="215"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="231"/>
-      <c r="F41" s="245"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6518,467 +6603,1555 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="105">
+      <c r="A42" s="122">
         <v>20</v>
       </c>
-      <c r="B42" s="210" t="s">
+      <c r="B42" s="112" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="201" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="134"/>
-      <c r="E42" s="255" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="159"/>
+      <c r="E42" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="246"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="188"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="186"/>
-      <c r="S42" s="187"/>
-      <c r="T42" s="188"/>
-      <c r="U42" s="188"/>
-      <c r="V42" s="186"/>
-      <c r="W42" s="186"/>
-      <c r="X42" s="186"/>
-      <c r="Y42" s="186"/>
-      <c r="Z42" s="187"/>
-      <c r="AA42" s="188"/>
-      <c r="AB42" s="188"/>
-      <c r="AC42" s="186"/>
-      <c r="AD42" s="186"/>
-      <c r="AE42" s="186"/>
-      <c r="AF42" s="186"/>
-      <c r="AG42" s="187"/>
-      <c r="AH42" s="188"/>
-      <c r="AI42" s="186"/>
-      <c r="AJ42" s="208"/>
-      <c r="AK42" s="209"/>
-      <c r="AL42" s="186"/>
-      <c r="AM42" s="186"/>
-      <c r="AN42" s="187"/>
-      <c r="AO42" s="188"/>
-      <c r="AP42" s="186"/>
-      <c r="AQ42" s="186"/>
-      <c r="AR42" s="186"/>
-      <c r="AS42" s="186"/>
-      <c r="AT42" s="186"/>
-      <c r="AU42" s="187"/>
-      <c r="AV42" s="188"/>
-      <c r="AW42" s="188"/>
-      <c r="AX42" s="186"/>
-      <c r="AY42" s="186"/>
-      <c r="AZ42" s="186"/>
-      <c r="BA42" s="186"/>
-      <c r="BB42" s="187"/>
-      <c r="BC42" s="188"/>
-      <c r="BD42" s="212"/>
-      <c r="BE42" s="212"/>
-      <c r="BF42" s="212"/>
-      <c r="BG42" s="186"/>
-      <c r="BH42" s="186"/>
-      <c r="BI42" s="187"/>
-      <c r="BJ42" s="188"/>
-      <c r="BK42" s="186"/>
-      <c r="BL42" s="186"/>
-      <c r="BM42" s="186"/>
-      <c r="BN42" s="208"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="79"/>
+      <c r="AK42" s="90"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
+      <c r="BA42" s="65"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="21"/>
+      <c r="BD42" s="40"/>
+      <c r="BE42" s="40"/>
+      <c r="BF42" s="105"/>
+      <c r="BG42" s="105"/>
+      <c r="BH42" s="105"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="21"/>
+      <c r="BK42" s="65"/>
+      <c r="BL42" s="65"/>
+      <c r="BM42" s="65"/>
+      <c r="BN42" s="79"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="211"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="225"/>
-      <c r="F43" s="245"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="89"/>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
-      <c r="AS43" s="68"/>
-      <c r="AT43" s="68"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="23"/>
-      <c r="AW43" s="23"/>
-      <c r="AX43" s="68"/>
-      <c r="AY43" s="68"/>
-      <c r="AZ43" s="68"/>
-      <c r="BA43" s="68"/>
-      <c r="BB43" s="17"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="68"/>
-      <c r="BE43" s="68"/>
-      <c r="BF43" s="68"/>
-      <c r="BG43" s="68"/>
-      <c r="BH43" s="68"/>
-      <c r="BI43" s="17"/>
-      <c r="BJ43" s="23"/>
-      <c r="BK43" s="68"/>
-      <c r="BL43" s="68"/>
-      <c r="BM43" s="68"/>
-      <c r="BN43" s="78"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="270"/>
+      <c r="AK43" s="271"/>
+      <c r="AL43" s="62"/>
+      <c r="AM43" s="62"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="16"/>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="62"/>
+      <c r="BA43" s="62"/>
+      <c r="BB43" s="16"/>
+      <c r="BC43" s="22"/>
+      <c r="BD43" s="120"/>
+      <c r="BE43" s="120"/>
+      <c r="BF43" s="120"/>
+      <c r="BG43" s="120"/>
+      <c r="BH43" s="120"/>
+      <c r="BI43" s="16"/>
+      <c r="BJ43" s="22"/>
+      <c r="BK43" s="62"/>
+      <c r="BL43" s="62"/>
+      <c r="BM43" s="62"/>
+      <c r="BN43" s="270"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="95">
+      <c r="A44" s="122">
         <v>21</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="203"/>
+      <c r="E44" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="179"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="91"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="63"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="63"/>
+      <c r="AQ44" s="63"/>
+      <c r="AR44" s="63"/>
+      <c r="AS44" s="63"/>
+      <c r="AT44" s="63"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="63"/>
+      <c r="AY44" s="63"/>
+      <c r="AZ44" s="63"/>
+      <c r="BA44" s="63"/>
+      <c r="BB44" s="13"/>
+      <c r="BC44" s="19"/>
+      <c r="BD44" s="30"/>
+      <c r="BE44" s="30"/>
+      <c r="BF44" s="106"/>
+      <c r="BG44" s="106"/>
+      <c r="BH44" s="106"/>
+      <c r="BI44" s="13"/>
+      <c r="BJ44" s="19"/>
+      <c r="BK44" s="63"/>
+      <c r="BL44" s="63"/>
+      <c r="BM44" s="63"/>
+      <c r="BN44" s="80"/>
+    </row>
+    <row r="45" spans="1:66" ht="12" customHeight="1">
+      <c r="A45" s="123"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="270"/>
+      <c r="AK45" s="271"/>
+      <c r="AL45" s="62"/>
+      <c r="AM45" s="62"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="16"/>
+      <c r="AV45" s="22"/>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="62"/>
+      <c r="AY45" s="62"/>
+      <c r="AZ45" s="62"/>
+      <c r="BA45" s="62"/>
+      <c r="BB45" s="16"/>
+      <c r="BC45" s="22"/>
+      <c r="BD45" s="120"/>
+      <c r="BE45" s="120"/>
+      <c r="BF45" s="120"/>
+      <c r="BG45" s="120"/>
+      <c r="BH45" s="120"/>
+      <c r="BI45" s="16"/>
+      <c r="BJ45" s="22"/>
+      <c r="BK45" s="62"/>
+      <c r="BL45" s="62"/>
+      <c r="BM45" s="62"/>
+      <c r="BN45" s="270"/>
+    </row>
+    <row r="46" spans="1:66" ht="12" customHeight="1">
+      <c r="A46" s="122">
+        <v>22</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="202" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="203"/>
+      <c r="E46" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="179"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="91"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="63"/>
+      <c r="AZ46" s="63"/>
+      <c r="BA46" s="63"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="19"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="106"/>
+      <c r="BH46" s="106"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="19"/>
+      <c r="BK46" s="63"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="63"/>
+      <c r="BN46" s="80"/>
+    </row>
+    <row r="47" spans="1:66" ht="12" customHeight="1">
+      <c r="A47" s="123"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="270"/>
+      <c r="AK47" s="271"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="62"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="62"/>
+      <c r="AQ47" s="62"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="62"/>
+      <c r="AT47" s="62"/>
+      <c r="AU47" s="16"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="62"/>
+      <c r="AZ47" s="62"/>
+      <c r="BA47" s="62"/>
+      <c r="BB47" s="16"/>
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="120"/>
+      <c r="BE47" s="120"/>
+      <c r="BF47" s="120"/>
+      <c r="BG47" s="120"/>
+      <c r="BH47" s="120"/>
+      <c r="BI47" s="16"/>
+      <c r="BJ47" s="22"/>
+      <c r="BK47" s="62"/>
+      <c r="BL47" s="62"/>
+      <c r="BM47" s="62"/>
+      <c r="BN47" s="270"/>
+    </row>
+    <row r="48" spans="1:66" ht="12" customHeight="1">
+      <c r="A48" s="122">
+        <v>23</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="203"/>
+      <c r="E48" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="179"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="63"/>
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="91"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="63"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="63"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+      <c r="AT48" s="63"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="19"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63"/>
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="19"/>
+      <c r="BD48" s="106"/>
+      <c r="BE48" s="106"/>
+      <c r="BF48" s="30"/>
+      <c r="BG48" s="30"/>
+      <c r="BH48" s="30"/>
+      <c r="BI48" s="13"/>
+      <c r="BJ48" s="19"/>
+      <c r="BK48" s="63"/>
+      <c r="BL48" s="63"/>
+      <c r="BM48" s="63"/>
+      <c r="BN48" s="80"/>
+    </row>
+    <row r="49" spans="1:66" ht="12" customHeight="1">
+      <c r="A49" s="123"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="62"/>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="62"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="270"/>
+      <c r="AK49" s="271"/>
+      <c r="AL49" s="62"/>
+      <c r="AM49" s="62"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="62"/>
+      <c r="AQ49" s="62"/>
+      <c r="AR49" s="62"/>
+      <c r="AS49" s="62"/>
+      <c r="AT49" s="62"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="62"/>
+      <c r="AY49" s="62"/>
+      <c r="AZ49" s="62"/>
+      <c r="BA49" s="62"/>
+      <c r="BB49" s="16"/>
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="120"/>
+      <c r="BE49" s="120"/>
+      <c r="BF49" s="120"/>
+      <c r="BG49" s="120"/>
+      <c r="BH49" s="120"/>
+      <c r="BI49" s="16"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="62"/>
+      <c r="BL49" s="62"/>
+      <c r="BM49" s="62"/>
+      <c r="BN49" s="270"/>
+    </row>
+    <row r="50" spans="1:66" ht="12" customHeight="1">
+      <c r="A50" s="122">
+        <v>24</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="202" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="203"/>
+      <c r="E50" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="179"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="91"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="13"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="19"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="63"/>
+      <c r="AZ50" s="63"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="13"/>
+      <c r="BC50" s="19"/>
+      <c r="BD50" s="106"/>
+      <c r="BE50" s="106"/>
+      <c r="BF50" s="30"/>
+      <c r="BG50" s="30"/>
+      <c r="BH50" s="30"/>
+      <c r="BI50" s="13"/>
+      <c r="BJ50" s="19"/>
+      <c r="BK50" s="63"/>
+      <c r="BL50" s="63"/>
+      <c r="BM50" s="63"/>
+      <c r="BN50" s="80"/>
+    </row>
+    <row r="51" spans="1:66" ht="12" customHeight="1">
+      <c r="A51" s="123"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="62"/>
+      <c r="AE51" s="62"/>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="62"/>
+      <c r="AJ51" s="270"/>
+      <c r="AK51" s="271"/>
+      <c r="AL51" s="62"/>
+      <c r="AM51" s="62"/>
+      <c r="AN51" s="16"/>
+      <c r="AO51" s="22"/>
+      <c r="AP51" s="62"/>
+      <c r="AQ51" s="62"/>
+      <c r="AR51" s="62"/>
+      <c r="AS51" s="62"/>
+      <c r="AT51" s="62"/>
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="62"/>
+      <c r="AY51" s="62"/>
+      <c r="AZ51" s="62"/>
+      <c r="BA51" s="62"/>
+      <c r="BB51" s="16"/>
+      <c r="BC51" s="22"/>
+      <c r="BD51" s="120"/>
+      <c r="BE51" s="120"/>
+      <c r="BF51" s="120"/>
+      <c r="BG51" s="120"/>
+      <c r="BH51" s="120"/>
+      <c r="BI51" s="16"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="62"/>
+      <c r="BL51" s="62"/>
+      <c r="BM51" s="62"/>
+      <c r="BN51" s="270"/>
+    </row>
+    <row r="52" spans="1:66" ht="12" customHeight="1">
+      <c r="A52" s="122">
+        <v>25</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="202" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="203"/>
+      <c r="E52" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="179"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="63"/>
+      <c r="AD52" s="63"/>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="80"/>
+      <c r="AK52" s="91"/>
+      <c r="AL52" s="63"/>
+      <c r="AM52" s="63"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="63"/>
+      <c r="AQ52" s="63"/>
+      <c r="AR52" s="63"/>
+      <c r="AS52" s="63"/>
+      <c r="AT52" s="63"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="63"/>
+      <c r="AY52" s="63"/>
+      <c r="AZ52" s="63"/>
+      <c r="BA52" s="63"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="106"/>
+      <c r="BE52" s="106"/>
+      <c r="BF52" s="30"/>
+      <c r="BG52" s="30"/>
+      <c r="BH52" s="30"/>
+      <c r="BI52" s="13"/>
+      <c r="BJ52" s="19"/>
+      <c r="BK52" s="63"/>
+      <c r="BL52" s="63"/>
+      <c r="BM52" s="63"/>
+      <c r="BN52" s="80"/>
+    </row>
+    <row r="53" spans="1:66" ht="12" customHeight="1">
+      <c r="A53" s="123"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="270"/>
+      <c r="AK53" s="271"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="62"/>
+      <c r="AN53" s="16"/>
+      <c r="AO53" s="22"/>
+      <c r="AP53" s="62"/>
+      <c r="AQ53" s="62"/>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="62"/>
+      <c r="AU53" s="16"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="22"/>
+      <c r="AX53" s="62"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="62"/>
+      <c r="BA53" s="62"/>
+      <c r="BB53" s="16"/>
+      <c r="BC53" s="22"/>
+      <c r="BD53" s="120"/>
+      <c r="BE53" s="120"/>
+      <c r="BF53" s="120"/>
+      <c r="BG53" s="120"/>
+      <c r="BH53" s="120"/>
+      <c r="BI53" s="16"/>
+      <c r="BJ53" s="22"/>
+      <c r="BK53" s="62"/>
+      <c r="BL53" s="62"/>
+      <c r="BM53" s="62"/>
+      <c r="BN53" s="270"/>
+    </row>
+    <row r="54" spans="1:66" ht="12" customHeight="1">
+      <c r="A54" s="122">
+        <v>26</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="202" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="203"/>
+      <c r="E54" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="179"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="63"/>
+      <c r="AD54" s="63"/>
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="63"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="80"/>
+      <c r="AK54" s="91"/>
+      <c r="AL54" s="63"/>
+      <c r="AM54" s="63"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="63"/>
+      <c r="AQ54" s="63"/>
+      <c r="AR54" s="63"/>
+      <c r="AS54" s="63"/>
+      <c r="AT54" s="63"/>
+      <c r="AU54" s="13"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="63"/>
+      <c r="AY54" s="63"/>
+      <c r="AZ54" s="63"/>
+      <c r="BA54" s="63"/>
+      <c r="BB54" s="13"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="106"/>
+      <c r="BE54" s="106"/>
+      <c r="BF54" s="30"/>
+      <c r="BG54" s="30"/>
+      <c r="BH54" s="30"/>
+      <c r="BI54" s="13"/>
+      <c r="BJ54" s="19"/>
+      <c r="BK54" s="63"/>
+      <c r="BL54" s="63"/>
+      <c r="BM54" s="63"/>
+      <c r="BN54" s="80"/>
+    </row>
+    <row r="55" spans="1:66" ht="12" customHeight="1">
+      <c r="A55" s="123"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="270"/>
+      <c r="AK55" s="271"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="16"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="62"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="62"/>
+      <c r="BB55" s="16"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="120"/>
+      <c r="BE55" s="120"/>
+      <c r="BF55" s="120"/>
+      <c r="BG55" s="120"/>
+      <c r="BH55" s="120"/>
+      <c r="BI55" s="16"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="62"/>
+      <c r="BL55" s="62"/>
+      <c r="BM55" s="62"/>
+      <c r="BN55" s="270"/>
+    </row>
+    <row r="56" spans="1:66" ht="12" customHeight="1">
+      <c r="A56" s="122">
+        <v>27</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="196"/>
+      <c r="E56" s="205" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="179"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="96"/>
+      <c r="X56" s="96"/>
+      <c r="Y56" s="96"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="98"/>
+      <c r="AC56" s="96"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="96"/>
+      <c r="AF56" s="96"/>
+      <c r="AG56" s="97"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="96"/>
+      <c r="AJ56" s="110"/>
+      <c r="AK56" s="111"/>
+      <c r="AL56" s="96"/>
+      <c r="AM56" s="96"/>
+      <c r="AN56" s="97"/>
+      <c r="AO56" s="98"/>
+      <c r="AP56" s="96"/>
+      <c r="AQ56" s="96"/>
+      <c r="AR56" s="96"/>
+      <c r="AS56" s="96"/>
+      <c r="AT56" s="96"/>
+      <c r="AU56" s="97"/>
+      <c r="AV56" s="98"/>
+      <c r="AW56" s="98"/>
+      <c r="AX56" s="96"/>
+      <c r="AY56" s="96"/>
+      <c r="AZ56" s="96"/>
+      <c r="BA56" s="96"/>
+      <c r="BB56" s="97"/>
+      <c r="BC56" s="98"/>
+      <c r="BD56" s="274"/>
+      <c r="BE56" s="274"/>
+      <c r="BF56" s="114"/>
+      <c r="BG56" s="114"/>
+      <c r="BH56" s="114"/>
+      <c r="BI56" s="97"/>
+      <c r="BJ56" s="98"/>
+      <c r="BK56" s="96"/>
+      <c r="BL56" s="96"/>
+      <c r="BM56" s="96"/>
+      <c r="BN56" s="110"/>
+    </row>
+    <row r="57" spans="1:66" ht="12" customHeight="1">
+      <c r="A57" s="123"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="68"/>
+      <c r="AJ57" s="78"/>
+      <c r="AK57" s="89"/>
+      <c r="AL57" s="68"/>
+      <c r="AM57" s="68"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="23"/>
+      <c r="AP57" s="68"/>
+      <c r="AQ57" s="68"/>
+      <c r="AR57" s="68"/>
+      <c r="AS57" s="68"/>
+      <c r="AT57" s="68"/>
+      <c r="AU57" s="17"/>
+      <c r="AV57" s="23"/>
+      <c r="AW57" s="23"/>
+      <c r="AX57" s="68"/>
+      <c r="AY57" s="68"/>
+      <c r="AZ57" s="68"/>
+      <c r="BA57" s="68"/>
+      <c r="BB57" s="17"/>
+      <c r="BC57" s="23"/>
+      <c r="BD57" s="68"/>
+      <c r="BE57" s="68"/>
+      <c r="BF57" s="68"/>
+      <c r="BG57" s="68"/>
+      <c r="BH57" s="68"/>
+      <c r="BI57" s="17"/>
+      <c r="BJ57" s="23"/>
+      <c r="BK57" s="68"/>
+      <c r="BL57" s="68"/>
+      <c r="BM57" s="68"/>
+      <c r="BN57" s="78"/>
+    </row>
+    <row r="58" spans="1:66" ht="12" customHeight="1">
+      <c r="A58" s="156">
+        <v>28</v>
+      </c>
+      <c r="B58" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C58" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="117"/>
-      <c r="E44" s="221" t="s">
+      <c r="D58" s="207"/>
+      <c r="E58" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="249"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="79"/>
-      <c r="AK44" s="90"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="15"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
-      <c r="AR44" s="65"/>
-      <c r="AS44" s="65"/>
-      <c r="AT44" s="65"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="65"/>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="65"/>
-      <c r="BB44" s="15"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="65"/>
-      <c r="BE44" s="65"/>
-      <c r="BF44" s="65"/>
-      <c r="BG44" s="40"/>
-      <c r="BH44" s="40"/>
-      <c r="BI44" s="15"/>
-      <c r="BJ44" s="21"/>
-      <c r="BK44" s="40"/>
-      <c r="BL44" s="65"/>
-      <c r="BM44" s="65"/>
-      <c r="BN44" s="79"/>
-    </row>
-    <row r="45" spans="1:66" ht="12" customHeight="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="217"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="63"/>
-      <c r="AM45" s="63"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="63"/>
-      <c r="AQ45" s="63"/>
-      <c r="AR45" s="63"/>
-      <c r="AS45" s="63"/>
-      <c r="AT45" s="63"/>
-      <c r="AU45" s="13"/>
-      <c r="AV45" s="19"/>
-      <c r="AW45" s="19"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="63"/>
-      <c r="AZ45" s="63"/>
-      <c r="BA45" s="63"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="19"/>
-      <c r="BD45" s="63"/>
-      <c r="BE45" s="63"/>
-      <c r="BF45" s="63"/>
-      <c r="BG45" s="63"/>
-      <c r="BH45" s="63"/>
-      <c r="BI45" s="13"/>
-      <c r="BJ45" s="19"/>
-      <c r="BK45" s="63"/>
-      <c r="BL45" s="63"/>
-      <c r="BM45" s="63"/>
-      <c r="BN45" s="80"/>
-    </row>
-    <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="95">
-        <v>22</v>
-      </c>
-      <c r="B46" s="97" t="s">
+      <c r="F58" s="212"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="65"/>
+      <c r="AD58" s="65"/>
+      <c r="AE58" s="65"/>
+      <c r="AF58" s="65"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="65"/>
+      <c r="AJ58" s="79"/>
+      <c r="AK58" s="90"/>
+      <c r="AL58" s="65"/>
+      <c r="AM58" s="65"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="21"/>
+      <c r="AP58" s="65"/>
+      <c r="AQ58" s="65"/>
+      <c r="AR58" s="65"/>
+      <c r="AS58" s="65"/>
+      <c r="AT58" s="65"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="65"/>
+      <c r="AY58" s="65"/>
+      <c r="AZ58" s="65"/>
+      <c r="BA58" s="65"/>
+      <c r="BB58" s="15"/>
+      <c r="BC58" s="21"/>
+      <c r="BD58" s="65"/>
+      <c r="BE58" s="65"/>
+      <c r="BF58" s="65"/>
+      <c r="BG58" s="105"/>
+      <c r="BH58" s="105"/>
+      <c r="BI58" s="15"/>
+      <c r="BJ58" s="21"/>
+      <c r="BK58" s="40"/>
+      <c r="BL58" s="40"/>
+      <c r="BM58" s="65"/>
+      <c r="BN58" s="79"/>
+    </row>
+    <row r="59" spans="1:66" ht="12" customHeight="1">
+      <c r="A59" s="157"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="213"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="63"/>
+      <c r="AD59" s="63"/>
+      <c r="AE59" s="63"/>
+      <c r="AF59" s="63"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="80"/>
+      <c r="AK59" s="91"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="63"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="63"/>
+      <c r="AQ59" s="63"/>
+      <c r="AR59" s="63"/>
+      <c r="AS59" s="63"/>
+      <c r="AT59" s="63"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="63"/>
+      <c r="AY59" s="63"/>
+      <c r="AZ59" s="63"/>
+      <c r="BA59" s="63"/>
+      <c r="BB59" s="13"/>
+      <c r="BC59" s="19"/>
+      <c r="BD59" s="63"/>
+      <c r="BE59" s="63"/>
+      <c r="BF59" s="63"/>
+      <c r="BG59" s="63"/>
+      <c r="BH59" s="63"/>
+      <c r="BI59" s="13"/>
+      <c r="BJ59" s="19"/>
+      <c r="BK59" s="63"/>
+      <c r="BL59" s="63"/>
+      <c r="BM59" s="63"/>
+      <c r="BN59" s="80"/>
+    </row>
+    <row r="60" spans="1:66" ht="12" customHeight="1">
+      <c r="A60" s="156">
+        <v>29</v>
+      </c>
+      <c r="B60" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C60" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="221" t="s">
+      <c r="D60" s="192"/>
+      <c r="E60" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="251"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="65"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="65"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="90"/>
-      <c r="AL46" s="65"/>
-      <c r="AM46" s="65"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="65"/>
-      <c r="AQ46" s="65"/>
-      <c r="AR46" s="65"/>
-      <c r="AS46" s="65"/>
-      <c r="AT46" s="65"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="65"/>
-      <c r="AY46" s="65"/>
-      <c r="AZ46" s="65"/>
-      <c r="BA46" s="65"/>
-      <c r="BB46" s="15"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="65"/>
-      <c r="BE46" s="65"/>
-      <c r="BF46" s="65"/>
-      <c r="BG46" s="65"/>
-      <c r="BH46" s="65"/>
-      <c r="BI46" s="15"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="65"/>
-      <c r="BL46" s="40"/>
-      <c r="BM46" s="40"/>
-      <c r="BN46" s="207"/>
-    </row>
-    <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="96"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="222"/>
-      <c r="F47" s="252"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="69"/>
-      <c r="AD47" s="69"/>
-      <c r="AE47" s="69"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="14"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
-      <c r="AS47" s="69"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="69"/>
-      <c r="AY47" s="69"/>
-      <c r="AZ47" s="69"/>
-      <c r="BA47" s="69"/>
-      <c r="BB47" s="14"/>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="69"/>
-      <c r="BE47" s="69"/>
-      <c r="BF47" s="69"/>
-      <c r="BG47" s="69"/>
-      <c r="BH47" s="69"/>
-      <c r="BI47" s="14"/>
-      <c r="BJ47" s="20"/>
-      <c r="BK47" s="69"/>
-      <c r="BL47" s="205"/>
-      <c r="BM47" s="205"/>
-      <c r="BN47" s="206"/>
-    </row>
-    <row r="48" spans="1:66">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="1" t="s">
+      <c r="F60" s="221"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="65"/>
+      <c r="AD60" s="65"/>
+      <c r="AE60" s="65"/>
+      <c r="AF60" s="65"/>
+      <c r="AG60" s="15"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="79"/>
+      <c r="AK60" s="90"/>
+      <c r="AL60" s="65"/>
+      <c r="AM60" s="65"/>
+      <c r="AN60" s="15"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="65"/>
+      <c r="AQ60" s="65"/>
+      <c r="AR60" s="65"/>
+      <c r="AS60" s="65"/>
+      <c r="AT60" s="65"/>
+      <c r="AU60" s="15"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="65"/>
+      <c r="AY60" s="65"/>
+      <c r="AZ60" s="65"/>
+      <c r="BA60" s="65"/>
+      <c r="BB60" s="15"/>
+      <c r="BC60" s="21"/>
+      <c r="BD60" s="65"/>
+      <c r="BE60" s="65"/>
+      <c r="BF60" s="65"/>
+      <c r="BG60" s="65"/>
+      <c r="BH60" s="65"/>
+      <c r="BI60" s="15"/>
+      <c r="BJ60" s="21"/>
+      <c r="BK60" s="65"/>
+      <c r="BL60" s="105"/>
+      <c r="BM60" s="40"/>
+      <c r="BN60" s="109"/>
+    </row>
+    <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A61" s="216"/>
+      <c r="B61" s="217"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
+      <c r="F61" s="222"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="69"/>
+      <c r="AD61" s="69"/>
+      <c r="AE61" s="69"/>
+      <c r="AF61" s="69"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="20"/>
+      <c r="AI61" s="69"/>
+      <c r="AJ61" s="81"/>
+      <c r="AK61" s="92"/>
+      <c r="AL61" s="69"/>
+      <c r="AM61" s="69"/>
+      <c r="AN61" s="14"/>
+      <c r="AO61" s="20"/>
+      <c r="AP61" s="69"/>
+      <c r="AQ61" s="69"/>
+      <c r="AR61" s="69"/>
+      <c r="AS61" s="69"/>
+      <c r="AT61" s="69"/>
+      <c r="AU61" s="14"/>
+      <c r="AV61" s="20"/>
+      <c r="AW61" s="20"/>
+      <c r="AX61" s="69"/>
+      <c r="AY61" s="69"/>
+      <c r="AZ61" s="69"/>
+      <c r="BA61" s="69"/>
+      <c r="BB61" s="14"/>
+      <c r="BC61" s="20"/>
+      <c r="BD61" s="69"/>
+      <c r="BE61" s="69"/>
+      <c r="BF61" s="69"/>
+      <c r="BG61" s="69"/>
+      <c r="BH61" s="69"/>
+      <c r="BI61" s="14"/>
+      <c r="BJ61" s="20"/>
+      <c r="BK61" s="69"/>
+      <c r="BL61" s="107"/>
+      <c r="BM61" s="107"/>
+      <c r="BN61" s="108"/>
+    </row>
+    <row r="62" spans="1:66">
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+    </row>
+    <row r="63" spans="1:66">
+      <c r="A63" s="27"/>
+      <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="1" t="s">
+    <row r="64" spans="1:66">
+      <c r="A64" s="28"/>
+      <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="262"/>
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="259"/>
+      <c r="B66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+  <mergeCells count="125">
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E40:E41"/>
@@ -6995,76 +8168,21 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C16:D17"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7108,54 +8226,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="160"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7230,12 +8348,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="178"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7310,20 +8428,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="151">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154" t="s">
+      <c r="D4" s="168"/>
+      <c r="E4" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="250"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7346,20 +8464,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="182" t="s">
+      <c r="AC4" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="179" t="s">
+      <c r="AD4" s="241" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="157"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7382,22 +8500,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="183"/>
-      <c r="AD5" s="180"/>
+      <c r="AC5" s="253"/>
+      <c r="AD5" s="242"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="95">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="246"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7420,16 +8538,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="180"/>
+      <c r="AC6" s="253"/>
+      <c r="AD6" s="242"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="150"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="247"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7452,24 +8570,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="180"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="242"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="105">
+      <c r="A8" s="122">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="125"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7492,16 +8610,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="180"/>
+      <c r="AC8" s="253"/>
+      <c r="AD8" s="242"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7524,24 +8642,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="180"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="242"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="132">
+      <c r="A10" s="123">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="136" t="s">
+      <c r="D10" s="176"/>
+      <c r="E10" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="238"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7564,16 +8682,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="180"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="242"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="126"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="232"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7596,22 +8714,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="180"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="242"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="105">
+      <c r="A12" s="122">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="135" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="231"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7634,16 +8752,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="180"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="242"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="132"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="238"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7666,24 +8784,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="180"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="242"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="127">
+      <c r="A14" s="190">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="236"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7706,16 +8824,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="180"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="242"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="126"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="232"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7738,22 +8856,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="180"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="242"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="127">
+      <c r="A16" s="190">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="231"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7776,16 +8894,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="180"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="242"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="126"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="232"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7808,22 +8926,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="180"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="242"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="127">
+      <c r="A18" s="190">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="231"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7846,16 +8964,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="180"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="242"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="233"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7878,24 +8996,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="180"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="242"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="105">
+      <c r="A20" s="122">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="124" t="s">
+      <c r="D20" s="192"/>
+      <c r="E20" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="125"/>
+      <c r="F20" s="236"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7918,18 +9036,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="180"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="242"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="106"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="126"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="232"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7952,22 +9070,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="180"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="242"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="105">
+      <c r="A22" s="122">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="111" t="s">
+      <c r="D22" s="159"/>
+      <c r="E22" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="231"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7990,16 +9108,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="180"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="242"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="126"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="232"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8022,22 +9140,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="180"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="242"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="105">
+      <c r="A24" s="122">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="111" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="113"/>
+      <c r="F24" s="231"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8060,16 +9178,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="180"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="242"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="233"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8092,24 +9210,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="180"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="242"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="95">
+      <c r="A26" s="156">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="120" t="s">
+      <c r="D26" s="207"/>
+      <c r="E26" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="225"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8132,16 +9250,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="180"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="242"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="123"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="226"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8164,24 +9282,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="180"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="242"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="95">
+      <c r="A28" s="156">
         <v>14</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="97" t="s">
+      <c r="D28" s="192"/>
+      <c r="E28" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="103"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8204,16 +9322,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="180"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="242"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="104"/>
+      <c r="A29" s="216"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="228"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8236,8 +9354,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="181"/>
+      <c r="AC29" s="254"/>
+      <c r="AD29" s="243"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8257,45 +9375,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8312,12 +9397,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA9DA5-5A85-416C-8148-E8F94EA59F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E9485B-64BB-40D9-BB12-D3E985218DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -656,34 +656,7 @@
   </si>
   <si>
     <t>機能一覧
-（商品検索）</t>
-    <rPh sb="0" eb="4">
-      <t>キノウイチラン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能一覧
 （会員情報変更、購入履歴キャンセル）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>機能一覧
-（ログイン、会員登録、会員削除）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>イベント定義書
-（会員情報変更、購入履歴キャンセル）</t>
-    <rPh sb="9" eb="15">
-      <t>カイインジョウホウヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>コウニュウリレキ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -709,11 +682,6 @@
   <si>
     <t>機能一覧
 （カート内商品の削除、購入処理）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>イベント定義書
-（ログイン、会員登録、会員削除）</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -763,6 +731,65 @@
   <si>
     <t>クラス図
 (購入機能)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能一覧
+（商品検索）</t>
+    <rPh sb="6" eb="10">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント定義書
+（ログイン、会員登録、会員情報変更）</t>
+    <rPh sb="21" eb="25">
+      <t>ジョウホウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>90%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>90%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能一覧
+（ログイン、会員登録、会員退会）</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント定義書
+（会員退会、購入履歴キャンセル）</t>
+    <rPh sb="9" eb="11">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>70%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1923,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2314,9 +2341,6 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2361,73 +2385,301 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2443,353 +2695,140 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3501,8 +3540,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3519,94 +3558,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="244" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="247" t="s">
+      <c r="F1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="229">
+      <c r="G1" s="175">
         <v>45536</v>
       </c>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="230"/>
-      <c r="AJ1" s="231"/>
-      <c r="AK1" s="229">
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="175">
         <v>45566</v>
       </c>
-      <c r="AL1" s="230"/>
-      <c r="AM1" s="230"/>
-      <c r="AN1" s="230"/>
-      <c r="AO1" s="230"/>
-      <c r="AP1" s="230"/>
-      <c r="AQ1" s="230"/>
-      <c r="AR1" s="230"/>
-      <c r="AS1" s="230"/>
-      <c r="AT1" s="230"/>
-      <c r="AU1" s="230"/>
-      <c r="AV1" s="230"/>
-      <c r="AW1" s="230"/>
-      <c r="AX1" s="230"/>
-      <c r="AY1" s="230"/>
-      <c r="AZ1" s="230"/>
-      <c r="BA1" s="230"/>
-      <c r="BB1" s="230"/>
-      <c r="BC1" s="230"/>
-      <c r="BD1" s="230"/>
-      <c r="BE1" s="230"/>
-      <c r="BF1" s="230"/>
-      <c r="BG1" s="230"/>
-      <c r="BH1" s="230"/>
-      <c r="BI1" s="230"/>
-      <c r="BJ1" s="230"/>
-      <c r="BK1" s="230"/>
-      <c r="BL1" s="230"/>
-      <c r="BM1" s="230"/>
-      <c r="BN1" s="231"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="176"/>
+      <c r="AT1" s="176"/>
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="176"/>
+      <c r="BB1" s="176"/>
+      <c r="BC1" s="176"/>
+      <c r="BD1" s="176"/>
+      <c r="BE1" s="176"/>
+      <c r="BF1" s="176"/>
+      <c r="BG1" s="176"/>
+      <c r="BH1" s="176"/>
+      <c r="BI1" s="176"/>
+      <c r="BJ1" s="176"/>
+      <c r="BK1" s="176"/>
+      <c r="BL1" s="176"/>
+      <c r="BM1" s="176"/>
+      <c r="BN1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="233"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="248"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3848,12 +3887,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="249"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4036,20 +4075,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="160">
+      <c r="A4" s="154">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="225" t="s">
+      <c r="D4" s="163"/>
+      <c r="E4" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="227" t="s">
+      <c r="F4" s="173" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4114,12 +4153,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="161"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="228"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4182,18 +4221,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="160">
+      <c r="A6" s="154">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="220" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="222" t="s">
+      <c r="F6" s="215" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4258,12 +4297,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="161"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="223"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="216"/>
       <c r="G7" s="52"/>
       <c r="H7" s="122"/>
       <c r="I7" s="32"/>
@@ -4326,20 +4365,22 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="160">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="150" t="s">
+      <c r="C8" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="204"/>
+      <c r="E8" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="218" t="s">
+        <v>72</v>
+      </c>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4354,9 +4395,9 @@
       <c r="R8" s="105"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="140"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="126"/>
-      <c r="W8" s="40"/>
+      <c r="W8" s="105"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="15"/>
@@ -4402,12 +4443,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="157"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="202"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4415,8 +4456,8 @@
       <c r="K9" s="62"/>
       <c r="L9" s="16"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="120"/>
       <c r="Q9" s="120"/>
       <c r="R9" s="120"/>
@@ -4470,18 +4511,20 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="160">
+      <c r="A10" s="154">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="166" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="152" t="s">
+      <c r="C10" s="220" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="221"/>
+      <c r="E10" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="156"/>
+      <c r="F10" s="219" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="50"/>
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
@@ -4498,7 +4541,7 @@
       <c r="T10" s="98"/>
       <c r="U10" s="98"/>
       <c r="V10" s="127"/>
-      <c r="W10" s="41"/>
+      <c r="W10" s="120"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
@@ -4544,12 +4587,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="157"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4557,15 +4600,15 @@
       <c r="K11" s="62"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="120"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="120"/>
       <c r="Q11" s="120"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="141"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="140"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="139"/>
+      <c r="V11" s="138"/>
       <c r="W11" s="120"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
@@ -4612,18 +4655,20 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="160">
+      <c r="A12" s="154">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="151" t="s">
+      <c r="C12" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="197"/>
+      <c r="E12" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="155"/>
+      <c r="F12" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="G12" s="50"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
@@ -4631,7 +4676,7 @@
       <c r="K12" s="62"/>
       <c r="L12" s="16"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="138"/>
+      <c r="N12" s="137"/>
       <c r="O12" s="131"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="120"/>
@@ -4640,7 +4685,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="100"/>
       <c r="V12" s="127"/>
-      <c r="W12" s="41"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="16"/>
@@ -4686,12 +4731,12 @@
       <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="161"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="157"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="202"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4699,8 +4744,8 @@
       <c r="K13" s="62"/>
       <c r="L13" s="16"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="120"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
       <c r="R13" s="120"/>
@@ -4754,18 +4799,20 @@
       <c r="BN13" s="72"/>
     </row>
     <row r="14" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A14" s="160">
+      <c r="A14" s="154">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="179" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="151" t="s">
+      <c r="C14" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="197"/>
+      <c r="E14" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4773,7 +4820,7 @@
       <c r="K14" s="62"/>
       <c r="L14" s="16"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="137"/>
+      <c r="N14" s="136"/>
       <c r="O14" s="120"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -4782,7 +4829,7 @@
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="127"/>
-      <c r="W14" s="41"/>
+      <c r="W14" s="120"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="16"/>
@@ -4828,12 +4875,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="157"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4843,14 +4890,14 @@
       <c r="M15" s="22"/>
       <c r="N15" s="64"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="W15" s="120"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="16"/>
@@ -4896,18 +4943,20 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A16" s="160">
+      <c r="A16" s="154">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="216" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="152" t="s">
+      <c r="C16" s="205" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="206"/>
+      <c r="E16" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="219" t="s">
+        <v>73</v>
+      </c>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4916,7 +4965,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="100"/>
       <c r="N16" s="119"/>
-      <c r="O16" s="149"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="106"/>
@@ -4924,7 +4973,7 @@
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="124"/>
-      <c r="W16" s="30"/>
+      <c r="W16" s="106"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="13"/>
@@ -4970,11 +5019,11 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="157"/>
+      <c r="A17" s="155"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -4984,14 +5033,14 @@
       <c r="M17" s="19"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
+      <c r="P17" s="152"/>
       <c r="Q17" s="63"/>
       <c r="R17" s="63"/>
       <c r="S17" s="13"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="106"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="13"/>
@@ -5037,18 +5086,20 @@
       <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A18" s="160">
+      <c r="A18" s="154">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="152" t="s">
+      <c r="C18" s="220" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="221"/>
+      <c r="E18" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="156"/>
+      <c r="F18" s="219" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="101"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -5057,15 +5108,15 @@
       <c r="L18" s="13"/>
       <c r="M18" s="19"/>
       <c r="N18" s="106"/>
-      <c r="O18" s="149"/>
+      <c r="O18" s="148"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="139"/>
+      <c r="R18" s="138"/>
       <c r="S18" s="13"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
       <c r="V18" s="124"/>
-      <c r="W18" s="30"/>
+      <c r="W18" s="106"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="13"/>
@@ -5111,12 +5162,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="161"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="157"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="202"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5126,7 +5177,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="106"/>
       <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
+      <c r="P19" s="152"/>
       <c r="Q19" s="106"/>
       <c r="R19" s="106"/>
       <c r="S19" s="13"/>
@@ -5179,18 +5230,20 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A20" s="160">
+      <c r="A20" s="154">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="179" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="151" t="s">
+      <c r="C20" s="196" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="197"/>
+      <c r="E20" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="155"/>
+      <c r="F20" s="201" t="s">
+        <v>76</v>
+      </c>
       <c r="G20" s="51"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
@@ -5207,7 +5260,7 @@
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
       <c r="V20" s="124"/>
-      <c r="W20" s="30"/>
+      <c r="W20" s="106"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="13"/>
@@ -5253,12 +5306,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="157"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="202"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5269,7 +5322,7 @@
       <c r="N21" s="120"/>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="120"/>
       <c r="S21" s="16"/>
       <c r="T21" s="22"/>
@@ -5321,18 +5374,20 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A22" s="160">
+      <c r="A22" s="154">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="179" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="151" t="s">
+      <c r="C22" s="196" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="197"/>
+      <c r="E22" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="155"/>
+      <c r="F22" s="201" t="s">
+        <v>76</v>
+      </c>
       <c r="G22" s="51"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
@@ -5349,7 +5404,7 @@
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="124"/>
-      <c r="W22" s="30"/>
+      <c r="W22" s="106"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="13"/>
@@ -5395,12 +5450,12 @@
       <c r="BN22" s="73"/>
     </row>
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5410,9 +5465,9 @@
       <c r="M23" s="45"/>
       <c r="N23" s="96"/>
       <c r="O23" s="66"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
       <c r="S23" s="44"/>
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
@@ -5463,20 +5518,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="160">
+      <c r="A24" s="154">
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="163"/>
-      <c r="E24" s="150" t="s">
+      <c r="C24" s="203" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="204"/>
+      <c r="E24" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="154"/>
+      <c r="F24" s="218"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5488,7 +5543,7 @@
       <c r="O24" s="120"/>
       <c r="P24" s="120"/>
       <c r="Q24" s="120"/>
-      <c r="R24" s="142"/>
+      <c r="R24" s="141"/>
       <c r="S24" s="16"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
@@ -5500,7 +5555,7 @@
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
       <c r="AC24" s="127"/>
-      <c r="AD24" s="41"/>
+      <c r="AD24" s="120"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="16"/>
@@ -5539,12 +5594,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="155"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5556,7 +5611,7 @@
       <c r="O25" s="120"/>
       <c r="P25" s="120"/>
       <c r="Q25" s="120"/>
-      <c r="R25" s="146"/>
+      <c r="R25" s="145"/>
       <c r="S25" s="16"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
@@ -5607,18 +5662,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="160">
+      <c r="A26" s="154">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="152" t="s">
+      <c r="C26" s="220" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="221"/>
+      <c r="E26" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="156"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5630,7 +5685,7 @@
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
       <c r="Q26" s="120"/>
-      <c r="R26" s="146"/>
+      <c r="R26" s="145"/>
       <c r="S26" s="16"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
@@ -5642,7 +5697,7 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="127"/>
-      <c r="AD26" s="41"/>
+      <c r="AD26" s="120"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="16"/>
@@ -5681,12 +5736,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="155"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="201"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5698,7 +5753,7 @@
       <c r="O27" s="120"/>
       <c r="P27" s="120"/>
       <c r="Q27" s="120"/>
-      <c r="R27" s="146"/>
+      <c r="R27" s="145"/>
       <c r="S27" s="16"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
@@ -5749,18 +5804,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="160">
+      <c r="A28" s="154">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="152" t="s">
+      <c r="C28" s="220" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="221"/>
+      <c r="E28" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="156"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="50"/>
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
@@ -5772,7 +5827,7 @@
       <c r="O28" s="120"/>
       <c r="P28" s="120"/>
       <c r="Q28" s="120"/>
-      <c r="R28" s="146"/>
+      <c r="R28" s="145"/>
       <c r="S28" s="16"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
@@ -5784,7 +5839,7 @@
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
       <c r="AC28" s="127"/>
-      <c r="AD28" s="41"/>
+      <c r="AD28" s="120"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="16"/>
@@ -5823,12 +5878,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="161"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="157"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5840,7 +5895,7 @@
       <c r="O29" s="62"/>
       <c r="P29" s="120"/>
       <c r="Q29" s="120"/>
-      <c r="R29" s="143"/>
+      <c r="R29" s="142"/>
       <c r="S29" s="16"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
@@ -5852,7 +5907,7 @@
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
+      <c r="AD29" s="120"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="16"/>
@@ -5891,18 +5946,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="160">
+      <c r="A30" s="154">
         <v>14</v>
       </c>
       <c r="B30" s="115"/>
-      <c r="C30" s="170" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="171"/>
-      <c r="E30" s="152" t="s">
+      <c r="C30" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="159"/>
+      <c r="E30" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="156"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="51"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
@@ -5914,7 +5969,7 @@
       <c r="O30" s="106"/>
       <c r="P30" s="106"/>
       <c r="Q30" s="106"/>
-      <c r="R30" s="139"/>
+      <c r="R30" s="138"/>
       <c r="S30" s="13"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
@@ -5926,7 +5981,7 @@
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
       <c r="AC30" s="124"/>
-      <c r="AD30" s="30"/>
+      <c r="AD30" s="106"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="13"/>
@@ -5965,12 +6020,12 @@
       <c r="BN30" s="73"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="161"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="155"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="201"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -5982,7 +6037,7 @@
       <c r="O31" s="119"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="119"/>
-      <c r="R31" s="147"/>
+      <c r="R31" s="146"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -6033,18 +6088,18 @@
       <c r="BN31" s="74"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="160">
+      <c r="A32" s="154">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="152" t="s">
+      <c r="C32" s="249" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="250"/>
+      <c r="E32" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="156"/>
+      <c r="F32" s="219"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6056,7 +6111,7 @@
       <c r="O32" s="119"/>
       <c r="P32" s="119"/>
       <c r="Q32" s="119"/>
-      <c r="R32" s="147"/>
+      <c r="R32" s="146"/>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
@@ -6068,7 +6123,7 @@
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
       <c r="AC32" s="133"/>
-      <c r="AD32" s="42"/>
+      <c r="AD32" s="119"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="25"/>
@@ -6107,12 +6162,12 @@
       <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="161"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="155"/>
+      <c r="C33" s="251"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6124,7 +6179,7 @@
       <c r="O33" s="119"/>
       <c r="P33" s="119"/>
       <c r="Q33" s="119"/>
-      <c r="R33" s="147"/>
+      <c r="R33" s="146"/>
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
@@ -6175,18 +6230,18 @@
       <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="160">
+      <c r="A34" s="154">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="171"/>
-      <c r="E34" s="152" t="s">
+      <c r="C34" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="159"/>
+      <c r="E34" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="156"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6198,7 +6253,7 @@
       <c r="O34" s="119"/>
       <c r="P34" s="119"/>
       <c r="Q34" s="119"/>
-      <c r="R34" s="147"/>
+      <c r="R34" s="146"/>
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
@@ -6210,7 +6265,7 @@
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
       <c r="AC34" s="133"/>
-      <c r="AD34" s="42"/>
+      <c r="AD34" s="119"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="25"/>
@@ -6249,12 +6304,12 @@
       <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="161"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="159"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6266,7 +6321,7 @@
       <c r="O35" s="64"/>
       <c r="P35" s="64"/>
       <c r="Q35" s="64"/>
-      <c r="R35" s="144"/>
+      <c r="R35" s="143"/>
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
@@ -6317,20 +6372,20 @@
       <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="160">
+      <c r="A36" s="154">
         <v>17</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="194" t="s">
+      <c r="C36" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="195"/>
-      <c r="E36" s="185" t="s">
+      <c r="D36" s="167"/>
+      <c r="E36" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="154"/>
+      <c r="F36" s="218"/>
       <c r="G36" s="38"/>
       <c r="H36" s="65"/>
       <c r="I36" s="65"/>
@@ -6342,7 +6397,7 @@
       <c r="O36" s="65"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="65"/>
-      <c r="R36" s="142"/>
+      <c r="R36" s="141"/>
       <c r="S36" s="15"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -6360,7 +6415,7 @@
       <c r="AG36" s="15"/>
       <c r="AH36" s="21"/>
       <c r="AI36" s="126"/>
-      <c r="AJ36" s="109"/>
+      <c r="AJ36" s="149"/>
       <c r="AK36" s="86"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="6"/>
@@ -6393,12 +6448,12 @@
       <c r="BN36" s="75"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="161"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="157"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6410,7 +6465,7 @@
       <c r="O37" s="64"/>
       <c r="P37" s="64"/>
       <c r="Q37" s="64"/>
-      <c r="R37" s="145"/>
+      <c r="R37" s="144"/>
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
@@ -6428,7 +6483,7 @@
       <c r="AG37" s="25"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="24"/>
-      <c r="AJ37" s="74"/>
+      <c r="AJ37" s="150"/>
       <c r="AK37" s="85"/>
       <c r="AL37" s="24"/>
       <c r="AM37" s="24"/>
@@ -6461,18 +6516,18 @@
       <c r="BN37" s="74"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="160">
+      <c r="A38" s="154">
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="212" t="s">
+      <c r="C38" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="213" t="s">
+      <c r="D38" s="210"/>
+      <c r="E38" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="156"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="51"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6502,7 +6557,7 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="124"/>
-      <c r="AJ38" s="116"/>
+      <c r="AJ38" s="117"/>
       <c r="AK38" s="84"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
@@ -6535,12 +6590,12 @@
       <c r="BN38" s="73"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="157"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6570,7 +6625,7 @@
       <c r="AG39" s="25"/>
       <c r="AH39" s="26"/>
       <c r="AI39" s="24"/>
-      <c r="AJ39" s="74"/>
+      <c r="AJ39" s="150"/>
       <c r="AK39" s="85"/>
       <c r="AL39" s="24"/>
       <c r="AM39" s="24"/>
@@ -6603,18 +6658,18 @@
       <c r="BN39" s="74"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="160">
+      <c r="A40" s="154">
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="212" t="s">
+      <c r="C40" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="213" t="s">
+      <c r="D40" s="210"/>
+      <c r="E40" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="156"/>
+      <c r="F40" s="219"/>
       <c r="G40" s="52"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6644,7 +6699,7 @@
       <c r="AG40" s="25"/>
       <c r="AH40" s="26"/>
       <c r="AI40" s="133"/>
-      <c r="AJ40" s="134"/>
+      <c r="AJ40" s="150"/>
       <c r="AK40" s="88"/>
       <c r="AL40" s="64"/>
       <c r="AM40" s="64"/>
@@ -6677,12 +6732,12 @@
       <c r="BN40" s="77"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="161"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="215"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="159"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6745,20 +6800,20 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="160">
+      <c r="A42" s="154">
         <v>20</v>
       </c>
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="195"/>
-      <c r="E42" s="185" t="s">
+      <c r="D42" s="167"/>
+      <c r="E42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="154"/>
+      <c r="F42" s="218"/>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -6821,12 +6876,12 @@
       <c r="BN42" s="79"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="161"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="115"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="157"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="202"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6889,18 +6944,18 @@
       <c r="BN43" s="80"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="160">
+      <c r="A44" s="154">
         <v>21</v>
       </c>
       <c r="B44" s="115"/>
-      <c r="C44" s="186" t="s">
+      <c r="C44" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="187"/>
-      <c r="E44" s="152" t="s">
+      <c r="D44" s="210"/>
+      <c r="E44" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="156"/>
+      <c r="F44" s="219"/>
       <c r="G44" s="51"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6963,12 +7018,12 @@
       <c r="BN44" s="80"/>
     </row>
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="161"/>
+      <c r="A45" s="155"/>
       <c r="B45" s="115"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="157"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="202"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7031,18 +7086,18 @@
       <c r="BN45" s="80"/>
     </row>
     <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="160">
+      <c r="A46" s="154">
         <v>22</v>
       </c>
       <c r="B46" s="115"/>
-      <c r="C46" s="190" t="s">
+      <c r="C46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="191"/>
-      <c r="E46" s="152" t="s">
+      <c r="D46" s="163"/>
+      <c r="E46" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="156"/>
+      <c r="F46" s="219"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7105,12 +7160,12 @@
       <c r="BN46" s="80"/>
     </row>
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="161"/>
+      <c r="A47" s="155"/>
       <c r="B47" s="115"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="157"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="202"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7173,18 +7228,18 @@
       <c r="BN47" s="80"/>
     </row>
     <row r="48" spans="1:66" ht="12" customHeight="1">
-      <c r="A48" s="160">
+      <c r="A48" s="154">
         <v>23</v>
       </c>
       <c r="B48" s="115"/>
-      <c r="C48" s="190" t="s">
+      <c r="C48" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="191"/>
-      <c r="E48" s="152" t="s">
+      <c r="D48" s="163"/>
+      <c r="E48" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="156"/>
+      <c r="F48" s="219"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7247,12 +7302,12 @@
       <c r="BN48" s="80"/>
     </row>
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A49" s="161"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="115"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="157"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="202"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7315,18 +7370,18 @@
       <c r="BN49" s="80"/>
     </row>
     <row r="50" spans="1:66" ht="12" customHeight="1">
-      <c r="A50" s="160">
+      <c r="A50" s="154">
         <v>24</v>
       </c>
       <c r="B50" s="115"/>
-      <c r="C50" s="190" t="s">
+      <c r="C50" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="152" t="s">
+      <c r="D50" s="163"/>
+      <c r="E50" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="156"/>
+      <c r="F50" s="219"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7389,12 +7444,12 @@
       <c r="BN50" s="80"/>
     </row>
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A51" s="161"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="115"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="189"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="157"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="202"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7457,18 +7512,18 @@
       <c r="BN51" s="80"/>
     </row>
     <row r="52" spans="1:66" ht="12" customHeight="1">
-      <c r="A52" s="160">
+      <c r="A52" s="154">
         <v>25</v>
       </c>
       <c r="B52" s="115"/>
-      <c r="C52" s="190" t="s">
+      <c r="C52" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="152" t="s">
+      <c r="D52" s="163"/>
+      <c r="E52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="156"/>
+      <c r="F52" s="219"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7531,12 +7586,12 @@
       <c r="BN52" s="80"/>
     </row>
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A53" s="161"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="115"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="157"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="202"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7599,18 +7654,18 @@
       <c r="BN53" s="80"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="160">
+      <c r="A54" s="154">
         <v>26</v>
       </c>
       <c r="B54" s="115"/>
-      <c r="C54" s="190" t="s">
+      <c r="C54" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="191"/>
-      <c r="E54" s="152" t="s">
+      <c r="D54" s="163"/>
+      <c r="E54" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="156"/>
+      <c r="F54" s="219"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7673,12 +7728,12 @@
       <c r="BN54" s="80"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A55" s="161"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="115"/>
-      <c r="C55" s="188"/>
-      <c r="D55" s="189"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="157"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="202"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7741,18 +7796,18 @@
       <c r="BN55" s="80"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="160">
+      <c r="A56" s="154">
         <v>27</v>
       </c>
       <c r="B56" s="115"/>
-      <c r="C56" s="190" t="s">
+      <c r="C56" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="191"/>
-      <c r="E56" s="152" t="s">
+      <c r="D56" s="163"/>
+      <c r="E56" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="210"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7815,12 +7870,12 @@
       <c r="BN56" s="80"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="161"/>
+      <c r="A57" s="155"/>
       <c r="B57" s="115"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="211"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="228"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7883,18 +7938,18 @@
       <c r="BN57" s="80"/>
     </row>
     <row r="58" spans="1:66" ht="12" customHeight="1">
-      <c r="A58" s="160">
+      <c r="A58" s="154">
         <v>28</v>
       </c>
       <c r="B58" s="115"/>
-      <c r="C58" s="170" t="s">
+      <c r="C58" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="171"/>
-      <c r="E58" s="152" t="s">
+      <c r="D58" s="159"/>
+      <c r="E58" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="156"/>
+      <c r="F58" s="219"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7957,12 +8012,12 @@
       <c r="BN58" s="80"/>
     </row>
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="161"/>
+      <c r="A59" s="155"/>
       <c r="B59" s="115"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="224"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8025,20 +8080,20 @@
       <c r="BN59" s="78"/>
     </row>
     <row r="60" spans="1:66" ht="12" customHeight="1">
-      <c r="A60" s="160">
+      <c r="A60" s="154">
         <v>29</v>
       </c>
       <c r="B60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="186" t="s">
+      <c r="C60" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="187"/>
-      <c r="E60" s="185" t="s">
+      <c r="D60" s="210"/>
+      <c r="E60" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="154"/>
+      <c r="F60" s="218"/>
       <c r="G60" s="38"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -8101,12 +8156,12 @@
       <c r="BN60" s="79"/>
     </row>
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="161"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="189"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="157"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="202"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8136,8 +8191,8 @@
       <c r="AG61" s="16"/>
       <c r="AH61" s="22"/>
       <c r="AI61" s="62"/>
-      <c r="AJ61" s="135"/>
-      <c r="AK61" s="136"/>
+      <c r="AJ61" s="134"/>
+      <c r="AK61" s="135"/>
       <c r="AL61" s="62"/>
       <c r="AM61" s="62"/>
       <c r="AN61" s="16"/>
@@ -8166,21 +8221,21 @@
       <c r="BK61" s="62"/>
       <c r="BL61" s="62"/>
       <c r="BM61" s="62"/>
-      <c r="BN61" s="135"/>
+      <c r="BN61" s="134"/>
     </row>
     <row r="62" spans="1:66" ht="12" customHeight="1">
-      <c r="A62" s="160">
+      <c r="A62" s="154">
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="190" t="s">
+      <c r="C62" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="191"/>
-      <c r="E62" s="182" t="s">
+      <c r="D62" s="163"/>
+      <c r="E62" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="155"/>
+      <c r="F62" s="201"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8243,12 +8298,12 @@
       <c r="BN62" s="80"/>
     </row>
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A63" s="161"/>
+      <c r="A63" s="155"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="183"/>
-      <c r="F63" s="157"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="202"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8278,8 +8333,8 @@
       <c r="AG63" s="16"/>
       <c r="AH63" s="22"/>
       <c r="AI63" s="62"/>
-      <c r="AJ63" s="135"/>
-      <c r="AK63" s="136"/>
+      <c r="AJ63" s="134"/>
+      <c r="AK63" s="135"/>
       <c r="AL63" s="62"/>
       <c r="AM63" s="62"/>
       <c r="AN63" s="16"/>
@@ -8308,21 +8363,21 @@
       <c r="BK63" s="62"/>
       <c r="BL63" s="62"/>
       <c r="BM63" s="62"/>
-      <c r="BN63" s="135"/>
+      <c r="BN63" s="134"/>
     </row>
     <row r="64" spans="1:66" ht="12" customHeight="1">
-      <c r="A64" s="160">
+      <c r="A64" s="154">
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="190" t="s">
+      <c r="C64" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="191"/>
-      <c r="E64" s="182" t="s">
+      <c r="D64" s="163"/>
+      <c r="E64" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="155"/>
+      <c r="F64" s="201"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8385,12 +8440,12 @@
       <c r="BN64" s="80"/>
     </row>
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A65" s="161"/>
+      <c r="A65" s="155"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="188"/>
-      <c r="D65" s="189"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="157"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="202"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8420,8 +8475,8 @@
       <c r="AG65" s="16"/>
       <c r="AH65" s="22"/>
       <c r="AI65" s="62"/>
-      <c r="AJ65" s="135"/>
-      <c r="AK65" s="136"/>
+      <c r="AJ65" s="134"/>
+      <c r="AK65" s="135"/>
       <c r="AL65" s="62"/>
       <c r="AM65" s="62"/>
       <c r="AN65" s="16"/>
@@ -8450,21 +8505,21 @@
       <c r="BK65" s="62"/>
       <c r="BL65" s="62"/>
       <c r="BM65" s="62"/>
-      <c r="BN65" s="135"/>
+      <c r="BN65" s="134"/>
     </row>
     <row r="66" spans="1:66" ht="12" customHeight="1">
-      <c r="A66" s="160">
+      <c r="A66" s="154">
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="191"/>
-      <c r="E66" s="182" t="s">
+      <c r="D66" s="163"/>
+      <c r="E66" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="155"/>
+      <c r="F66" s="201"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8527,12 +8582,12 @@
       <c r="BN66" s="80"/>
     </row>
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A67" s="161"/>
+      <c r="A67" s="155"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="188"/>
-      <c r="D67" s="189"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="157"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="202"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8562,8 +8617,8 @@
       <c r="AG67" s="16"/>
       <c r="AH67" s="22"/>
       <c r="AI67" s="62"/>
-      <c r="AJ67" s="135"/>
-      <c r="AK67" s="136"/>
+      <c r="AJ67" s="134"/>
+      <c r="AK67" s="135"/>
       <c r="AL67" s="62"/>
       <c r="AM67" s="62"/>
       <c r="AN67" s="16"/>
@@ -8592,21 +8647,21 @@
       <c r="BK67" s="62"/>
       <c r="BL67" s="62"/>
       <c r="BM67" s="62"/>
-      <c r="BN67" s="135"/>
+      <c r="BN67" s="134"/>
     </row>
     <row r="68" spans="1:66" ht="12" customHeight="1">
-      <c r="A68" s="160">
+      <c r="A68" s="154">
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="190" t="s">
+      <c r="C68" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="191"/>
-      <c r="E68" s="182" t="s">
+      <c r="D68" s="163"/>
+      <c r="E68" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="155"/>
+      <c r="F68" s="201"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8669,12 +8724,12 @@
       <c r="BN68" s="80"/>
     </row>
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A69" s="161"/>
+      <c r="A69" s="155"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="188"/>
-      <c r="D69" s="189"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="157"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="202"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8704,8 +8759,8 @@
       <c r="AG69" s="16"/>
       <c r="AH69" s="22"/>
       <c r="AI69" s="62"/>
-      <c r="AJ69" s="135"/>
-      <c r="AK69" s="136"/>
+      <c r="AJ69" s="134"/>
+      <c r="AK69" s="135"/>
       <c r="AL69" s="62"/>
       <c r="AM69" s="62"/>
       <c r="AN69" s="16"/>
@@ -8734,21 +8789,21 @@
       <c r="BK69" s="62"/>
       <c r="BL69" s="62"/>
       <c r="BM69" s="62"/>
-      <c r="BN69" s="135"/>
+      <c r="BN69" s="134"/>
     </row>
     <row r="70" spans="1:66" ht="12" customHeight="1">
-      <c r="A70" s="160">
+      <c r="A70" s="154">
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="190" t="s">
+      <c r="C70" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="191"/>
-      <c r="E70" s="182" t="s">
+      <c r="D70" s="163"/>
+      <c r="E70" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="155"/>
+      <c r="F70" s="201"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8811,12 +8866,12 @@
       <c r="BN70" s="80"/>
     </row>
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A71" s="161"/>
+      <c r="A71" s="155"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="188"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="183"/>
-      <c r="F71" s="157"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="202"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8846,8 +8901,8 @@
       <c r="AG71" s="16"/>
       <c r="AH71" s="22"/>
       <c r="AI71" s="62"/>
-      <c r="AJ71" s="135"/>
-      <c r="AK71" s="136"/>
+      <c r="AJ71" s="134"/>
+      <c r="AK71" s="135"/>
       <c r="AL71" s="62"/>
       <c r="AM71" s="62"/>
       <c r="AN71" s="16"/>
@@ -8876,21 +8931,21 @@
       <c r="BK71" s="62"/>
       <c r="BL71" s="62"/>
       <c r="BM71" s="62"/>
-      <c r="BN71" s="135"/>
+      <c r="BN71" s="134"/>
     </row>
     <row r="72" spans="1:66" ht="12" customHeight="1">
-      <c r="A72" s="160">
+      <c r="A72" s="154">
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="190" t="s">
+      <c r="C72" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="191"/>
-      <c r="E72" s="182" t="s">
+      <c r="D72" s="163"/>
+      <c r="E72" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="155"/>
+      <c r="F72" s="201"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -8953,12 +9008,12 @@
       <c r="BN72" s="80"/>
     </row>
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A73" s="161"/>
+      <c r="A73" s="155"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="183"/>
-      <c r="F73" s="157"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="202"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -8988,8 +9043,8 @@
       <c r="AG73" s="16"/>
       <c r="AH73" s="22"/>
       <c r="AI73" s="62"/>
-      <c r="AJ73" s="135"/>
-      <c r="AK73" s="136"/>
+      <c r="AJ73" s="134"/>
+      <c r="AK73" s="135"/>
       <c r="AL73" s="62"/>
       <c r="AM73" s="62"/>
       <c r="AN73" s="16"/>
@@ -9018,21 +9073,21 @@
       <c r="BK73" s="62"/>
       <c r="BL73" s="62"/>
       <c r="BM73" s="62"/>
-      <c r="BN73" s="135"/>
+      <c r="BN73" s="134"/>
     </row>
     <row r="74" spans="1:66" ht="12" customHeight="1">
-      <c r="A74" s="160">
+      <c r="A74" s="154">
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="170" t="s">
+      <c r="C74" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="171"/>
-      <c r="E74" s="182" t="s">
+      <c r="D74" s="159"/>
+      <c r="E74" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="155"/>
+      <c r="F74" s="201"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9082,8 +9137,8 @@
       <c r="BA74" s="96"/>
       <c r="BB74" s="97"/>
       <c r="BC74" s="98"/>
-      <c r="BD74" s="137"/>
-      <c r="BE74" s="137"/>
+      <c r="BD74" s="136"/>
+      <c r="BE74" s="136"/>
       <c r="BF74" s="114"/>
       <c r="BG74" s="114"/>
       <c r="BH74" s="114"/>
@@ -9095,12 +9150,12 @@
       <c r="BN74" s="110"/>
     </row>
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A75" s="161"/>
+      <c r="A75" s="155"/>
       <c r="B75" s="113"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="184"/>
-      <c r="F75" s="159"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="224"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9163,20 +9218,20 @@
       <c r="BN75" s="78"/>
     </row>
     <row r="76" spans="1:66" ht="12" customHeight="1">
-      <c r="A76" s="160">
+      <c r="A76" s="154">
         <v>37</v>
       </c>
-      <c r="B76" s="192" t="s">
+      <c r="B76" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="202" t="s">
+      <c r="C76" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="203"/>
-      <c r="E76" s="198" t="s">
+      <c r="D76" s="238"/>
+      <c r="E76" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="207"/>
+      <c r="F76" s="242"/>
       <c r="G76" s="38"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -9239,12 +9294,12 @@
       <c r="BN76" s="79"/>
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A77" s="161"/>
-      <c r="B77" s="209"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="205"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="208"/>
+      <c r="A77" s="155"/>
+      <c r="B77" s="244"/>
+      <c r="C77" s="239"/>
+      <c r="D77" s="240"/>
+      <c r="E77" s="241"/>
+      <c r="F77" s="243"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9307,20 +9362,20 @@
       <c r="BN77" s="80"/>
     </row>
     <row r="78" spans="1:66" ht="12" customHeight="1">
-      <c r="A78" s="160">
+      <c r="A78" s="154">
         <v>38</v>
       </c>
-      <c r="B78" s="192" t="s">
+      <c r="B78" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="194" t="s">
+      <c r="C78" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="195"/>
-      <c r="E78" s="198" t="s">
+      <c r="D78" s="167"/>
+      <c r="E78" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="200"/>
+      <c r="F78" s="235"/>
       <c r="G78" s="38"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -9383,12 +9438,12 @@
       <c r="BN78" s="109"/>
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A79" s="161"/>
-      <c r="B79" s="193"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="199"/>
-      <c r="F79" s="201"/>
+      <c r="A79" s="155"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="231"/>
+      <c r="D79" s="232"/>
+      <c r="E79" s="234"/>
+      <c r="F79" s="236"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9480,113 +9535,36 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="E72:E73"/>
@@ -9611,36 +9589,113 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -9684,54 +9739,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="244" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="247" t="s">
+      <c r="F1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="229"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="231"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="177"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="233"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="248"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9806,12 +9861,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="249"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9886,20 +9941,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="160">
+      <c r="A4" s="154">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="260" t="s">
+      <c r="C4" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="261"/>
-      <c r="E4" s="262" t="s">
+      <c r="D4" s="285"/>
+      <c r="E4" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="264"/>
+      <c r="F4" s="288"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -9922,20 +9977,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="266" t="s">
+      <c r="AC4" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="252" t="s">
+      <c r="AD4" s="277" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="161"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="265"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="289"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -9958,22 +10013,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="267"/>
-      <c r="AD5" s="253"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="278"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="255">
+      <c r="A6" s="254">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="256" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="258"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -9996,16 +10051,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="267"/>
-      <c r="AD6" s="253"/>
+      <c r="AC6" s="291"/>
+      <c r="AD6" s="278"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="161"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="259"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="283"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10028,24 +10083,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="253"/>
+      <c r="AC7" s="291"/>
+      <c r="AD7" s="278"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="269">
+      <c r="A8" s="262">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="271" t="s">
+      <c r="C8" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="272" t="s">
+      <c r="D8" s="204"/>
+      <c r="E8" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="274"/>
+      <c r="F8" s="272"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10068,16 +10123,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="253"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="278"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="270"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="275"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="268"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10100,24 +10155,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="267"/>
-      <c r="AD9" s="253"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="278"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="276">
+      <c r="A10" s="275">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="277" t="s">
+      <c r="D10" s="197"/>
+      <c r="E10" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="279"/>
+      <c r="F10" s="274"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10140,16 +10195,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="267"/>
-      <c r="AD10" s="253"/>
+      <c r="AC10" s="291"/>
+      <c r="AD10" s="278"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="270"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="280"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="267"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10172,22 +10227,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="253"/>
+      <c r="AC11" s="291"/>
+      <c r="AD11" s="278"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="269">
+      <c r="A12" s="262">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="281" t="s">
+      <c r="D12" s="210"/>
+      <c r="E12" s="276" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="282"/>
+      <c r="F12" s="266"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10210,16 +10265,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="253"/>
+      <c r="AC12" s="291"/>
+      <c r="AD12" s="278"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="276"/>
+      <c r="A13" s="275"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="279"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="274"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10242,24 +10297,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="267"/>
-      <c r="AD13" s="253"/>
+      <c r="AC13" s="291"/>
+      <c r="AD13" s="278"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="283">
+      <c r="A14" s="269">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="284" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="274"/>
+      <c r="F14" s="272"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10282,16 +10337,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="267"/>
-      <c r="AD14" s="253"/>
+      <c r="AC14" s="291"/>
+      <c r="AD14" s="278"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="283"/>
+      <c r="A15" s="269"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="280"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="267"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10314,22 +10369,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="267"/>
-      <c r="AD15" s="253"/>
+      <c r="AC15" s="291"/>
+      <c r="AD15" s="278"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="283">
+      <c r="A16" s="269">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="285" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="282"/>
+      <c r="F16" s="266"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10352,16 +10407,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="267"/>
-      <c r="AD16" s="253"/>
+      <c r="AC16" s="291"/>
+      <c r="AD16" s="278"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="283"/>
+      <c r="A17" s="269"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="280"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="267"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10384,22 +10439,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="253"/>
+      <c r="AC17" s="291"/>
+      <c r="AD17" s="278"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="283">
+      <c r="A18" s="269">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="285" t="s">
+      <c r="D18" s="210"/>
+      <c r="E18" s="264" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="266"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10422,16 +10477,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="267"/>
-      <c r="AD18" s="253"/>
+      <c r="AC18" s="291"/>
+      <c r="AD18" s="278"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="283"/>
+      <c r="A19" s="269"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="275"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="268"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10454,24 +10509,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="267"/>
-      <c r="AD19" s="253"/>
+      <c r="AC19" s="291"/>
+      <c r="AD19" s="278"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="269">
+      <c r="A20" s="262">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="284" t="s">
+      <c r="D20" s="167"/>
+      <c r="E20" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="274"/>
+      <c r="F20" s="272"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10494,18 +10549,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="267"/>
-      <c r="AD20" s="253"/>
+      <c r="AC20" s="291"/>
+      <c r="AD20" s="278"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="270"/>
+      <c r="A21" s="263"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="280"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="267"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10528,22 +10583,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="267"/>
-      <c r="AD21" s="253"/>
+      <c r="AC21" s="291"/>
+      <c r="AD21" s="278"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="269">
+      <c r="A22" s="262">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="186" t="s">
+      <c r="C22" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="285" t="s">
+      <c r="D22" s="210"/>
+      <c r="E22" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="282"/>
+      <c r="F22" s="266"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10566,16 +10621,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="267"/>
-      <c r="AD22" s="253"/>
+      <c r="AC22" s="291"/>
+      <c r="AD22" s="278"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="270"/>
+      <c r="A23" s="263"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="278"/>
-      <c r="F23" s="280"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="267"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10598,22 +10653,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="267"/>
-      <c r="AD23" s="253"/>
+      <c r="AC23" s="291"/>
+      <c r="AD23" s="278"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="269">
+      <c r="A24" s="262">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="285" t="s">
+      <c r="D24" s="210"/>
+      <c r="E24" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="282"/>
+      <c r="F24" s="266"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10636,16 +10691,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="267"/>
-      <c r="AD24" s="253"/>
+      <c r="AC24" s="291"/>
+      <c r="AD24" s="278"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="270"/>
+      <c r="A25" s="263"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="275"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="268"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10668,24 +10723,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="267"/>
-      <c r="AD25" s="253"/>
+      <c r="AC25" s="291"/>
+      <c r="AD25" s="278"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="255">
+      <c r="A26" s="254">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="286" t="s">
+      <c r="D26" s="238"/>
+      <c r="E26" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="288"/>
+      <c r="F26" s="257"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10708,16 +10763,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="267"/>
-      <c r="AD26" s="253"/>
+      <c r="AC26" s="291"/>
+      <c r="AD26" s="278"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="289"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="258"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10740,24 +10795,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="253"/>
+      <c r="AC27" s="291"/>
+      <c r="AD27" s="278"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="255">
+      <c r="A28" s="254">
         <v>14</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="195"/>
-      <c r="E28" s="192" t="s">
+      <c r="D28" s="167"/>
+      <c r="E28" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="291"/>
+      <c r="F28" s="260"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10780,16 +10835,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="267"/>
-      <c r="AD28" s="253"/>
+      <c r="AC28" s="291"/>
+      <c r="AD28" s="278"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="290"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="292"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="261"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10812,8 +10867,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="268"/>
-      <c r="AD29" s="254"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="279"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -10833,45 +10888,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -10888,12 +10910,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E9485B-64BB-40D9-BB12-D3E985218DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B1744-F658-4AA0-8877-9988D9355107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -754,10 +754,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>90%</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能一覧
 （ログイン、会員登録、会員退会）</t>
     <rPh sb="0" eb="4">
@@ -786,10 +782,6 @@
     <rPh sb="14" eb="18">
       <t>コウニュウリレキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>70%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2407,23 +2399,119 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2431,10 +2519,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,11 +2531,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2527,183 +2693,114 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2724,111 +2821,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3540,8 +3532,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3558,94 +3550,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="190" t="s">
+      <c r="D1" s="243"/>
+      <c r="E1" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="175">
+      <c r="G1" s="233">
         <v>45536</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="175">
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="234"/>
+      <c r="AF1" s="234"/>
+      <c r="AG1" s="234"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="234"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="233">
         <v>45566</v>
       </c>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="177"/>
+      <c r="AL1" s="234"/>
+      <c r="AM1" s="234"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="234"/>
+      <c r="AT1" s="234"/>
+      <c r="AU1" s="234"/>
+      <c r="AV1" s="234"/>
+      <c r="AW1" s="234"/>
+      <c r="AX1" s="234"/>
+      <c r="AY1" s="234"/>
+      <c r="AZ1" s="234"/>
+      <c r="BA1" s="234"/>
+      <c r="BB1" s="234"/>
+      <c r="BC1" s="234"/>
+      <c r="BD1" s="234"/>
+      <c r="BE1" s="234"/>
+      <c r="BF1" s="234"/>
+      <c r="BG1" s="234"/>
+      <c r="BH1" s="234"/>
+      <c r="BI1" s="234"/>
+      <c r="BJ1" s="234"/>
+      <c r="BK1" s="234"/>
+      <c r="BL1" s="234"/>
+      <c r="BM1" s="234"/>
+      <c r="BN1" s="235"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="194"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="252"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3887,12 +3879,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="195"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4081,14 +4073,14 @@
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="171" t="s">
+      <c r="D4" s="195"/>
+      <c r="E4" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="231" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4155,10 +4147,10 @@
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4225,14 +4217,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="213" t="s">
+      <c r="D6" s="191"/>
+      <c r="E6" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="226" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4299,10 +4291,10 @@
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="227"/>
       <c r="G7" s="52"/>
       <c r="H7" s="122"/>
       <c r="I7" s="32"/>
@@ -4371,14 +4363,14 @@
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="203" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="217" t="s">
+      <c r="C8" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="184"/>
+      <c r="E8" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="182" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="38"/>
@@ -4445,10 +4437,10 @@
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="155"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4466,7 +4458,7 @@
       <c r="U9" s="22"/>
       <c r="V9" s="120"/>
       <c r="W9" s="120"/>
-      <c r="X9" s="9"/>
+      <c r="X9" s="31"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="22"/>
@@ -4515,15 +4507,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="156" t="s">
+      <c r="D10" s="170"/>
+      <c r="E10" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="219" t="s">
-        <v>72</v>
+      <c r="F10" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="62"/>
@@ -4589,10 +4581,10 @@
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="155"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="202"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4610,7 +4602,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="138"/>
       <c r="W11" s="120"/>
-      <c r="X11" s="9"/>
+      <c r="X11" s="31"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
@@ -4659,15 +4651,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="200" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="201" t="s">
-        <v>72</v>
+      <c r="F12" s="167" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="62"/>
@@ -4733,10 +4725,10 @@
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A13" s="155"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="202"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="166"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4754,7 +4746,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="120"/>
       <c r="W13" s="120"/>
-      <c r="X13" s="9"/>
+      <c r="X13" s="31"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="22"/>
@@ -4803,15 +4795,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="200" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="201" t="s">
-        <v>73</v>
+      <c r="F14" s="167" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
@@ -4877,10 +4869,10 @@
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="155"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="202"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="166"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4898,7 +4890,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="9"/>
       <c r="W15" s="120"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="31"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
@@ -4947,15 +4939,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="156" t="s">
+      <c r="D16" s="221"/>
+      <c r="E16" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="219" t="s">
-        <v>73</v>
+      <c r="F16" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
@@ -5020,10 +5012,10 @@
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="155"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="202"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="166"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5041,7 +5033,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="7"/>
       <c r="W17" s="106"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="152"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="19"/>
@@ -5090,15 +5082,15 @@
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="156" t="s">
+      <c r="D18" s="170"/>
+      <c r="E18" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="219" t="s">
-        <v>73</v>
+      <c r="F18" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="63"/>
@@ -5164,10 +5156,10 @@
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="155"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="202"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5185,7 +5177,7 @@
       <c r="U19" s="19"/>
       <c r="V19" s="106"/>
       <c r="W19" s="106"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="152"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="19"/>
@@ -5234,15 +5226,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="196" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="200" t="s">
+      <c r="C20" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="174"/>
+      <c r="E20" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="201" t="s">
-        <v>76</v>
+      <c r="F20" s="167" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="51"/>
       <c r="H20" s="63"/>
@@ -5308,10 +5300,10 @@
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="155"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="202"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="166"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5329,7 +5321,7 @@
       <c r="U21" s="22"/>
       <c r="V21" s="120"/>
       <c r="W21" s="120"/>
-      <c r="X21" s="9"/>
+      <c r="X21" s="31"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="22"/>
@@ -5378,15 +5370,15 @@
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="200" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="201" t="s">
-        <v>76</v>
+      <c r="F22" s="167" t="s">
+        <v>56</v>
       </c>
       <c r="G22" s="51"/>
       <c r="H22" s="63"/>
@@ -5452,10 +5444,10 @@
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A23" s="155"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="224"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="168"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5473,7 +5465,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="43"/>
       <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
+      <c r="X23" s="153"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="45"/>
@@ -5524,14 +5516,14 @@
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="204"/>
-      <c r="E24" s="217" t="s">
+      <c r="D24" s="184"/>
+      <c r="E24" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="218"/>
+      <c r="F24" s="182"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5596,10 +5588,10 @@
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A25" s="155"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="201"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="167"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5666,14 +5658,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="220" t="s">
+      <c r="C26" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="156" t="s">
+      <c r="D26" s="170"/>
+      <c r="E26" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="219"/>
+      <c r="F26" s="165"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5738,10 +5730,10 @@
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A27" s="155"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="201"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="167"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5808,14 +5800,14 @@
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="220" t="s">
+      <c r="C28" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="156" t="s">
+      <c r="D28" s="170"/>
+      <c r="E28" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="219"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="50"/>
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
@@ -5880,10 +5872,10 @@
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A29" s="155"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="202"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5901,8 +5893,8 @@
       <c r="U29" s="22"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
       <c r="Z29" s="16"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
@@ -5950,14 +5942,14 @@
         <v>14</v>
       </c>
       <c r="B30" s="115"/>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="156" t="s">
+      <c r="D30" s="157"/>
+      <c r="E30" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="219"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="51"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
@@ -6022,10 +6014,10 @@
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A31" s="155"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="201"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="167"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -6092,14 +6084,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="249" t="s">
+      <c r="C32" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="250"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="161"/>
+      <c r="E32" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="219"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6164,10 +6156,10 @@
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A33" s="155"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="251"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="167"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6234,14 +6226,14 @@
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="159"/>
-      <c r="E34" s="156" t="s">
+      <c r="D34" s="157"/>
+      <c r="E34" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="219"/>
+      <c r="F34" s="165"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6306,10 +6298,10 @@
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="155"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="224"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6378,14 +6370,14 @@
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="166" t="s">
+      <c r="C36" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="167"/>
-      <c r="E36" s="168" t="s">
+      <c r="D36" s="199"/>
+      <c r="E36" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="218"/>
+      <c r="F36" s="182"/>
       <c r="G36" s="38"/>
       <c r="H36" s="65"/>
       <c r="I36" s="65"/>
@@ -6450,10 +6442,10 @@
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A37" s="155"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="202"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="166"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6520,14 +6512,14 @@
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="222" t="s">
+      <c r="D38" s="191"/>
+      <c r="E38" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="219"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="51"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6592,10 +6584,10 @@
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A39" s="155"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="202"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="166"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6662,14 +6654,14 @@
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="210"/>
-      <c r="E40" s="222" t="s">
+      <c r="D40" s="191"/>
+      <c r="E40" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="219"/>
+      <c r="F40" s="165"/>
       <c r="G40" s="52"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6734,10 +6726,10 @@
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="155"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="168"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6806,14 +6798,14 @@
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="166" t="s">
+      <c r="C42" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="168" t="s">
+      <c r="D42" s="199"/>
+      <c r="E42" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="218"/>
+      <c r="F42" s="182"/>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -6878,10 +6870,10 @@
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A43" s="155"/>
       <c r="B43" s="115"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="202"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="166"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6948,14 +6940,14 @@
         <v>21</v>
       </c>
       <c r="B44" s="115"/>
-      <c r="C44" s="225" t="s">
+      <c r="C44" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="210"/>
-      <c r="E44" s="156" t="s">
+      <c r="D44" s="191"/>
+      <c r="E44" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="219"/>
+      <c r="F44" s="165"/>
       <c r="G44" s="51"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -7020,10 +7012,10 @@
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A45" s="155"/>
       <c r="B45" s="115"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="202"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="166"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7090,14 +7082,14 @@
         <v>22</v>
       </c>
       <c r="B46" s="115"/>
-      <c r="C46" s="162" t="s">
+      <c r="C46" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="156" t="s">
+      <c r="D46" s="195"/>
+      <c r="E46" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="219"/>
+      <c r="F46" s="165"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7162,10 +7154,10 @@
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A47" s="155"/>
       <c r="B47" s="115"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="202"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="193"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="166"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7232,14 +7224,14 @@
         <v>23</v>
       </c>
       <c r="B48" s="115"/>
-      <c r="C48" s="162" t="s">
+      <c r="C48" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="163"/>
-      <c r="E48" s="156" t="s">
+      <c r="D48" s="195"/>
+      <c r="E48" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="219"/>
+      <c r="F48" s="165"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7304,10 +7296,10 @@
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A49" s="155"/>
       <c r="B49" s="115"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="202"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="166"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7374,14 +7366,14 @@
         <v>24</v>
       </c>
       <c r="B50" s="115"/>
-      <c r="C50" s="162" t="s">
+      <c r="C50" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="156" t="s">
+      <c r="D50" s="195"/>
+      <c r="E50" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="219"/>
+      <c r="F50" s="165"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7446,10 +7438,10 @@
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A51" s="155"/>
       <c r="B51" s="115"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="202"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="166"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7516,14 +7508,14 @@
         <v>25</v>
       </c>
       <c r="B52" s="115"/>
-      <c r="C52" s="162" t="s">
+      <c r="C52" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="163"/>
-      <c r="E52" s="156" t="s">
+      <c r="D52" s="195"/>
+      <c r="E52" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="219"/>
+      <c r="F52" s="165"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7588,10 +7580,10 @@
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A53" s="155"/>
       <c r="B53" s="115"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="202"/>
+      <c r="C53" s="192"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="166"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7658,14 +7650,14 @@
         <v>26</v>
       </c>
       <c r="B54" s="115"/>
-      <c r="C54" s="162" t="s">
+      <c r="C54" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="163"/>
-      <c r="E54" s="156" t="s">
+      <c r="D54" s="195"/>
+      <c r="E54" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="219"/>
+      <c r="F54" s="165"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7730,10 +7722,10 @@
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A55" s="155"/>
       <c r="B55" s="115"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="202"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="166"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7800,14 +7792,14 @@
         <v>27</v>
       </c>
       <c r="B56" s="115"/>
-      <c r="C56" s="162" t="s">
+      <c r="C56" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="163"/>
-      <c r="E56" s="156" t="s">
+      <c r="D56" s="195"/>
+      <c r="E56" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="227"/>
+      <c r="F56" s="214"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7872,10 +7864,10 @@
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A57" s="155"/>
       <c r="B57" s="115"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="228"/>
+      <c r="C57" s="192"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="215"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7942,14 +7934,14 @@
         <v>28</v>
       </c>
       <c r="B58" s="115"/>
-      <c r="C58" s="158" t="s">
+      <c r="C58" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="159"/>
-      <c r="E58" s="156" t="s">
+      <c r="D58" s="157"/>
+      <c r="E58" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="219"/>
+      <c r="F58" s="165"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8014,10 +8006,10 @@
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A59" s="155"/>
       <c r="B59" s="115"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="226"/>
-      <c r="F59" s="224"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="168"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8086,14 +8078,14 @@
       <c r="B60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="225" t="s">
+      <c r="C60" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="210"/>
-      <c r="E60" s="168" t="s">
+      <c r="D60" s="191"/>
+      <c r="E60" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="218"/>
+      <c r="F60" s="182"/>
       <c r="G60" s="38"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -8158,10 +8150,10 @@
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A61" s="155"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="202"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="193"/>
+      <c r="E61" s="187"/>
+      <c r="F61" s="166"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8228,14 +8220,14 @@
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="162" t="s">
+      <c r="C62" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="163"/>
-      <c r="E62" s="245" t="s">
+      <c r="D62" s="195"/>
+      <c r="E62" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="201"/>
+      <c r="F62" s="167"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8300,10 +8292,10 @@
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A63" s="155"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="202"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="193"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="166"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8370,14 +8362,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="162" t="s">
+      <c r="C64" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="163"/>
-      <c r="E64" s="245" t="s">
+      <c r="D64" s="195"/>
+      <c r="E64" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="201"/>
+      <c r="F64" s="167"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8442,10 +8434,10 @@
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A65" s="155"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="202"/>
+      <c r="C65" s="192"/>
+      <c r="D65" s="193"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="166"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8512,14 +8504,14 @@
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="162" t="s">
+      <c r="C66" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="163"/>
-      <c r="E66" s="245" t="s">
+      <c r="D66" s="195"/>
+      <c r="E66" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="201"/>
+      <c r="F66" s="167"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8584,10 +8576,10 @@
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A67" s="155"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="202"/>
+      <c r="C67" s="192"/>
+      <c r="D67" s="193"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="166"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8654,14 +8646,14 @@
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="162" t="s">
+      <c r="C68" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="163"/>
-      <c r="E68" s="245" t="s">
+      <c r="D68" s="195"/>
+      <c r="E68" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="201"/>
+      <c r="F68" s="167"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8726,10 +8718,10 @@
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A69" s="155"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="202"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="193"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="166"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8796,14 +8788,14 @@
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="162" t="s">
+      <c r="C70" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="163"/>
-      <c r="E70" s="245" t="s">
+      <c r="D70" s="195"/>
+      <c r="E70" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="201"/>
+      <c r="F70" s="167"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8868,10 +8860,10 @@
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A71" s="155"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="202"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="193"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="166"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8938,14 +8930,14 @@
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="162" t="s">
+      <c r="C72" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="163"/>
-      <c r="E72" s="245" t="s">
+      <c r="D72" s="195"/>
+      <c r="E72" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="201"/>
+      <c r="F72" s="167"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -9010,10 +9002,10 @@
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A73" s="155"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="202"/>
+      <c r="C73" s="192"/>
+      <c r="D73" s="193"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="166"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -9080,14 +9072,14 @@
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="158" t="s">
+      <c r="C74" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="159"/>
-      <c r="E74" s="245" t="s">
+      <c r="D74" s="157"/>
+      <c r="E74" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="201"/>
+      <c r="F74" s="167"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9152,10 +9144,10 @@
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A75" s="155"/>
       <c r="B75" s="113"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="223"/>
-      <c r="F75" s="224"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="188"/>
+      <c r="F75" s="168"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9221,17 +9213,17 @@
       <c r="A76" s="154">
         <v>37</v>
       </c>
-      <c r="B76" s="229" t="s">
+      <c r="B76" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="237" t="s">
+      <c r="C76" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="238"/>
-      <c r="E76" s="233" t="s">
+      <c r="D76" s="207"/>
+      <c r="E76" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="242"/>
+      <c r="F76" s="211"/>
       <c r="G76" s="38"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -9295,11 +9287,11 @@
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A77" s="155"/>
-      <c r="B77" s="244"/>
-      <c r="C77" s="239"/>
-      <c r="D77" s="240"/>
-      <c r="E77" s="241"/>
-      <c r="F77" s="243"/>
+      <c r="B77" s="213"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="210"/>
+      <c r="F77" s="212"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9365,17 +9357,17 @@
       <c r="A78" s="154">
         <v>38</v>
       </c>
-      <c r="B78" s="229" t="s">
+      <c r="B78" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="166" t="s">
+      <c r="C78" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="167"/>
-      <c r="E78" s="233" t="s">
+      <c r="D78" s="199"/>
+      <c r="E78" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="235"/>
+      <c r="F78" s="204"/>
       <c r="G78" s="38"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -9439,11 +9431,11 @@
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A79" s="155"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="231"/>
-      <c r="D79" s="232"/>
-      <c r="E79" s="234"/>
-      <c r="F79" s="236"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="200"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="203"/>
+      <c r="F79" s="205"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9535,6 +9527,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -9559,143 +9688,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -9739,54 +9731,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="190" t="s">
+      <c r="D1" s="243"/>
+      <c r="E1" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="177"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="235"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="194"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="252"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9861,12 +9853,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="195"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9947,14 +9939,14 @@
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="285"/>
-      <c r="E4" s="286" t="s">
+      <c r="D4" s="265"/>
+      <c r="E4" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="288"/>
+      <c r="F4" s="268"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -9977,20 +9969,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="290" t="s">
+      <c r="AC4" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="277" t="s">
+      <c r="AD4" s="256" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
       <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="289"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="269"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10013,22 +10005,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="278"/>
+      <c r="AC5" s="271"/>
+      <c r="AD5" s="257"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="254">
+      <c r="A6" s="259">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="280" t="s">
+      <c r="D6" s="191"/>
+      <c r="E6" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="282"/>
+      <c r="F6" s="262"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10051,16 +10043,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="291"/>
-      <c r="AD6" s="278"/>
+      <c r="AC6" s="271"/>
+      <c r="AD6" s="257"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
       <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="283"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="263"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10083,24 +10075,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="291"/>
-      <c r="AD7" s="278"/>
+      <c r="AC7" s="271"/>
+      <c r="AD7" s="257"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="262">
+      <c r="A8" s="273">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="293" t="s">
+      <c r="C8" s="275" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="294" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="272"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10123,16 +10115,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="291"/>
-      <c r="AD8" s="278"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="257"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="263"/>
+      <c r="A9" s="274"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10155,24 +10147,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="278"/>
+      <c r="AC9" s="271"/>
+      <c r="AD9" s="257"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="275">
+      <c r="A10" s="280">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="246" t="s">
+      <c r="C10" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="273" t="s">
+      <c r="D10" s="174"/>
+      <c r="E10" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="274"/>
+      <c r="F10" s="283"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10195,16 +10187,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="291"/>
-      <c r="AD10" s="278"/>
+      <c r="AC10" s="271"/>
+      <c r="AD10" s="257"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="263"/>
+      <c r="A11" s="274"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="267"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="284"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10227,22 +10219,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="291"/>
-      <c r="AD11" s="278"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="257"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="262">
+      <c r="A12" s="273">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="210"/>
-      <c r="E12" s="276" t="s">
+      <c r="D12" s="191"/>
+      <c r="E12" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="266"/>
+      <c r="F12" s="286"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10265,16 +10257,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="291"/>
-      <c r="AD12" s="278"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="257"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="275"/>
+      <c r="A13" s="280"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="274"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="283"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10297,24 +10289,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="291"/>
-      <c r="AD13" s="278"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="257"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="269">
+      <c r="A14" s="287">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="271" t="s">
+      <c r="D14" s="199"/>
+      <c r="E14" s="288" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="272"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10337,16 +10329,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="291"/>
-      <c r="AD14" s="278"/>
+      <c r="AC14" s="271"/>
+      <c r="AD14" s="257"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="269"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="267"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="284"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10369,22 +10361,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="291"/>
-      <c r="AD15" s="278"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="257"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="269">
+      <c r="A16" s="287">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="264" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="289" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="266"/>
+      <c r="F16" s="286"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10407,16 +10399,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="291"/>
-      <c r="AD16" s="278"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="257"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="269"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="267"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="284"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10439,22 +10431,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="291"/>
-      <c r="AD17" s="278"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="257"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="269">
+      <c r="A18" s="287">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="264" t="s">
+      <c r="D18" s="191"/>
+      <c r="E18" s="289" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="266"/>
+      <c r="F18" s="286"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10477,16 +10469,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="291"/>
-      <c r="AD18" s="278"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="257"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="269"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="268"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10509,24 +10501,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="291"/>
-      <c r="AD19" s="278"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="257"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="262">
+      <c r="A20" s="273">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="271" t="s">
+      <c r="D20" s="199"/>
+      <c r="E20" s="288" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="272"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10549,18 +10541,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="291"/>
-      <c r="AD20" s="278"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="257"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="263"/>
+      <c r="A21" s="274"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="267"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="284"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10583,22 +10575,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="291"/>
-      <c r="AD21" s="278"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="257"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="262">
+      <c r="A22" s="273">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="225" t="s">
+      <c r="C22" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="264" t="s">
+      <c r="D22" s="191"/>
+      <c r="E22" s="289" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="266"/>
+      <c r="F22" s="286"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10621,16 +10613,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="291"/>
-      <c r="AD22" s="278"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="257"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="263"/>
+      <c r="A23" s="274"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="267"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="284"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10653,22 +10645,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="291"/>
-      <c r="AD23" s="278"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="257"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="262">
+      <c r="A24" s="273">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="264" t="s">
+      <c r="D24" s="191"/>
+      <c r="E24" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="266"/>
+      <c r="F24" s="286"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10691,16 +10683,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="291"/>
-      <c r="AD24" s="278"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="257"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="263"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="265"/>
-      <c r="F25" s="268"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="282"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10723,24 +10715,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="291"/>
-      <c r="AD25" s="278"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="257"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="254">
+      <c r="A26" s="259">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="237" t="s">
+      <c r="C26" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="238"/>
-      <c r="E26" s="255" t="s">
+      <c r="D26" s="207"/>
+      <c r="E26" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="257"/>
+      <c r="F26" s="292"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10763,16 +10755,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="291"/>
-      <c r="AD26" s="278"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="257"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
       <c r="A27" s="155"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="258"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="293"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10795,24 +10787,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="291"/>
-      <c r="AD27" s="278"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="257"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="254">
+      <c r="A28" s="259">
         <v>14</v>
       </c>
-      <c r="B28" s="229" t="s">
+      <c r="B28" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="166" t="s">
+      <c r="C28" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="229" t="s">
+      <c r="D28" s="199"/>
+      <c r="E28" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="260"/>
+      <c r="F28" s="295"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10835,16 +10827,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="291"/>
-      <c r="AD28" s="278"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="257"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="259"/>
-      <c r="B29" s="230"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="261"/>
+      <c r="A29" s="294"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="296"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10867,8 +10859,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="279"/>
+      <c r="AC29" s="272"/>
+      <c r="AD29" s="258"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -10888,12 +10880,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -10910,45 +10935,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B1744-F658-4AA0-8877-9988D9355107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB23C1-0049-44B1-8FA8-007F9000B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -782,6 +782,10 @@
     <rPh sb="14" eb="18">
       <t>コウニュウリレキ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>100%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1942,7 +1946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2399,12 +2403,279 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2420,278 +2691,134 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2699,128 +2826,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3532,8 +3548,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3550,94 +3566,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="243"/>
-      <c r="E1" s="248" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="233">
+      <c r="G1" s="175">
         <v>45536</v>
       </c>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="234"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="234"/>
-      <c r="AD1" s="234"/>
-      <c r="AE1" s="234"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="234"/>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="234"/>
-      <c r="AJ1" s="235"/>
-      <c r="AK1" s="233">
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="175">
         <v>45566</v>
       </c>
-      <c r="AL1" s="234"/>
-      <c r="AM1" s="234"/>
-      <c r="AN1" s="234"/>
-      <c r="AO1" s="234"/>
-      <c r="AP1" s="234"/>
-      <c r="AQ1" s="234"/>
-      <c r="AR1" s="234"/>
-      <c r="AS1" s="234"/>
-      <c r="AT1" s="234"/>
-      <c r="AU1" s="234"/>
-      <c r="AV1" s="234"/>
-      <c r="AW1" s="234"/>
-      <c r="AX1" s="234"/>
-      <c r="AY1" s="234"/>
-      <c r="AZ1" s="234"/>
-      <c r="BA1" s="234"/>
-      <c r="BB1" s="234"/>
-      <c r="BC1" s="234"/>
-      <c r="BD1" s="234"/>
-      <c r="BE1" s="234"/>
-      <c r="BF1" s="234"/>
-      <c r="BG1" s="234"/>
-      <c r="BH1" s="234"/>
-      <c r="BI1" s="234"/>
-      <c r="BJ1" s="234"/>
-      <c r="BK1" s="234"/>
-      <c r="BL1" s="234"/>
-      <c r="BM1" s="234"/>
-      <c r="BN1" s="235"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="176"/>
+      <c r="AT1" s="176"/>
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="176"/>
+      <c r="BB1" s="176"/>
+      <c r="BC1" s="176"/>
+      <c r="BD1" s="176"/>
+      <c r="BE1" s="176"/>
+      <c r="BF1" s="176"/>
+      <c r="BG1" s="176"/>
+      <c r="BH1" s="176"/>
+      <c r="BI1" s="176"/>
+      <c r="BJ1" s="176"/>
+      <c r="BK1" s="176"/>
+      <c r="BL1" s="176"/>
+      <c r="BM1" s="176"/>
+      <c r="BN1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="237"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="252"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3879,12 +3895,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="253"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4073,14 +4089,14 @@
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="229" t="s">
+      <c r="D4" s="163"/>
+      <c r="E4" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="231" t="s">
+      <c r="F4" s="173" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4147,10 +4163,10 @@
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="232"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4217,14 +4233,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="191"/>
-      <c r="E6" s="224" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="226" t="s">
+      <c r="F6" s="215" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4291,10 +4307,10 @@
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="227"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="216"/>
       <c r="G7" s="52"/>
       <c r="H7" s="122"/>
       <c r="I7" s="32"/>
@@ -4363,14 +4379,14 @@
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="180" t="s">
+      <c r="D8" s="204"/>
+      <c r="E8" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="218" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="38"/>
@@ -4437,10 +4453,10 @@
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="155"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="166"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="202"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4507,14 +4523,14 @@
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="177" t="s">
+      <c r="D10" s="221"/>
+      <c r="E10" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="219" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="50"/>
@@ -4581,10 +4597,10 @@
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="155"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="166"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4651,14 +4667,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="178" t="s">
+      <c r="D12" s="197"/>
+      <c r="E12" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="167" t="s">
+      <c r="F12" s="201" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="50"/>
@@ -4725,10 +4741,10 @@
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A13" s="155"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="166"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="202"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4795,14 +4811,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="178" t="s">
+      <c r="D14" s="197"/>
+      <c r="E14" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="201" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="50"/>
@@ -4869,10 +4885,10 @@
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="155"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="166"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4939,14 +4955,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="220" t="s">
+      <c r="C16" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="177" t="s">
+      <c r="D16" s="206"/>
+      <c r="E16" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="165" t="s">
+      <c r="F16" s="219" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="51"/>
@@ -5012,10 +5028,10 @@
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="155"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="166"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5082,14 +5098,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="177" t="s">
+      <c r="D18" s="221"/>
+      <c r="E18" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="165" t="s">
+      <c r="F18" s="219" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="101"/>
@@ -5156,10 +5172,10 @@
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="155"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="166"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="202"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5226,14 +5242,14 @@
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="178" t="s">
+      <c r="D20" s="197"/>
+      <c r="E20" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="167" t="s">
+      <c r="F20" s="201" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="51"/>
@@ -5300,10 +5316,10 @@
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="155"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="166"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="202"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5370,14 +5386,14 @@
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="178" t="s">
+      <c r="D22" s="197"/>
+      <c r="E22" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="201" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="51"/>
@@ -5444,10 +5460,10 @@
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
       <c r="A23" s="155"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="168"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5516,14 +5532,14 @@
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="180" t="s">
+      <c r="D24" s="204"/>
+      <c r="E24" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="182"/>
+      <c r="F24" s="218"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5588,10 +5604,10 @@
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A25" s="155"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="167"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5658,14 +5674,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="169" t="s">
+      <c r="C26" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="177" t="s">
+      <c r="D26" s="221"/>
+      <c r="E26" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="165"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5730,10 +5746,10 @@
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A27" s="155"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="167"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="201"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5800,14 +5816,16 @@
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="177" t="s">
+      <c r="D28" s="221"/>
+      <c r="E28" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="165"/>
+      <c r="F28" s="219" t="s">
+        <v>75</v>
+      </c>
       <c r="G28" s="50"/>
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
@@ -5872,10 +5890,10 @@
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A29" s="155"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="166"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5898,15 +5916,15 @@
       <c r="Z29" s="16"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="9"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="22"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="72"/>
-      <c r="AK29" s="83"/>
+      <c r="AK29" s="299"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="16"/>
@@ -5942,14 +5960,16 @@
         <v>14</v>
       </c>
       <c r="B30" s="115"/>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="177" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="219" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="51"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
@@ -6014,10 +6034,10 @@
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A31" s="155"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="167"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="201"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -6036,20 +6056,20 @@
       <c r="V31" s="119"/>
       <c r="W31" s="119"/>
       <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
+      <c r="Y31" s="32"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
       <c r="AG31" s="25"/>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="85"/>
-      <c r="AL31" s="24"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="297"/>
+      <c r="AK31" s="298"/>
+      <c r="AL31" s="32"/>
       <c r="AM31" s="24"/>
       <c r="AN31" s="25"/>
       <c r="AO31" s="26"/>
@@ -6084,14 +6104,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="177" t="s">
+      <c r="D32" s="250"/>
+      <c r="E32" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="219"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6156,10 +6176,10 @@
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A33" s="155"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="167"/>
+      <c r="C33" s="251"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6226,14 +6246,14 @@
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="157"/>
-      <c r="E34" s="177" t="s">
+      <c r="D34" s="159"/>
+      <c r="E34" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="165"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6298,10 +6318,10 @@
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="155"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="168"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6370,14 +6390,14 @@
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="198" t="s">
+      <c r="C36" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="189" t="s">
+      <c r="D36" s="167"/>
+      <c r="E36" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="182"/>
+      <c r="F36" s="218"/>
       <c r="G36" s="38"/>
       <c r="H36" s="65"/>
       <c r="I36" s="65"/>
@@ -6442,10 +6462,10 @@
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A37" s="155"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="166"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6477,15 +6497,15 @@
       <c r="AI37" s="24"/>
       <c r="AJ37" s="150"/>
       <c r="AK37" s="85"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
       <c r="AN37" s="25"/>
       <c r="AO37" s="26"/>
-      <c r="AP37" s="24"/>
+      <c r="AP37" s="32"/>
       <c r="AQ37" s="24"/>
       <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
       <c r="AU37" s="25"/>
       <c r="AV37" s="26"/>
       <c r="AW37" s="26"/>
@@ -6512,14 +6532,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="216" t="s">
+      <c r="C38" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="191"/>
-      <c r="E38" s="217" t="s">
+      <c r="D38" s="210"/>
+      <c r="E38" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="165"/>
+      <c r="F38" s="219" t="s">
+        <v>75</v>
+      </c>
       <c r="G38" s="51"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6584,10 +6606,10 @@
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A39" s="155"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="193"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="166"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6623,8 +6645,8 @@
       <c r="AM39" s="24"/>
       <c r="AN39" s="25"/>
       <c r="AO39" s="26"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
       <c r="AR39" s="24"/>
       <c r="AS39" s="24"/>
       <c r="AT39" s="24"/>
@@ -6654,14 +6676,14 @@
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="216" t="s">
+      <c r="C40" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="191"/>
-      <c r="E40" s="217" t="s">
+      <c r="D40" s="210"/>
+      <c r="E40" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="165"/>
+      <c r="F40" s="219"/>
       <c r="G40" s="52"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6726,10 +6748,10 @@
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="155"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="168"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6766,10 +6788,10 @@
       <c r="AN41" s="17"/>
       <c r="AO41" s="23"/>
       <c r="AP41" s="68"/>
-      <c r="AQ41" s="68"/>
-      <c r="AR41" s="68"/>
+      <c r="AQ41" s="300"/>
+      <c r="AR41" s="300"/>
       <c r="AS41" s="68"/>
-      <c r="AT41" s="68"/>
+      <c r="AT41" s="300"/>
       <c r="AU41" s="17"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -6798,14 +6820,16 @@
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="189" t="s">
+      <c r="D42" s="167"/>
+      <c r="E42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="182"/>
+      <c r="F42" s="218" t="s">
+        <v>75</v>
+      </c>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -6870,10 +6894,10 @@
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A43" s="155"/>
       <c r="B43" s="115"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="166"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="202"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6906,7 +6930,7 @@
       <c r="AJ43" s="80"/>
       <c r="AK43" s="91"/>
       <c r="AL43" s="63"/>
-      <c r="AM43" s="63"/>
+      <c r="AM43" s="152"/>
       <c r="AN43" s="13"/>
       <c r="AO43" s="19"/>
       <c r="AP43" s="63"/>
@@ -6940,14 +6964,14 @@
         <v>21</v>
       </c>
       <c r="B44" s="115"/>
-      <c r="C44" s="190" t="s">
+      <c r="C44" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="191"/>
-      <c r="E44" s="177" t="s">
+      <c r="D44" s="210"/>
+      <c r="E44" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="165"/>
+      <c r="F44" s="219"/>
       <c r="G44" s="51"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -7012,10 +7036,10 @@
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A45" s="155"/>
       <c r="B45" s="115"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="166"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="202"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7082,14 +7106,14 @@
         <v>22</v>
       </c>
       <c r="B46" s="115"/>
-      <c r="C46" s="194" t="s">
+      <c r="C46" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="195"/>
-      <c r="E46" s="177" t="s">
+      <c r="D46" s="163"/>
+      <c r="E46" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="165"/>
+      <c r="F46" s="219"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7154,10 +7178,10 @@
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A47" s="155"/>
       <c r="B47" s="115"/>
-      <c r="C47" s="192"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="166"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="202"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7224,14 +7248,14 @@
         <v>23</v>
       </c>
       <c r="B48" s="115"/>
-      <c r="C48" s="194" t="s">
+      <c r="C48" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="195"/>
-      <c r="E48" s="177" t="s">
+      <c r="D48" s="163"/>
+      <c r="E48" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="165"/>
+      <c r="F48" s="219"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7296,10 +7320,10 @@
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A49" s="155"/>
       <c r="B49" s="115"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="166"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="202"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7366,14 +7390,14 @@
         <v>24</v>
       </c>
       <c r="B50" s="115"/>
-      <c r="C50" s="194" t="s">
+      <c r="C50" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="195"/>
-      <c r="E50" s="177" t="s">
+      <c r="D50" s="163"/>
+      <c r="E50" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="165"/>
+      <c r="F50" s="219"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7438,10 +7462,10 @@
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A51" s="155"/>
       <c r="B51" s="115"/>
-      <c r="C51" s="192"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="166"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="202"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7508,14 +7532,14 @@
         <v>25</v>
       </c>
       <c r="B52" s="115"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="195"/>
-      <c r="E52" s="177" t="s">
+      <c r="D52" s="163"/>
+      <c r="E52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="165"/>
+      <c r="F52" s="219"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7580,10 +7604,10 @@
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A53" s="155"/>
       <c r="B53" s="115"/>
-      <c r="C53" s="192"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="166"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="202"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7650,14 +7674,14 @@
         <v>26</v>
       </c>
       <c r="B54" s="115"/>
-      <c r="C54" s="194" t="s">
+      <c r="C54" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="195"/>
-      <c r="E54" s="177" t="s">
+      <c r="D54" s="163"/>
+      <c r="E54" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="165"/>
+      <c r="F54" s="219"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7722,10 +7746,10 @@
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A55" s="155"/>
       <c r="B55" s="115"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="181"/>
-      <c r="F55" s="166"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="202"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7792,14 +7816,14 @@
         <v>27</v>
       </c>
       <c r="B56" s="115"/>
-      <c r="C56" s="194" t="s">
+      <c r="C56" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="195"/>
-      <c r="E56" s="177" t="s">
+      <c r="D56" s="163"/>
+      <c r="E56" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="214"/>
+      <c r="F56" s="225"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7864,10 +7888,10 @@
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A57" s="155"/>
       <c r="B57" s="115"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="215"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="226"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7934,14 +7958,14 @@
         <v>28</v>
       </c>
       <c r="B58" s="115"/>
-      <c r="C58" s="156" t="s">
+      <c r="C58" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="157"/>
-      <c r="E58" s="177" t="s">
+      <c r="D58" s="159"/>
+      <c r="E58" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="165"/>
+      <c r="F58" s="219"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8006,10 +8030,10 @@
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A59" s="155"/>
       <c r="B59" s="115"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="179"/>
-      <c r="F59" s="168"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="246"/>
+      <c r="F59" s="224"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8078,14 +8102,14 @@
       <c r="B60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="190" t="s">
+      <c r="C60" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="191"/>
-      <c r="E60" s="189" t="s">
+      <c r="D60" s="210"/>
+      <c r="E60" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="182"/>
+      <c r="F60" s="218"/>
       <c r="G60" s="38"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -8150,10 +8174,10 @@
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A61" s="155"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="187"/>
-      <c r="F61" s="166"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="202"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8220,14 +8244,14 @@
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="194" t="s">
+      <c r="C62" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="195"/>
-      <c r="E62" s="186" t="s">
+      <c r="D62" s="163"/>
+      <c r="E62" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="167"/>
+      <c r="F62" s="201"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8292,10 +8316,10 @@
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A63" s="155"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="166"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="202"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8362,14 +8386,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="194" t="s">
+      <c r="C64" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="195"/>
-      <c r="E64" s="186" t="s">
+      <c r="D64" s="163"/>
+      <c r="E64" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="167"/>
+      <c r="F64" s="201"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8434,10 +8458,10 @@
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A65" s="155"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="192"/>
-      <c r="D65" s="193"/>
-      <c r="E65" s="187"/>
-      <c r="F65" s="166"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="202"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8504,14 +8528,14 @@
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="194" t="s">
+      <c r="C66" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="195"/>
-      <c r="E66" s="186" t="s">
+      <c r="D66" s="163"/>
+      <c r="E66" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="167"/>
+      <c r="F66" s="201"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8576,10 +8600,10 @@
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A67" s="155"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="192"/>
-      <c r="D67" s="193"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="166"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="202"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8646,14 +8670,14 @@
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="194" t="s">
+      <c r="C68" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="195"/>
-      <c r="E68" s="186" t="s">
+      <c r="D68" s="163"/>
+      <c r="E68" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="167"/>
+      <c r="F68" s="201"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8718,10 +8742,10 @@
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A69" s="155"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="192"/>
-      <c r="D69" s="193"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="166"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="202"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8788,14 +8812,14 @@
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="194" t="s">
+      <c r="C70" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="195"/>
-      <c r="E70" s="186" t="s">
+      <c r="D70" s="163"/>
+      <c r="E70" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="167"/>
+      <c r="F70" s="201"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8860,10 +8884,10 @@
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A71" s="155"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="192"/>
-      <c r="D71" s="193"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="166"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="202"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8930,14 +8954,14 @@
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="194" t="s">
+      <c r="C72" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="195"/>
-      <c r="E72" s="186" t="s">
+      <c r="D72" s="163"/>
+      <c r="E72" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="167"/>
+      <c r="F72" s="201"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -9002,10 +9026,10 @@
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A73" s="155"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="192"/>
-      <c r="D73" s="193"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="166"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="202"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -9072,14 +9096,14 @@
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="156" t="s">
+      <c r="C74" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="157"/>
-      <c r="E74" s="186" t="s">
+      <c r="D74" s="159"/>
+      <c r="E74" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="167"/>
+      <c r="F74" s="201"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9144,10 +9168,10 @@
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A75" s="155"/>
       <c r="B75" s="113"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="188"/>
-      <c r="F75" s="168"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="224"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9213,17 +9237,17 @@
       <c r="A76" s="154">
         <v>37</v>
       </c>
-      <c r="B76" s="196" t="s">
+      <c r="B76" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="206" t="s">
+      <c r="C76" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="202" t="s">
+      <c r="D76" s="236"/>
+      <c r="E76" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="211"/>
+      <c r="F76" s="240"/>
       <c r="G76" s="38"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -9287,11 +9311,11 @@
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A77" s="155"/>
-      <c r="B77" s="213"/>
-      <c r="C77" s="208"/>
-      <c r="D77" s="209"/>
-      <c r="E77" s="210"/>
-      <c r="F77" s="212"/>
+      <c r="B77" s="242"/>
+      <c r="C77" s="237"/>
+      <c r="D77" s="238"/>
+      <c r="E77" s="239"/>
+      <c r="F77" s="241"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9357,17 +9381,17 @@
       <c r="A78" s="154">
         <v>38</v>
       </c>
-      <c r="B78" s="196" t="s">
+      <c r="B78" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="198" t="s">
+      <c r="C78" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="199"/>
-      <c r="E78" s="202" t="s">
+      <c r="D78" s="167"/>
+      <c r="E78" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="204"/>
+      <c r="F78" s="233"/>
       <c r="G78" s="38"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -9431,11 +9455,11 @@
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
       <c r="A79" s="155"/>
-      <c r="B79" s="197"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="201"/>
-      <c r="E79" s="203"/>
-      <c r="F79" s="205"/>
+      <c r="B79" s="228"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="232"/>
+      <c r="F79" s="234"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9527,37 +9551,112 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
@@ -9582,112 +9681,37 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -9731,54 +9755,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="243"/>
-      <c r="E1" s="248" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="233"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="234"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="234"/>
-      <c r="AD1" s="235"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="177"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="237"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="252"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9853,12 +9877,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="253"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9939,14 +9963,14 @@
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="265"/>
-      <c r="E4" s="266" t="s">
+      <c r="D4" s="285"/>
+      <c r="E4" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="268"/>
+      <c r="F4" s="288"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -9969,20 +9993,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="270" t="s">
+      <c r="AC4" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="256" t="s">
+      <c r="AD4" s="277" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
       <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="269"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="289"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10005,22 +10029,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="271"/>
-      <c r="AD5" s="257"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="278"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="259">
+      <c r="A6" s="254">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="191"/>
-      <c r="E6" s="260" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="262"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10043,16 +10067,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="271"/>
-      <c r="AD6" s="257"/>
+      <c r="AC6" s="291"/>
+      <c r="AD6" s="278"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
       <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="263"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="283"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10075,24 +10099,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="257"/>
+      <c r="AC7" s="291"/>
+      <c r="AD7" s="278"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="273">
+      <c r="A8" s="262">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="275" t="s">
+      <c r="C8" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="276" t="s">
+      <c r="D8" s="204"/>
+      <c r="E8" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="272"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10115,16 +10139,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="271"/>
-      <c r="AD8" s="257"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="278"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="274"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="279"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="268"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10147,24 +10171,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="271"/>
-      <c r="AD9" s="257"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="278"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="280">
+      <c r="A10" s="275">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="281" t="s">
+      <c r="D10" s="197"/>
+      <c r="E10" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="283"/>
+      <c r="F10" s="274"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10187,16 +10211,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="271"/>
-      <c r="AD10" s="257"/>
+      <c r="AC10" s="291"/>
+      <c r="AD10" s="278"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="274"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="284"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="267"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10219,22 +10243,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="257"/>
+      <c r="AC11" s="291"/>
+      <c r="AD11" s="278"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="273">
+      <c r="A12" s="262">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="191"/>
-      <c r="E12" s="285" t="s">
+      <c r="D12" s="210"/>
+      <c r="E12" s="276" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="286"/>
+      <c r="F12" s="266"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10257,16 +10281,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="257"/>
+      <c r="AC12" s="291"/>
+      <c r="AD12" s="278"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="280"/>
+      <c r="A13" s="275"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="283"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="274"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10289,24 +10313,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="257"/>
+      <c r="AC13" s="291"/>
+      <c r="AD13" s="278"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="287">
+      <c r="A14" s="269">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C14" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="288" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="272"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10329,16 +10353,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="271"/>
-      <c r="AD14" s="257"/>
+      <c r="AC14" s="291"/>
+      <c r="AD14" s="278"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="287"/>
+      <c r="A15" s="269"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="284"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="267"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10361,22 +10385,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="257"/>
+      <c r="AC15" s="291"/>
+      <c r="AD15" s="278"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="287">
+      <c r="A16" s="269">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="216" t="s">
+      <c r="C16" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="289" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="286"/>
+      <c r="F16" s="266"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10399,16 +10423,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="271"/>
-      <c r="AD16" s="257"/>
+      <c r="AC16" s="291"/>
+      <c r="AD16" s="278"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="287"/>
+      <c r="A17" s="269"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="284"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="267"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10431,22 +10455,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="257"/>
+      <c r="AC17" s="291"/>
+      <c r="AD17" s="278"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="287">
+      <c r="A18" s="269">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="191"/>
-      <c r="E18" s="289" t="s">
+      <c r="D18" s="210"/>
+      <c r="E18" s="264" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="286"/>
+      <c r="F18" s="266"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10469,16 +10493,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="271"/>
-      <c r="AD18" s="257"/>
+      <c r="AC18" s="291"/>
+      <c r="AD18" s="278"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="287"/>
+      <c r="A19" s="269"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="279"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="268"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10501,24 +10525,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="257"/>
+      <c r="AC19" s="291"/>
+      <c r="AD19" s="278"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="273">
+      <c r="A20" s="262">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="288" t="s">
+      <c r="D20" s="167"/>
+      <c r="E20" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="278"/>
+      <c r="F20" s="272"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10541,18 +10565,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="271"/>
-      <c r="AD20" s="257"/>
+      <c r="AC20" s="291"/>
+      <c r="AD20" s="278"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="274"/>
+      <c r="A21" s="263"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="284"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="267"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10575,22 +10599,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="271"/>
-      <c r="AD21" s="257"/>
+      <c r="AC21" s="291"/>
+      <c r="AD21" s="278"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="273">
+      <c r="A22" s="262">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="289" t="s">
+      <c r="D22" s="210"/>
+      <c r="E22" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="286"/>
+      <c r="F22" s="266"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10613,16 +10637,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="257"/>
+      <c r="AC22" s="291"/>
+      <c r="AD22" s="278"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="274"/>
+      <c r="A23" s="263"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="284"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="267"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10645,22 +10669,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="257"/>
+      <c r="AC23" s="291"/>
+      <c r="AD23" s="278"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="273">
+      <c r="A24" s="262">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="190" t="s">
+      <c r="C24" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="289" t="s">
+      <c r="D24" s="210"/>
+      <c r="E24" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="286"/>
+      <c r="F24" s="266"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10683,16 +10707,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="257"/>
+      <c r="AC24" s="291"/>
+      <c r="AD24" s="278"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="274"/>
+      <c r="A25" s="263"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="268"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10715,24 +10739,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="271"/>
-      <c r="AD25" s="257"/>
+      <c r="AC25" s="291"/>
+      <c r="AD25" s="278"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="259">
+      <c r="A26" s="254">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="206" t="s">
+      <c r="C26" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="290" t="s">
+      <c r="D26" s="236"/>
+      <c r="E26" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="292"/>
+      <c r="F26" s="257"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10755,16 +10779,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="271"/>
-      <c r="AD26" s="257"/>
+      <c r="AC26" s="291"/>
+      <c r="AD26" s="278"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
       <c r="A27" s="155"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="291"/>
-      <c r="F27" s="293"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="258"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10787,24 +10811,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="271"/>
-      <c r="AD27" s="257"/>
+      <c r="AC27" s="291"/>
+      <c r="AD27" s="278"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="259">
+      <c r="A28" s="254">
         <v>14</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="199"/>
-      <c r="E28" s="196" t="s">
+      <c r="D28" s="167"/>
+      <c r="E28" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="295"/>
+      <c r="F28" s="260"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10827,16 +10851,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="271"/>
-      <c r="AD28" s="257"/>
+      <c r="AC28" s="291"/>
+      <c r="AD28" s="278"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="294"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="296"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="261"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10859,8 +10883,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="272"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="279"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -10880,45 +10904,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -10935,12 +10926,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB23C1-0049-44B1-8FA8-007F9000B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB20B3F-56FB-42C5-A1A1-FEB4554854EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -2397,6 +2397,18 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2825,18 +2837,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3548,8 +3548,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:F45"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD45" sqref="BD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3566,94 +3566,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="190" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="175">
+      <c r="G1" s="179">
         <v>45536</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="175">
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="179">
         <v>45566</v>
       </c>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="177"/>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
+      <c r="BB1" s="180"/>
+      <c r="BC1" s="180"/>
+      <c r="BD1" s="180"/>
+      <c r="BE1" s="180"/>
+      <c r="BF1" s="180"/>
+      <c r="BG1" s="180"/>
+      <c r="BH1" s="180"/>
+      <c r="BI1" s="180"/>
+      <c r="BJ1" s="180"/>
+      <c r="BK1" s="180"/>
+      <c r="BL1" s="180"/>
+      <c r="BM1" s="180"/>
+      <c r="BN1" s="181"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="194"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3895,12 +3895,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="195"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4083,20 +4083,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="154">
+      <c r="A4" s="158">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="171" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="177" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4161,12 +4161,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="155"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4229,18 +4229,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="154">
+      <c r="A6" s="158">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="213" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="219" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4305,12 +4305,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="52"/>
       <c r="H7" s="122"/>
       <c r="I7" s="32"/>
@@ -4373,20 +4373,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="158">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="217" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="222" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="38"/>
@@ -4451,12 +4451,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="155"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4519,18 +4519,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="158">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="156" t="s">
+      <c r="D10" s="225"/>
+      <c r="E10" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="219" t="s">
+      <c r="F10" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="50"/>
@@ -4595,12 +4595,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="155"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4663,18 +4663,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="154">
+      <c r="A12" s="158">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="200" t="s">
+      <c r="D12" s="201"/>
+      <c r="E12" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="201" t="s">
+      <c r="F12" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="50"/>
@@ -4739,12 +4739,12 @@
       <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="155"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4807,18 +4807,18 @@
       <c r="BN13" s="72"/>
     </row>
     <row r="14" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="158">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="200" t="s">
+      <c r="D14" s="201"/>
+      <c r="E14" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="201" t="s">
+      <c r="F14" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="50"/>
@@ -4883,12 +4883,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="155"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4951,18 +4951,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A16" s="154">
+      <c r="A16" s="158">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="156" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="219" t="s">
+      <c r="F16" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="51"/>
@@ -5027,11 +5027,11 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="155"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="202"/>
+      <c r="A17" s="159"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5094,18 +5094,18 @@
       <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A18" s="154">
+      <c r="A18" s="158">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="156" t="s">
+      <c r="D18" s="225"/>
+      <c r="E18" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="219" t="s">
+      <c r="F18" s="223" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="101"/>
@@ -5170,12 +5170,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="155"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5238,18 +5238,18 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A20" s="154">
+      <c r="A20" s="158">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="200" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="201" t="s">
+      <c r="F20" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="51"/>
@@ -5314,12 +5314,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="155"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5382,18 +5382,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A22" s="154">
+      <c r="A22" s="158">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="200" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="201" t="s">
+      <c r="F22" s="205" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="51"/>
@@ -5458,12 +5458,12 @@
       <c r="BN22" s="73"/>
     </row>
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="155"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="224"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="228"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5526,20 +5526,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="154">
+      <c r="A24" s="158">
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="204"/>
-      <c r="E24" s="217" t="s">
+      <c r="D24" s="208"/>
+      <c r="E24" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="218"/>
+      <c r="F24" s="222"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5602,12 +5602,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A25" s="155"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="201"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5670,18 +5670,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="154">
+      <c r="A26" s="158">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="220" t="s">
+      <c r="C26" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="156" t="s">
+      <c r="D26" s="225"/>
+      <c r="E26" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="219"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5744,12 +5744,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A27" s="155"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="201"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5812,18 +5812,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="154">
+      <c r="A28" s="158">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="220" t="s">
+      <c r="C28" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="156" t="s">
+      <c r="D28" s="225"/>
+      <c r="E28" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="219" t="s">
+      <c r="F28" s="223" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="50"/>
@@ -5888,12 +5888,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="155"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5924,7 +5924,7 @@
       <c r="AH29" s="22"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="72"/>
-      <c r="AK29" s="299"/>
+      <c r="AK29" s="156"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="16"/>
@@ -5956,18 +5956,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="154">
+      <c r="A30" s="158">
         <v>14</v>
       </c>
       <c r="B30" s="115"/>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="156" t="s">
+      <c r="D30" s="163"/>
+      <c r="E30" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="219" t="s">
+      <c r="F30" s="223" t="s">
         <v>75</v>
       </c>
       <c r="G30" s="51"/>
@@ -6032,12 +6032,12 @@
       <c r="BN30" s="73"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="155"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="201"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -6067,8 +6067,8 @@
       <c r="AG31" s="25"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="297"/>
-      <c r="AK31" s="298"/>
+      <c r="AJ31" s="154"/>
+      <c r="AK31" s="155"/>
       <c r="AL31" s="32"/>
       <c r="AM31" s="24"/>
       <c r="AN31" s="25"/>
@@ -6100,18 +6100,18 @@
       <c r="BN31" s="74"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="154">
+      <c r="A32" s="158">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="249" t="s">
+      <c r="C32" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="250"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="254"/>
+      <c r="E32" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="219"/>
+      <c r="F32" s="223"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6174,12 +6174,12 @@
       <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="155"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="251"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6242,18 +6242,18 @@
       <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="154">
+      <c r="A34" s="158">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="159"/>
-      <c r="E34" s="156" t="s">
+      <c r="D34" s="163"/>
+      <c r="E34" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="219"/>
+      <c r="F34" s="223"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6316,12 +6316,12 @@
       <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="155"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="246"/>
-      <c r="F35" s="224"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6384,20 +6384,20 @@
       <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="154">
+      <c r="A36" s="158">
         <v>17</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="166" t="s">
+      <c r="C36" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="167"/>
-      <c r="E36" s="168" t="s">
+      <c r="D36" s="171"/>
+      <c r="E36" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="218"/>
+      <c r="F36" s="222"/>
       <c r="G36" s="38"/>
       <c r="H36" s="65"/>
       <c r="I36" s="65"/>
@@ -6460,12 +6460,12 @@
       <c r="BN36" s="75"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="155"/>
+      <c r="A37" s="159"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="202"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="206"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6509,7 +6509,7 @@
       <c r="AU37" s="25"/>
       <c r="AV37" s="26"/>
       <c r="AW37" s="26"/>
-      <c r="AX37" s="24"/>
+      <c r="AX37" s="32"/>
       <c r="AY37" s="24"/>
       <c r="AZ37" s="24"/>
       <c r="BA37" s="24"/>
@@ -6528,18 +6528,18 @@
       <c r="BN37" s="74"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="154">
+      <c r="A38" s="158">
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="222" t="s">
+      <c r="D38" s="214"/>
+      <c r="E38" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="219" t="s">
+      <c r="F38" s="223" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="51"/>
@@ -6604,12 +6604,12 @@
       <c r="BN38" s="73"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="155"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="202"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="206"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6672,18 +6672,18 @@
       <c r="BN39" s="74"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="154">
+      <c r="A40" s="158">
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="210"/>
-      <c r="E40" s="222" t="s">
+      <c r="D40" s="214"/>
+      <c r="E40" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="219"/>
+      <c r="F40" s="223"/>
       <c r="G40" s="52"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6746,12 +6746,12 @@
       <c r="BN40" s="77"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="155"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="228"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6788,14 +6788,14 @@
       <c r="AN41" s="17"/>
       <c r="AO41" s="23"/>
       <c r="AP41" s="68"/>
-      <c r="AQ41" s="300"/>
-      <c r="AR41" s="300"/>
+      <c r="AQ41" s="157"/>
+      <c r="AR41" s="157"/>
       <c r="AS41" s="68"/>
-      <c r="AT41" s="300"/>
+      <c r="AT41" s="157"/>
       <c r="AU41" s="17"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
-      <c r="AX41" s="68"/>
+      <c r="AX41" s="157"/>
       <c r="AY41" s="68"/>
       <c r="AZ41" s="68"/>
       <c r="BA41" s="68"/>
@@ -6814,20 +6814,20 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="154">
+      <c r="A42" s="158">
         <v>20</v>
       </c>
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="166" t="s">
+      <c r="C42" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="168" t="s">
+      <c r="D42" s="171"/>
+      <c r="E42" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="218" t="s">
+      <c r="F42" s="222" t="s">
         <v>75</v>
       </c>
       <c r="G42" s="38"/>
@@ -6892,12 +6892,12 @@
       <c r="BN42" s="79"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="155"/>
+      <c r="A43" s="159"/>
       <c r="B43" s="115"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="202"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="206"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6960,18 +6960,18 @@
       <c r="BN43" s="80"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="154">
+      <c r="A44" s="158">
         <v>21</v>
       </c>
       <c r="B44" s="115"/>
-      <c r="C44" s="243" t="s">
+      <c r="C44" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="210"/>
-      <c r="E44" s="156" t="s">
+      <c r="D44" s="214"/>
+      <c r="E44" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="219"/>
+      <c r="F44" s="223"/>
       <c r="G44" s="51"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -7034,12 +7034,12 @@
       <c r="BN44" s="80"/>
     </row>
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="155"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="115"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="202"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="206"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7083,10 +7083,10 @@
       <c r="AU45" s="13"/>
       <c r="AV45" s="19"/>
       <c r="AW45" s="19"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="63"/>
-      <c r="AZ45" s="63"/>
-      <c r="BA45" s="63"/>
+      <c r="AX45" s="152"/>
+      <c r="AY45" s="152"/>
+      <c r="AZ45" s="152"/>
+      <c r="BA45" s="152"/>
       <c r="BB45" s="13"/>
       <c r="BC45" s="19"/>
       <c r="BD45" s="63"/>
@@ -7102,18 +7102,18 @@
       <c r="BN45" s="80"/>
     </row>
     <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="154">
+      <c r="A46" s="158">
         <v>22</v>
       </c>
       <c r="B46" s="115"/>
-      <c r="C46" s="162" t="s">
+      <c r="C46" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="156" t="s">
+      <c r="D46" s="167"/>
+      <c r="E46" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="219"/>
+      <c r="F46" s="223"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7176,12 +7176,12 @@
       <c r="BN46" s="80"/>
     </row>
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="155"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="115"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="202"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="206"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7244,18 +7244,18 @@
       <c r="BN47" s="80"/>
     </row>
     <row r="48" spans="1:66" ht="12" customHeight="1">
-      <c r="A48" s="154">
+      <c r="A48" s="158">
         <v>23</v>
       </c>
       <c r="B48" s="115"/>
-      <c r="C48" s="162" t="s">
+      <c r="C48" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="163"/>
-      <c r="E48" s="156" t="s">
+      <c r="D48" s="167"/>
+      <c r="E48" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="219"/>
+      <c r="F48" s="223"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7318,12 +7318,12 @@
       <c r="BN48" s="80"/>
     </row>
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A49" s="155"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="115"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="202"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="206"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7386,18 +7386,18 @@
       <c r="BN49" s="80"/>
     </row>
     <row r="50" spans="1:66" ht="12" customHeight="1">
-      <c r="A50" s="154">
+      <c r="A50" s="158">
         <v>24</v>
       </c>
       <c r="B50" s="115"/>
-      <c r="C50" s="162" t="s">
+      <c r="C50" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="156" t="s">
+      <c r="D50" s="167"/>
+      <c r="E50" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="219"/>
+      <c r="F50" s="223"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7460,12 +7460,12 @@
       <c r="BN50" s="80"/>
     </row>
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A51" s="155"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="115"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="202"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="206"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7528,18 +7528,18 @@
       <c r="BN51" s="80"/>
     </row>
     <row r="52" spans="1:66" ht="12" customHeight="1">
-      <c r="A52" s="154">
+      <c r="A52" s="158">
         <v>25</v>
       </c>
       <c r="B52" s="115"/>
-      <c r="C52" s="162" t="s">
+      <c r="C52" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="163"/>
-      <c r="E52" s="156" t="s">
+      <c r="D52" s="167"/>
+      <c r="E52" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="219"/>
+      <c r="F52" s="223"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7602,12 +7602,12 @@
       <c r="BN52" s="80"/>
     </row>
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="115"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="202"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="206"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7670,18 +7670,18 @@
       <c r="BN53" s="80"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="154">
+      <c r="A54" s="158">
         <v>26</v>
       </c>
       <c r="B54" s="115"/>
-      <c r="C54" s="162" t="s">
+      <c r="C54" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="163"/>
-      <c r="E54" s="156" t="s">
+      <c r="D54" s="167"/>
+      <c r="E54" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="219"/>
+      <c r="F54" s="223"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7744,12 +7744,12 @@
       <c r="BN54" s="80"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A55" s="155"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="115"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="202"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="206"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7812,18 +7812,18 @@
       <c r="BN55" s="80"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="154">
+      <c r="A56" s="158">
         <v>27</v>
       </c>
       <c r="B56" s="115"/>
-      <c r="C56" s="162" t="s">
+      <c r="C56" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="163"/>
-      <c r="E56" s="156" t="s">
+      <c r="D56" s="167"/>
+      <c r="E56" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="225"/>
+      <c r="F56" s="229"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7886,12 +7886,12 @@
       <c r="BN56" s="80"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="155"/>
+      <c r="A57" s="159"/>
       <c r="B57" s="115"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="226"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="230"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7954,18 +7954,18 @@
       <c r="BN57" s="80"/>
     </row>
     <row r="58" spans="1:66" ht="12" customHeight="1">
-      <c r="A58" s="154">
+      <c r="A58" s="158">
         <v>28</v>
       </c>
       <c r="B58" s="115"/>
-      <c r="C58" s="158" t="s">
+      <c r="C58" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="159"/>
-      <c r="E58" s="156" t="s">
+      <c r="D58" s="163"/>
+      <c r="E58" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="219"/>
+      <c r="F58" s="223"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8028,12 +8028,12 @@
       <c r="BN58" s="80"/>
     </row>
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="155"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="115"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="246"/>
-      <c r="F59" s="224"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="228"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8096,20 +8096,20 @@
       <c r="BN59" s="78"/>
     </row>
     <row r="60" spans="1:66" ht="12" customHeight="1">
-      <c r="A60" s="154">
+      <c r="A60" s="158">
         <v>29</v>
       </c>
       <c r="B60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="243" t="s">
+      <c r="C60" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="210"/>
-      <c r="E60" s="168" t="s">
+      <c r="D60" s="214"/>
+      <c r="E60" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="218"/>
+      <c r="F60" s="222"/>
       <c r="G60" s="38"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -8172,12 +8172,12 @@
       <c r="BN60" s="79"/>
     </row>
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="155"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="202"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="206"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8240,18 +8240,18 @@
       <c r="BN61" s="134"/>
     </row>
     <row r="62" spans="1:66" ht="12" customHeight="1">
-      <c r="A62" s="154">
+      <c r="A62" s="158">
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="162" t="s">
+      <c r="C62" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="163"/>
-      <c r="E62" s="244" t="s">
+      <c r="D62" s="167"/>
+      <c r="E62" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="201"/>
+      <c r="F62" s="205"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8314,12 +8314,12 @@
       <c r="BN62" s="80"/>
     </row>
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A63" s="155"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="202"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="206"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8382,18 +8382,18 @@
       <c r="BN63" s="134"/>
     </row>
     <row r="64" spans="1:66" ht="12" customHeight="1">
-      <c r="A64" s="154">
+      <c r="A64" s="158">
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="162" t="s">
+      <c r="C64" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="163"/>
-      <c r="E64" s="244" t="s">
+      <c r="D64" s="167"/>
+      <c r="E64" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="201"/>
+      <c r="F64" s="205"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8456,12 +8456,12 @@
       <c r="BN64" s="80"/>
     </row>
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A65" s="155"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="202"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="173"/>
+      <c r="F65" s="206"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8524,18 +8524,18 @@
       <c r="BN65" s="134"/>
     </row>
     <row r="66" spans="1:66" ht="12" customHeight="1">
-      <c r="A66" s="154">
+      <c r="A66" s="158">
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="162" t="s">
+      <c r="C66" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="163"/>
-      <c r="E66" s="244" t="s">
+      <c r="D66" s="167"/>
+      <c r="E66" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="201"/>
+      <c r="F66" s="205"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8598,12 +8598,12 @@
       <c r="BN66" s="80"/>
     </row>
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A67" s="155"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="202"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="173"/>
+      <c r="F67" s="206"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8666,18 +8666,18 @@
       <c r="BN67" s="134"/>
     </row>
     <row r="68" spans="1:66" ht="12" customHeight="1">
-      <c r="A68" s="154">
+      <c r="A68" s="158">
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="162" t="s">
+      <c r="C68" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="163"/>
-      <c r="E68" s="244" t="s">
+      <c r="D68" s="167"/>
+      <c r="E68" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="201"/>
+      <c r="F68" s="205"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8740,12 +8740,12 @@
       <c r="BN68" s="80"/>
     </row>
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A69" s="155"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="202"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="169"/>
+      <c r="E69" s="173"/>
+      <c r="F69" s="206"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8808,18 +8808,18 @@
       <c r="BN69" s="134"/>
     </row>
     <row r="70" spans="1:66" ht="12" customHeight="1">
-      <c r="A70" s="154">
+      <c r="A70" s="158">
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="162" t="s">
+      <c r="C70" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="163"/>
-      <c r="E70" s="244" t="s">
+      <c r="D70" s="167"/>
+      <c r="E70" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="201"/>
+      <c r="F70" s="205"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8882,12 +8882,12 @@
       <c r="BN70" s="80"/>
     </row>
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A71" s="155"/>
+      <c r="A71" s="159"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="202"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="169"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="206"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8950,18 +8950,18 @@
       <c r="BN71" s="134"/>
     </row>
     <row r="72" spans="1:66" ht="12" customHeight="1">
-      <c r="A72" s="154">
+      <c r="A72" s="158">
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="162" t="s">
+      <c r="C72" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="163"/>
-      <c r="E72" s="244" t="s">
+      <c r="D72" s="167"/>
+      <c r="E72" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="201"/>
+      <c r="F72" s="205"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -9024,12 +9024,12 @@
       <c r="BN72" s="80"/>
     </row>
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A73" s="155"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="202"/>
+      <c r="C73" s="168"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="173"/>
+      <c r="F73" s="206"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -9092,18 +9092,18 @@
       <c r="BN73" s="134"/>
     </row>
     <row r="74" spans="1:66" ht="12" customHeight="1">
-      <c r="A74" s="154">
+      <c r="A74" s="158">
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="158" t="s">
+      <c r="C74" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="159"/>
-      <c r="E74" s="244" t="s">
+      <c r="D74" s="163"/>
+      <c r="E74" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="201"/>
+      <c r="F74" s="205"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9166,12 +9166,12 @@
       <c r="BN74" s="110"/>
     </row>
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A75" s="155"/>
+      <c r="A75" s="159"/>
       <c r="B75" s="113"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="223"/>
-      <c r="F75" s="224"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="228"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9234,20 +9234,20 @@
       <c r="BN75" s="78"/>
     </row>
     <row r="76" spans="1:66" ht="12" customHeight="1">
-      <c r="A76" s="154">
+      <c r="A76" s="158">
         <v>37</v>
       </c>
-      <c r="B76" s="227" t="s">
+      <c r="B76" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="235" t="s">
+      <c r="C76" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="236"/>
-      <c r="E76" s="231" t="s">
+      <c r="D76" s="240"/>
+      <c r="E76" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="240"/>
+      <c r="F76" s="244"/>
       <c r="G76" s="38"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -9310,12 +9310,12 @@
       <c r="BN76" s="79"/>
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A77" s="155"/>
-      <c r="B77" s="242"/>
-      <c r="C77" s="237"/>
-      <c r="D77" s="238"/>
-      <c r="E77" s="239"/>
-      <c r="F77" s="241"/>
+      <c r="A77" s="159"/>
+      <c r="B77" s="246"/>
+      <c r="C77" s="241"/>
+      <c r="D77" s="242"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="245"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9378,20 +9378,20 @@
       <c r="BN77" s="80"/>
     </row>
     <row r="78" spans="1:66" ht="12" customHeight="1">
-      <c r="A78" s="154">
+      <c r="A78" s="158">
         <v>38</v>
       </c>
-      <c r="B78" s="227" t="s">
+      <c r="B78" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="166" t="s">
+      <c r="C78" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="167"/>
-      <c r="E78" s="231" t="s">
+      <c r="D78" s="171"/>
+      <c r="E78" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="233"/>
+      <c r="F78" s="237"/>
       <c r="G78" s="38"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -9454,12 +9454,12 @@
       <c r="BN78" s="109"/>
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A79" s="155"/>
-      <c r="B79" s="228"/>
-      <c r="C79" s="229"/>
-      <c r="D79" s="230"/>
-      <c r="E79" s="232"/>
-      <c r="F79" s="234"/>
+      <c r="A79" s="159"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="233"/>
+      <c r="D79" s="234"/>
+      <c r="E79" s="236"/>
+      <c r="F79" s="238"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9755,54 +9755,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="190" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="177"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="181"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="194"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9877,12 +9877,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="195"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9957,20 +9957,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="154">
+      <c r="A4" s="158">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="288" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="285"/>
-      <c r="E4" s="286" t="s">
+      <c r="D4" s="289"/>
+      <c r="E4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="288"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -9993,20 +9993,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="290" t="s">
+      <c r="AC4" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="277" t="s">
+      <c r="AD4" s="281" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="155"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="289"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="293"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10029,22 +10029,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="278"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="282"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="254">
+      <c r="A6" s="258">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="280" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="284" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="282"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10067,16 +10067,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="291"/>
-      <c r="AD6" s="278"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="282"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="283"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10099,24 +10099,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="291"/>
-      <c r="AD7" s="278"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="282"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="262">
+      <c r="A8" s="266">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="293" t="s">
+      <c r="C8" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="294" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="272"/>
+      <c r="F8" s="276"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10139,16 +10139,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="291"/>
-      <c r="AD8" s="278"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="282"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="263"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="272"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10171,24 +10171,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="278"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="282"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="275">
+      <c r="A10" s="279">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="245" t="s">
+      <c r="C10" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="273" t="s">
+      <c r="D10" s="201"/>
+      <c r="E10" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="274"/>
+      <c r="F10" s="278"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10211,16 +10211,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="291"/>
-      <c r="AD10" s="278"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="282"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="263"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="267"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="271"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10243,22 +10243,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="291"/>
-      <c r="AD11" s="278"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="282"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="262">
+      <c r="A12" s="266">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="210"/>
-      <c r="E12" s="276" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="280" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="266"/>
+      <c r="F12" s="270"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10281,16 +10281,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="291"/>
-      <c r="AD12" s="278"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="282"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="275"/>
+      <c r="A13" s="279"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="274"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="278"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10313,24 +10313,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="291"/>
-      <c r="AD13" s="278"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="282"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="269">
+      <c r="A14" s="273">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="271" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="272"/>
+      <c r="F14" s="276"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10353,16 +10353,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="291"/>
-      <c r="AD14" s="278"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="282"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="269"/>
+      <c r="A15" s="273"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="267"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="271"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10385,22 +10385,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="291"/>
-      <c r="AD15" s="278"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="282"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="269">
+      <c r="A16" s="273">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="264" t="s">
+      <c r="D16" s="214"/>
+      <c r="E16" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="266"/>
+      <c r="F16" s="270"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10423,16 +10423,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="291"/>
-      <c r="AD16" s="278"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="282"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="269"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="267"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="271"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10455,22 +10455,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="291"/>
-      <c r="AD17" s="278"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="282"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="269">
+      <c r="A18" s="273">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="264" t="s">
+      <c r="D18" s="214"/>
+      <c r="E18" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="266"/>
+      <c r="F18" s="270"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10493,16 +10493,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="291"/>
-      <c r="AD18" s="278"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="282"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="269"/>
+      <c r="A19" s="273"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="268"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="272"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10525,24 +10525,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="291"/>
-      <c r="AD19" s="278"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="282"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="262">
+      <c r="A20" s="266">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="271" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="272"/>
+      <c r="F20" s="276"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10565,18 +10565,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="291"/>
-      <c r="AD20" s="278"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="282"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="263"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="267"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="271"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10599,22 +10599,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="291"/>
-      <c r="AD21" s="278"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="282"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="262">
+      <c r="A22" s="266">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="243" t="s">
+      <c r="C22" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="264" t="s">
+      <c r="D22" s="214"/>
+      <c r="E22" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="266"/>
+      <c r="F22" s="270"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10637,16 +10637,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="291"/>
-      <c r="AD22" s="278"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="282"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="263"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="267"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="271"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10669,22 +10669,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="291"/>
-      <c r="AD23" s="278"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="282"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="262">
+      <c r="A24" s="266">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="243" t="s">
+      <c r="C24" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="264" t="s">
+      <c r="D24" s="214"/>
+      <c r="E24" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="266"/>
+      <c r="F24" s="270"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10707,16 +10707,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="291"/>
-      <c r="AD24" s="278"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="282"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="263"/>
+      <c r="A25" s="267"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="265"/>
-      <c r="F25" s="268"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="272"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10739,24 +10739,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="291"/>
-      <c r="AD25" s="278"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="282"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="254">
+      <c r="A26" s="258">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="235" t="s">
+      <c r="C26" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="236"/>
-      <c r="E26" s="255" t="s">
+      <c r="D26" s="240"/>
+      <c r="E26" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="257"/>
+      <c r="F26" s="261"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10779,16 +10779,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="291"/>
-      <c r="AD26" s="278"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="282"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="155"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="258"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10811,24 +10811,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="291"/>
-      <c r="AD27" s="278"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="282"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="254">
+      <c r="A28" s="258">
         <v>14</v>
       </c>
-      <c r="B28" s="227" t="s">
+      <c r="B28" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="166" t="s">
+      <c r="C28" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="227" t="s">
+      <c r="D28" s="171"/>
+      <c r="E28" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="260"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10851,16 +10851,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="291"/>
-      <c r="AD28" s="278"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="282"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="259"/>
-      <c r="B29" s="228"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="261"/>
+      <c r="A29" s="263"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="265"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10883,8 +10883,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="279"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="283"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB20B3F-56FB-42C5-A1A1-FEB4554854EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC46DF-69A5-42D1-A2AD-1CE80EB1344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -750,10 +750,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>90%</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能一覧
 （ログイン、会員登録、会員退会）</t>
     <rPh sb="0" eb="4">
@@ -782,6 +778,10 @@
     <rPh sb="14" eb="18">
       <t>コウニュウリレキ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>100%</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1946,7 +1946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2409,29 +2409,122 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2439,10 +2532,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2451,11 +2550,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2535,183 +2712,114 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2732,111 +2840,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3548,8 +3551,8 @@
   </sheetPr>
   <dimension ref="A1:BN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD45" sqref="BD45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3566,94 +3569,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="248"/>
+      <c r="E1" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="F1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="179">
+      <c r="G1" s="238">
         <v>45536</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="180"/>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="180"/>
-      <c r="AJ1" s="181"/>
-      <c r="AK1" s="179">
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="239"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="239"/>
+      <c r="AJ1" s="240"/>
+      <c r="AK1" s="238">
         <v>45566</v>
       </c>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="180"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="180"/>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="180"/>
-      <c r="AT1" s="180"/>
-      <c r="AU1" s="180"/>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
-      <c r="AX1" s="180"/>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
-      <c r="BB1" s="180"/>
-      <c r="BC1" s="180"/>
-      <c r="BD1" s="180"/>
-      <c r="BE1" s="180"/>
-      <c r="BF1" s="180"/>
-      <c r="BG1" s="180"/>
-      <c r="BH1" s="180"/>
-      <c r="BI1" s="180"/>
-      <c r="BJ1" s="180"/>
-      <c r="BK1" s="180"/>
-      <c r="BL1" s="180"/>
-      <c r="BM1" s="180"/>
-      <c r="BN1" s="181"/>
+      <c r="AL1" s="239"/>
+      <c r="AM1" s="239"/>
+      <c r="AN1" s="239"/>
+      <c r="AO1" s="239"/>
+      <c r="AP1" s="239"/>
+      <c r="AQ1" s="239"/>
+      <c r="AR1" s="239"/>
+      <c r="AS1" s="239"/>
+      <c r="AT1" s="239"/>
+      <c r="AU1" s="239"/>
+      <c r="AV1" s="239"/>
+      <c r="AW1" s="239"/>
+      <c r="AX1" s="239"/>
+      <c r="AY1" s="239"/>
+      <c r="AZ1" s="239"/>
+      <c r="BA1" s="239"/>
+      <c r="BB1" s="239"/>
+      <c r="BC1" s="239"/>
+      <c r="BD1" s="239"/>
+      <c r="BE1" s="239"/>
+      <c r="BF1" s="239"/>
+      <c r="BG1" s="239"/>
+      <c r="BH1" s="239"/>
+      <c r="BI1" s="239"/>
+      <c r="BJ1" s="239"/>
+      <c r="BK1" s="239"/>
+      <c r="BL1" s="239"/>
+      <c r="BM1" s="239"/>
+      <c r="BN1" s="240"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="198"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="257"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3895,12 +3898,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="199"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="258"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4083,20 +4086,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="158">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="175" t="s">
+      <c r="D4" s="198"/>
+      <c r="E4" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="236" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="102"/>
@@ -4161,12 +4164,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="178"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="237"/>
       <c r="G5" s="104"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4229,18 +4232,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="158">
+      <c r="A6" s="159">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="217" t="s">
+      <c r="D6" s="194"/>
+      <c r="E6" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="219" t="s">
+      <c r="F6" s="231" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
@@ -4305,12 +4308,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="52"/>
       <c r="H7" s="122"/>
       <c r="I7" s="32"/>
@@ -4373,21 +4376,21 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="158">
+      <c r="A8" s="159">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="207" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="221" t="s">
+      <c r="C8" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="189"/>
+      <c r="E8" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="222" t="s">
-        <v>72</v>
+      <c r="F8" s="187" t="s">
+        <v>56</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
@@ -4451,12 +4454,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="159"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="50"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -4519,18 +4522,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="158">
+      <c r="A10" s="159">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="160" t="s">
+      <c r="D10" s="175"/>
+      <c r="E10" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="170" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="50"/>
@@ -4595,12 +4598,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="206"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4663,18 +4666,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="158">
+      <c r="A12" s="159">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="201"/>
-      <c r="E12" s="204" t="s">
+      <c r="D12" s="179"/>
+      <c r="E12" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="205" t="s">
+      <c r="F12" s="172" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="50"/>
@@ -4739,12 +4742,12 @@
       <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="159"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="206"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="50"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -4807,18 +4810,18 @@
       <c r="BN13" s="72"/>
     </row>
     <row r="14" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A14" s="158">
+      <c r="A14" s="159">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="200" t="s">
+      <c r="C14" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="201"/>
-      <c r="E14" s="204" t="s">
+      <c r="D14" s="179"/>
+      <c r="E14" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="205" t="s">
+      <c r="F14" s="172" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="50"/>
@@ -4883,12 +4886,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="159"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="206"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4951,18 +4954,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A16" s="158">
+      <c r="A16" s="159">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="160" t="s">
+      <c r="D16" s="226"/>
+      <c r="E16" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="223" t="s">
+      <c r="F16" s="170" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="51"/>
@@ -5027,11 +5030,11 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="159"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="206"/>
+      <c r="A17" s="160"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="95"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5094,18 +5097,18 @@
       <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A18" s="158">
+      <c r="A18" s="159">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="225"/>
-      <c r="E18" s="160" t="s">
+      <c r="D18" s="175"/>
+      <c r="E18" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="223" t="s">
+      <c r="F18" s="170" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="101"/>
@@ -5170,12 +5173,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="159"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="206"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="51"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5238,18 +5241,18 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A20" s="158">
+      <c r="A20" s="159">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="200" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="204" t="s">
+      <c r="C20" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="179"/>
+      <c r="E20" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="205" t="s">
+      <c r="F20" s="172" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="51"/>
@@ -5314,12 +5317,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="159"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="206"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="50"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -5382,18 +5385,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A22" s="158">
+      <c r="A22" s="159">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="204" t="s">
+      <c r="D22" s="179"/>
+      <c r="E22" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="205" t="s">
+      <c r="F22" s="172" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="51"/>
@@ -5458,12 +5461,12 @@
       <c r="BN22" s="73"/>
     </row>
     <row r="23" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="159"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="228"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="53"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
@@ -5526,20 +5529,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="158">
+      <c r="A24" s="159">
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="208"/>
-      <c r="E24" s="221" t="s">
+      <c r="D24" s="189"/>
+      <c r="E24" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="222"/>
+      <c r="F24" s="187"/>
       <c r="G24" s="50"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -5602,12 +5605,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A25" s="159"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="205"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="172"/>
       <c r="G25" s="50"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5670,18 +5673,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="158">
+      <c r="A26" s="159">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="225"/>
-      <c r="E26" s="160" t="s">
+      <c r="D26" s="175"/>
+      <c r="E26" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="223"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="50"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5744,12 +5747,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="205"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="172"/>
       <c r="G27" s="50"/>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
@@ -5812,19 +5815,19 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="158">
+      <c r="A28" s="159">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="225"/>
-      <c r="E28" s="160" t="s">
+      <c r="D28" s="175"/>
+      <c r="E28" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="223" t="s">
-        <v>75</v>
+      <c r="F28" s="170" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="62"/>
@@ -5888,12 +5891,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="159"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="206"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="171"/>
       <c r="G29" s="50"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -5956,19 +5959,19 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="158">
+      <c r="A30" s="159">
         <v>14</v>
       </c>
       <c r="B30" s="115"/>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="163"/>
-      <c r="E30" s="160" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="223" t="s">
-        <v>75</v>
+      <c r="F30" s="170" t="s">
+        <v>74</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="63"/>
@@ -6032,12 +6035,12 @@
       <c r="BN30" s="73"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="159"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="251"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="172"/>
       <c r="G31" s="52"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
@@ -6100,18 +6103,18 @@
       <c r="BN31" s="74"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="158">
+      <c r="A32" s="159">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="253" t="s">
+      <c r="C32" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="254"/>
-      <c r="E32" s="160" t="s">
+      <c r="D32" s="166"/>
+      <c r="E32" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="223"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="52"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -6174,12 +6177,12 @@
       <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="159"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="205"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="172"/>
       <c r="G33" s="52"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
@@ -6242,18 +6245,18 @@
       <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="158">
+      <c r="A34" s="159">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="162" t="s">
+      <c r="C34" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="163"/>
-      <c r="E34" s="160" t="s">
+      <c r="D34" s="162"/>
+      <c r="E34" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="223"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="52"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
@@ -6316,12 +6319,12 @@
       <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="159"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="228"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="173"/>
       <c r="G35" s="52"/>
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
@@ -6384,20 +6387,22 @@
       <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="158">
+      <c r="A36" s="159">
         <v>17</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172" t="s">
+      <c r="D36" s="204"/>
+      <c r="E36" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="222"/>
+      <c r="F36" s="187" t="s">
+        <v>75</v>
+      </c>
       <c r="G36" s="38"/>
       <c r="H36" s="65"/>
       <c r="I36" s="65"/>
@@ -6460,12 +6465,12 @@
       <c r="BN36" s="75"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="159"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="206"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="171"/>
       <c r="G37" s="52"/>
       <c r="H37" s="64"/>
       <c r="I37" s="64"/>
@@ -6528,19 +6533,19 @@
       <c r="BN37" s="74"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="158">
+      <c r="A38" s="159">
         <v>18</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="226" t="s">
+      <c r="D38" s="194"/>
+      <c r="E38" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="223" t="s">
-        <v>75</v>
+      <c r="F38" s="170" t="s">
+        <v>74</v>
       </c>
       <c r="G38" s="51"/>
       <c r="H38" s="7"/>
@@ -6604,12 +6609,12 @@
       <c r="BN38" s="73"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="159"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="206"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="171"/>
       <c r="G39" s="52"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6672,18 +6677,20 @@
       <c r="BN39" s="74"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="158">
+      <c r="A40" s="159">
         <v>19</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="214"/>
-      <c r="E40" s="226" t="s">
+      <c r="D40" s="194"/>
+      <c r="E40" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="223"/>
+      <c r="F40" s="170" t="s">
+        <v>75</v>
+      </c>
       <c r="G40" s="52"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6746,12 +6753,12 @@
       <c r="BN40" s="77"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="159"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="215"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="228"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="173"/>
       <c r="G41" s="54"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6814,21 +6821,21 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="158">
+      <c r="A42" s="159">
         <v>20</v>
       </c>
       <c r="B42" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="170" t="s">
+      <c r="C42" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="171"/>
-      <c r="E42" s="172" t="s">
+      <c r="D42" s="204"/>
+      <c r="E42" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="222" t="s">
-        <v>75</v>
+      <c r="F42" s="187" t="s">
+        <v>74</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
@@ -6892,12 +6899,12 @@
       <c r="BN42" s="79"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="159"/>
+      <c r="A43" s="160"/>
       <c r="B43" s="115"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="206"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6960,18 +6967,20 @@
       <c r="BN43" s="80"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="158">
+      <c r="A44" s="159">
         <v>21</v>
       </c>
       <c r="B44" s="115"/>
-      <c r="C44" s="247" t="s">
+      <c r="C44" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="160" t="s">
+      <c r="D44" s="194"/>
+      <c r="E44" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="223"/>
+      <c r="F44" s="170" t="s">
+        <v>75</v>
+      </c>
       <c r="G44" s="51"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -7034,12 +7043,12 @@
       <c r="BN44" s="80"/>
     </row>
     <row r="45" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="159"/>
+      <c r="A45" s="160"/>
       <c r="B45" s="115"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="206"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="51"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -7090,8 +7099,8 @@
       <c r="BB45" s="13"/>
       <c r="BC45" s="19"/>
       <c r="BD45" s="63"/>
-      <c r="BE45" s="63"/>
-      <c r="BF45" s="63"/>
+      <c r="BE45" s="152"/>
+      <c r="BF45" s="152"/>
       <c r="BG45" s="63"/>
       <c r="BH45" s="63"/>
       <c r="BI45" s="13"/>
@@ -7102,18 +7111,18 @@
       <c r="BN45" s="80"/>
     </row>
     <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="158">
+      <c r="A46" s="159">
         <v>22</v>
       </c>
       <c r="B46" s="115"/>
-      <c r="C46" s="166" t="s">
+      <c r="C46" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="167"/>
-      <c r="E46" s="160" t="s">
+      <c r="D46" s="198"/>
+      <c r="E46" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="223"/>
+      <c r="F46" s="170"/>
       <c r="G46" s="51"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7176,12 +7185,12 @@
       <c r="BN46" s="80"/>
     </row>
     <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="159"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="115"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="206"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="171"/>
       <c r="G47" s="51"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7244,18 +7253,18 @@
       <c r="BN47" s="80"/>
     </row>
     <row r="48" spans="1:66" ht="12" customHeight="1">
-      <c r="A48" s="158">
+      <c r="A48" s="159">
         <v>23</v>
       </c>
       <c r="B48" s="115"/>
-      <c r="C48" s="166" t="s">
+      <c r="C48" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="167"/>
-      <c r="E48" s="160" t="s">
+      <c r="D48" s="198"/>
+      <c r="E48" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="223"/>
+      <c r="F48" s="170"/>
       <c r="G48" s="51"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -7318,12 +7327,12 @@
       <c r="BN48" s="80"/>
     </row>
     <row r="49" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A49" s="159"/>
+      <c r="A49" s="160"/>
       <c r="B49" s="115"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="206"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="171"/>
       <c r="G49" s="51"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -7386,18 +7395,18 @@
       <c r="BN49" s="80"/>
     </row>
     <row r="50" spans="1:66" ht="12" customHeight="1">
-      <c r="A50" s="158">
+      <c r="A50" s="159">
         <v>24</v>
       </c>
       <c r="B50" s="115"/>
-      <c r="C50" s="166" t="s">
+      <c r="C50" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="167"/>
-      <c r="E50" s="160" t="s">
+      <c r="D50" s="198"/>
+      <c r="E50" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="223"/>
+      <c r="F50" s="170"/>
       <c r="G50" s="51"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7460,12 +7469,12 @@
       <c r="BN50" s="80"/>
     </row>
     <row r="51" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A51" s="159"/>
+      <c r="A51" s="160"/>
       <c r="B51" s="115"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="206"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="171"/>
       <c r="G51" s="51"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -7528,18 +7537,18 @@
       <c r="BN51" s="80"/>
     </row>
     <row r="52" spans="1:66" ht="12" customHeight="1">
-      <c r="A52" s="158">
+      <c r="A52" s="159">
         <v>25</v>
       </c>
       <c r="B52" s="115"/>
-      <c r="C52" s="166" t="s">
+      <c r="C52" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="167"/>
-      <c r="E52" s="160" t="s">
+      <c r="D52" s="198"/>
+      <c r="E52" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="223"/>
+      <c r="F52" s="170"/>
       <c r="G52" s="51"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -7602,12 +7611,12 @@
       <c r="BN52" s="80"/>
     </row>
     <row r="53" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A53" s="159"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="115"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="206"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="171"/>
       <c r="G53" s="51"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -7670,18 +7679,18 @@
       <c r="BN53" s="80"/>
     </row>
     <row r="54" spans="1:66" ht="12" customHeight="1">
-      <c r="A54" s="158">
+      <c r="A54" s="159">
         <v>26</v>
       </c>
       <c r="B54" s="115"/>
-      <c r="C54" s="166" t="s">
+      <c r="C54" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="167"/>
-      <c r="E54" s="160" t="s">
+      <c r="D54" s="198"/>
+      <c r="E54" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="223"/>
+      <c r="F54" s="170"/>
       <c r="G54" s="51"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7744,12 +7753,12 @@
       <c r="BN54" s="80"/>
     </row>
     <row r="55" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A55" s="159"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="115"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="206"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="196"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="171"/>
       <c r="G55" s="51"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -7812,18 +7821,18 @@
       <c r="BN55" s="80"/>
     </row>
     <row r="56" spans="1:66" ht="12" customHeight="1">
-      <c r="A56" s="158">
+      <c r="A56" s="159">
         <v>27</v>
       </c>
       <c r="B56" s="115"/>
-      <c r="C56" s="166" t="s">
+      <c r="C56" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="167"/>
-      <c r="E56" s="160" t="s">
+      <c r="D56" s="198"/>
+      <c r="E56" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="229"/>
+      <c r="F56" s="219"/>
       <c r="G56" s="51"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -7886,12 +7895,12 @@
       <c r="BN56" s="80"/>
     </row>
     <row r="57" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="159"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="115"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="230"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="220"/>
       <c r="G57" s="51"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -7954,18 +7963,18 @@
       <c r="BN57" s="80"/>
     </row>
     <row r="58" spans="1:66" ht="12" customHeight="1">
-      <c r="A58" s="158">
+      <c r="A58" s="159">
         <v>28</v>
       </c>
       <c r="B58" s="115"/>
-      <c r="C58" s="162" t="s">
+      <c r="C58" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="163"/>
-      <c r="E58" s="160" t="s">
+      <c r="D58" s="162"/>
+      <c r="E58" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="223"/>
+      <c r="F58" s="170"/>
       <c r="G58" s="51"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8028,12 +8037,12 @@
       <c r="BN58" s="80"/>
     </row>
     <row r="59" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="159"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="115"/>
-      <c r="C59" s="164"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="228"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="173"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -8096,20 +8105,22 @@
       <c r="BN59" s="78"/>
     </row>
     <row r="60" spans="1:66" ht="12" customHeight="1">
-      <c r="A60" s="158">
+      <c r="A60" s="159">
         <v>29</v>
       </c>
       <c r="B60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="247" t="s">
+      <c r="C60" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="214"/>
-      <c r="E60" s="172" t="s">
+      <c r="D60" s="194"/>
+      <c r="E60" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="222"/>
+      <c r="F60" s="187" t="s">
+        <v>75</v>
+      </c>
       <c r="G60" s="38"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -8172,12 +8183,12 @@
       <c r="BN60" s="79"/>
     </row>
     <row r="61" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="159"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="36"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="206"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="171"/>
       <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8227,8 +8238,8 @@
       <c r="BA61" s="62"/>
       <c r="BB61" s="16"/>
       <c r="BC61" s="22"/>
-      <c r="BD61" s="120"/>
-      <c r="BE61" s="120"/>
+      <c r="BD61" s="31"/>
+      <c r="BE61" s="31"/>
       <c r="BF61" s="120"/>
       <c r="BG61" s="120"/>
       <c r="BH61" s="120"/>
@@ -8240,18 +8251,18 @@
       <c r="BN61" s="134"/>
     </row>
     <row r="62" spans="1:66" ht="12" customHeight="1">
-      <c r="A62" s="158">
+      <c r="A62" s="159">
         <v>30</v>
       </c>
       <c r="B62" s="36"/>
-      <c r="C62" s="166" t="s">
+      <c r="C62" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="167"/>
-      <c r="E62" s="248" t="s">
+      <c r="D62" s="198"/>
+      <c r="E62" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="205"/>
+      <c r="F62" s="172"/>
       <c r="G62" s="51"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -8314,12 +8325,12 @@
       <c r="BN62" s="80"/>
     </row>
     <row r="63" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A63" s="159"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="173"/>
-      <c r="F63" s="206"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="192"/>
+      <c r="F63" s="171"/>
       <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8382,18 +8393,18 @@
       <c r="BN63" s="134"/>
     </row>
     <row r="64" spans="1:66" ht="12" customHeight="1">
-      <c r="A64" s="158">
+      <c r="A64" s="159">
         <v>31</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="166" t="s">
+      <c r="C64" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="167"/>
-      <c r="E64" s="248" t="s">
+      <c r="D64" s="198"/>
+      <c r="E64" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="205"/>
+      <c r="F64" s="172"/>
       <c r="G64" s="51"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -8456,12 +8467,12 @@
       <c r="BN64" s="80"/>
     </row>
     <row r="65" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A65" s="159"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="36"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="169"/>
-      <c r="E65" s="173"/>
-      <c r="F65" s="206"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="171"/>
       <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8524,18 +8535,18 @@
       <c r="BN65" s="134"/>
     </row>
     <row r="66" spans="1:66" ht="12" customHeight="1">
-      <c r="A66" s="158">
+      <c r="A66" s="159">
         <v>32</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="166" t="s">
+      <c r="C66" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="167"/>
-      <c r="E66" s="248" t="s">
+      <c r="D66" s="198"/>
+      <c r="E66" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="205"/>
+      <c r="F66" s="172"/>
       <c r="G66" s="51"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -8598,12 +8609,12 @@
       <c r="BN66" s="80"/>
     </row>
     <row r="67" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A67" s="159"/>
+      <c r="A67" s="160"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="173"/>
-      <c r="F67" s="206"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="192"/>
+      <c r="F67" s="171"/>
       <c r="G67" s="50"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8666,18 +8677,18 @@
       <c r="BN67" s="134"/>
     </row>
     <row r="68" spans="1:66" ht="12" customHeight="1">
-      <c r="A68" s="158">
+      <c r="A68" s="159">
         <v>33</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="166" t="s">
+      <c r="C68" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="167"/>
-      <c r="E68" s="248" t="s">
+      <c r="D68" s="198"/>
+      <c r="E68" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="205"/>
+      <c r="F68" s="172"/>
       <c r="G68" s="51"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -8740,12 +8751,12 @@
       <c r="BN68" s="80"/>
     </row>
     <row r="69" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A69" s="159"/>
+      <c r="A69" s="160"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="173"/>
-      <c r="F69" s="206"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="196"/>
+      <c r="E69" s="192"/>
+      <c r="F69" s="171"/>
       <c r="G69" s="50"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8808,18 +8819,18 @@
       <c r="BN69" s="134"/>
     </row>
     <row r="70" spans="1:66" ht="12" customHeight="1">
-      <c r="A70" s="158">
+      <c r="A70" s="159">
         <v>34</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="166" t="s">
+      <c r="C70" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="167"/>
-      <c r="E70" s="248" t="s">
+      <c r="D70" s="198"/>
+      <c r="E70" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="205"/>
+      <c r="F70" s="172"/>
       <c r="G70" s="51"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -8882,12 +8893,12 @@
       <c r="BN70" s="80"/>
     </row>
     <row r="71" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A71" s="159"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="169"/>
-      <c r="E71" s="173"/>
-      <c r="F71" s="206"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="196"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="171"/>
       <c r="G71" s="50"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8950,18 +8961,18 @@
       <c r="BN71" s="134"/>
     </row>
     <row r="72" spans="1:66" ht="12" customHeight="1">
-      <c r="A72" s="158">
+      <c r="A72" s="159">
         <v>35</v>
       </c>
       <c r="B72" s="36"/>
-      <c r="C72" s="166" t="s">
+      <c r="C72" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="167"/>
-      <c r="E72" s="248" t="s">
+      <c r="D72" s="198"/>
+      <c r="E72" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="205"/>
+      <c r="F72" s="172"/>
       <c r="G72" s="51"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -9024,12 +9035,12 @@
       <c r="BN72" s="80"/>
     </row>
     <row r="73" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A73" s="159"/>
+      <c r="A73" s="160"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="168"/>
-      <c r="D73" s="169"/>
-      <c r="E73" s="173"/>
-      <c r="F73" s="206"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="196"/>
+      <c r="E73" s="192"/>
+      <c r="F73" s="171"/>
       <c r="G73" s="50"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -9092,18 +9103,18 @@
       <c r="BN73" s="134"/>
     </row>
     <row r="74" spans="1:66" ht="12" customHeight="1">
-      <c r="A74" s="158">
+      <c r="A74" s="159">
         <v>36</v>
       </c>
       <c r="B74" s="36"/>
-      <c r="C74" s="162" t="s">
+      <c r="C74" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="163"/>
-      <c r="E74" s="248" t="s">
+      <c r="D74" s="162"/>
+      <c r="E74" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="205"/>
+      <c r="F74" s="172"/>
       <c r="G74" s="95"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -9166,12 +9177,12 @@
       <c r="BN74" s="110"/>
     </row>
     <row r="75" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A75" s="159"/>
+      <c r="A75" s="160"/>
       <c r="B75" s="113"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="227"/>
-      <c r="F75" s="228"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="199"/>
+      <c r="F75" s="173"/>
       <c r="G75" s="54"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -9234,20 +9245,22 @@
       <c r="BN75" s="78"/>
     </row>
     <row r="76" spans="1:66" ht="12" customHeight="1">
-      <c r="A76" s="158">
+      <c r="A76" s="159">
         <v>37</v>
       </c>
-      <c r="B76" s="231" t="s">
+      <c r="B76" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="239" t="s">
+      <c r="C76" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="240"/>
-      <c r="E76" s="235" t="s">
+      <c r="D76" s="212"/>
+      <c r="E76" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="244"/>
+      <c r="F76" s="216" t="s">
+        <v>75</v>
+      </c>
       <c r="G76" s="38"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -9310,12 +9323,12 @@
       <c r="BN76" s="79"/>
     </row>
     <row r="77" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A77" s="159"/>
-      <c r="B77" s="246"/>
-      <c r="C77" s="241"/>
-      <c r="D77" s="242"/>
-      <c r="E77" s="243"/>
-      <c r="F77" s="245"/>
+      <c r="A77" s="160"/>
+      <c r="B77" s="218"/>
+      <c r="C77" s="213"/>
+      <c r="D77" s="214"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="217"/>
       <c r="G77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -9368,7 +9381,7 @@
       <c r="BD77" s="63"/>
       <c r="BE77" s="63"/>
       <c r="BF77" s="63"/>
-      <c r="BG77" s="63"/>
+      <c r="BG77" s="152"/>
       <c r="BH77" s="63"/>
       <c r="BI77" s="13"/>
       <c r="BJ77" s="19"/>
@@ -9378,20 +9391,22 @@
       <c r="BN77" s="80"/>
     </row>
     <row r="78" spans="1:66" ht="12" customHeight="1">
-      <c r="A78" s="158">
+      <c r="A78" s="159">
         <v>38</v>
       </c>
-      <c r="B78" s="231" t="s">
+      <c r="B78" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="170" t="s">
+      <c r="C78" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="171"/>
-      <c r="E78" s="235" t="s">
+      <c r="D78" s="204"/>
+      <c r="E78" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="237"/>
+      <c r="F78" s="209" t="s">
+        <v>75</v>
+      </c>
       <c r="G78" s="38"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -9454,12 +9469,12 @@
       <c r="BN78" s="109"/>
     </row>
     <row r="79" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A79" s="159"/>
-      <c r="B79" s="232"/>
-      <c r="C79" s="233"/>
-      <c r="D79" s="234"/>
-      <c r="E79" s="236"/>
-      <c r="F79" s="238"/>
+      <c r="A79" s="160"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="205"/>
+      <c r="D79" s="206"/>
+      <c r="E79" s="208"/>
+      <c r="F79" s="210"/>
       <c r="G79" s="39"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -9513,7 +9528,7 @@
       <c r="BE79" s="69"/>
       <c r="BF79" s="69"/>
       <c r="BG79" s="69"/>
-      <c r="BH79" s="69"/>
+      <c r="BH79" s="158"/>
       <c r="BI79" s="14"/>
       <c r="BJ79" s="20"/>
       <c r="BK79" s="69"/>
@@ -9551,6 +9566,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -9575,143 +9727,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -9755,54 +9770,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="248"/>
+      <c r="E1" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="F1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="181"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="240"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="198"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="257"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -9877,12 +9892,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="199"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="258"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -9957,20 +9972,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="158">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="290" t="s">
+      <c r="D4" s="270"/>
+      <c r="E4" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="292"/>
+      <c r="F4" s="273"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -9993,20 +10008,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="294" t="s">
+      <c r="AC4" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="281" t="s">
+      <c r="AD4" s="261" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="274"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10029,22 +10044,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="282"/>
+      <c r="AC5" s="276"/>
+      <c r="AD5" s="262"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="258">
+      <c r="A6" s="264">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="284" t="s">
+      <c r="D6" s="194"/>
+      <c r="E6" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="286"/>
+      <c r="F6" s="267"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10067,16 +10082,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="282"/>
+      <c r="AC6" s="276"/>
+      <c r="AD6" s="262"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="287"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="268"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10099,24 +10114,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="282"/>
+      <c r="AC7" s="276"/>
+      <c r="AD7" s="262"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="266">
+      <c r="A8" s="278">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="297" t="s">
+      <c r="C8" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="298" t="s">
+      <c r="D8" s="189"/>
+      <c r="E8" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="276"/>
+      <c r="F8" s="283"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10139,16 +10154,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="282"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="262"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="267"/>
+      <c r="A9" s="279"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="272"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="284"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10171,24 +10186,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="282"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="262"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="279">
+      <c r="A10" s="285">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="201"/>
-      <c r="E10" s="277" t="s">
+      <c r="D10" s="179"/>
+      <c r="E10" s="286" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="278"/>
+      <c r="F10" s="288"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10211,16 +10226,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="282"/>
+      <c r="AC10" s="276"/>
+      <c r="AD10" s="262"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="267"/>
+      <c r="A11" s="279"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="271"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="289"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10243,22 +10258,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="282"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="262"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="266">
+      <c r="A12" s="278">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="280" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="270"/>
+      <c r="F12" s="291"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10281,16 +10296,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="282"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="279"/>
+      <c r="A13" s="285"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="288"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10313,24 +10328,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="282"/>
+      <c r="AC13" s="276"/>
+      <c r="AD13" s="262"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="273">
+      <c r="A14" s="292">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="275" t="s">
+      <c r="D14" s="204"/>
+      <c r="E14" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="276"/>
+      <c r="F14" s="283"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10353,16 +10368,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="282"/>
+      <c r="AC14" s="276"/>
+      <c r="AD14" s="262"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="273"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="271"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="289"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10385,22 +10400,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="282"/>
+      <c r="AC15" s="276"/>
+      <c r="AD15" s="262"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="273">
+      <c r="A16" s="292">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="213" t="s">
+      <c r="C16" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="268" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="270"/>
+      <c r="F16" s="291"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10423,16 +10438,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="282"/>
+      <c r="AC16" s="276"/>
+      <c r="AD16" s="262"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="273"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="271"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="289"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10455,22 +10470,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="282"/>
+      <c r="AC17" s="276"/>
+      <c r="AD17" s="262"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="273">
+      <c r="A18" s="292">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="268" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="270"/>
+      <c r="F18" s="291"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10493,16 +10508,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="282"/>
+      <c r="AC18" s="276"/>
+      <c r="AD18" s="262"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="273"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="272"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="284"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10525,24 +10540,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="282"/>
+      <c r="AC19" s="276"/>
+      <c r="AD19" s="262"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="266">
+      <c r="A20" s="278">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="275" t="s">
+      <c r="D20" s="204"/>
+      <c r="E20" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="276"/>
+      <c r="F20" s="283"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10565,18 +10580,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="282"/>
+      <c r="AC20" s="276"/>
+      <c r="AD20" s="262"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="267"/>
+      <c r="A21" s="279"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="271"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="289"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -10599,22 +10614,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="282"/>
+      <c r="AC21" s="276"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="266">
+      <c r="A22" s="278">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="247" t="s">
+      <c r="C22" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="214"/>
-      <c r="E22" s="268" t="s">
+      <c r="D22" s="194"/>
+      <c r="E22" s="294" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="270"/>
+      <c r="F22" s="291"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -10637,16 +10652,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="282"/>
+      <c r="AC22" s="276"/>
+      <c r="AD22" s="262"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="267"/>
+      <c r="A23" s="279"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="271"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="289"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -10669,22 +10684,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="282"/>
+      <c r="AC23" s="276"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="266">
+      <c r="A24" s="278">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="214"/>
-      <c r="E24" s="268" t="s">
+      <c r="D24" s="194"/>
+      <c r="E24" s="294" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="270"/>
+      <c r="F24" s="291"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10707,16 +10722,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="282"/>
+      <c r="AC24" s="276"/>
+      <c r="AD24" s="262"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="267"/>
+      <c r="A25" s="279"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="272"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="284"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -10739,24 +10754,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="282"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="262"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="258">
+      <c r="A26" s="264">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="239" t="s">
+      <c r="C26" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="240"/>
-      <c r="E26" s="259" t="s">
+      <c r="D26" s="212"/>
+      <c r="E26" s="295" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="261"/>
+      <c r="F26" s="297"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10779,16 +10794,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="282"/>
+      <c r="AC26" s="276"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="262"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="296"/>
+      <c r="F27" s="298"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10811,24 +10826,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="282"/>
+      <c r="AC27" s="276"/>
+      <c r="AD27" s="262"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="258">
+      <c r="A28" s="264">
         <v>14</v>
       </c>
-      <c r="B28" s="231" t="s">
+      <c r="B28" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="231" t="s">
+      <c r="D28" s="204"/>
+      <c r="E28" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="264"/>
+      <c r="F28" s="300"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10851,16 +10866,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="282"/>
+      <c r="AC28" s="276"/>
+      <c r="AD28" s="262"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="263"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="265"/>
+      <c r="A29" s="299"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="301"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -10883,8 +10898,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="283"/>
+      <c r="AC29" s="277"/>
+      <c r="AD29" s="263"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -10904,12 +10919,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -10926,45 +10974,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
